--- a/20 開発資料/00.基本設計/SAP要件確認資料.xlsx
+++ b/20 開発資料/00.基本設計/SAP要件確認資料.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2009,6 +2009,51 @@
   </si>
   <si>
     <t>7007466</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Field30</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>課税金額合計</t>
+    <rPh sb="0" eb="2">
+      <t>カゼイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>NZMi0014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(交通宿泊依頼)</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cost Center</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2645,7 +2690,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2910,14 +2955,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2928,35 +2970,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2972,6 +3008,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3000,20 +3045,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3105,13 +3144,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3119,6 +3164,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3423,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="12"/>
@@ -3434,7 +3482,7 @@
     <col min="1" max="1" width="11" style="16" customWidth="1"/>
     <col min="2" max="2" width="46.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="16" customWidth="1"/>
     <col min="6" max="6" width="53.85546875" style="16" customWidth="1"/>
     <col min="7" max="16384" width="7.28515625" style="16"/>
@@ -3468,7 +3516,7 @@
       </c>
       <c r="F2" s="93"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="29.25" customHeight="1">
       <c r="A3" s="58" t="s">
         <v>140</v>
       </c>
@@ -3486,12 +3534,12 @@
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>72</v>
+        <v>168</v>
+      </c>
+      <c r="B4" s="164" t="s">
+        <v>169</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>93</v>
@@ -3502,424 +3550,92 @@
       <c r="E4" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75">
-      <c r="A5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="81"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75">
+      <c r="D5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75">
+      <c r="D6" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75">
-      <c r="A8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75">
-      <c r="A9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="81"/>
+        <v>70</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
-      <c r="A10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="81"/>
-    </row>
-    <row r="11" spans="1:6" ht="12.75">
-      <c r="A11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="81"/>
-    </row>
-    <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="81"/>
-    </row>
-    <row r="13" spans="1:6" ht="12.75">
-      <c r="A13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" spans="1:6" ht="12.75">
-      <c r="A14" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="81"/>
-    </row>
-    <row r="15" spans="1:6" ht="12.75">
-      <c r="A15" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="81"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75">
-      <c r="A16" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="80"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="81"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75">
-      <c r="A19" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="80"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
-      <c r="A23" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75">
-      <c r="A28" s="55" t="s">
+      <c r="A10" s="55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="16" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="56" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="56" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4466,103 +4182,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="112" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="112" t="s">
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="139"/>
-      <c r="AW1" s="112" t="s">
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="113"/>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="113"/>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="114"/>
-      <c r="BG1" s="112" t="s">
+      <c r="AX1" s="110"/>
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
-      <c r="BJ1" s="113"/>
-      <c r="BK1" s="113"/>
-      <c r="BL1" s="113"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="113"/>
-      <c r="BO1" s="113"/>
-      <c r="BP1" s="113"/>
-      <c r="BQ1" s="113"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="114"/>
-      <c r="BT1" s="112" t="s">
+      <c r="BH1" s="110"/>
+      <c r="BI1" s="110"/>
+      <c r="BJ1" s="110"/>
+      <c r="BK1" s="110"/>
+      <c r="BL1" s="110"/>
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="110"/>
+      <c r="BO1" s="110"/>
+      <c r="BP1" s="110"/>
+      <c r="BQ1" s="110"/>
+      <c r="BR1" s="110"/>
+      <c r="BS1" s="111"/>
+      <c r="BT1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="113"/>
-      <c r="BV1" s="113"/>
-      <c r="BW1" s="113"/>
-      <c r="BX1" s="113"/>
-      <c r="BY1" s="113"/>
-      <c r="BZ1" s="113"/>
-      <c r="CA1" s="114"/>
-      <c r="CB1" s="112" t="s">
+      <c r="BU1" s="110"/>
+      <c r="BV1" s="110"/>
+      <c r="BW1" s="110"/>
+      <c r="BX1" s="110"/>
+      <c r="BY1" s="110"/>
+      <c r="BZ1" s="110"/>
+      <c r="CA1" s="111"/>
+      <c r="CB1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="138"/>
-      <c r="CD1" s="138"/>
-      <c r="CE1" s="139"/>
+      <c r="CC1" s="136"/>
+      <c r="CD1" s="136"/>
+      <c r="CE1" s="137"/>
     </row>
     <row r="2" spans="1:90" ht="15.75" customHeight="1">
       <c r="A2" s="115" t="s">
@@ -4592,66 +4308,66 @@
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
       <c r="Y2" s="117"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="141"/>
-      <c r="AQ2" s="141"/>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="130"/>
-      <c r="AY2" s="130"/>
-      <c r="AZ2" s="130"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="130"/>
-      <c r="BC2" s="130"/>
-      <c r="BD2" s="130"/>
-      <c r="BE2" s="130"/>
-      <c r="BF2" s="131"/>
-      <c r="BG2" s="150"/>
-      <c r="BH2" s="151"/>
-      <c r="BI2" s="151"/>
-      <c r="BJ2" s="151"/>
-      <c r="BK2" s="151"/>
-      <c r="BL2" s="151"/>
-      <c r="BM2" s="151"/>
-      <c r="BN2" s="151"/>
-      <c r="BO2" s="151"/>
-      <c r="BP2" s="151"/>
-      <c r="BQ2" s="151"/>
-      <c r="BR2" s="151"/>
-      <c r="BS2" s="152"/>
-      <c r="BT2" s="150"/>
-      <c r="BU2" s="151"/>
-      <c r="BV2" s="151"/>
-      <c r="BW2" s="152"/>
-      <c r="BX2" s="150"/>
-      <c r="BY2" s="151"/>
-      <c r="BZ2" s="151"/>
-      <c r="CA2" s="152"/>
-      <c r="CB2" s="149" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="149"/>
+      <c r="BI2" s="149"/>
+      <c r="BJ2" s="149"/>
+      <c r="BK2" s="149"/>
+      <c r="BL2" s="149"/>
+      <c r="BM2" s="149"/>
+      <c r="BN2" s="149"/>
+      <c r="BO2" s="149"/>
+      <c r="BP2" s="149"/>
+      <c r="BQ2" s="149"/>
+      <c r="BR2" s="149"/>
+      <c r="BS2" s="150"/>
+      <c r="BT2" s="148"/>
+      <c r="BU2" s="149"/>
+      <c r="BV2" s="149"/>
+      <c r="BW2" s="150"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="149"/>
+      <c r="BZ2" s="149"/>
+      <c r="CA2" s="150"/>
+      <c r="CB2" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="141"/>
-      <c r="CD2" s="141"/>
-      <c r="CE2" s="142"/>
+      <c r="CC2" s="139"/>
+      <c r="CD2" s="139"/>
+      <c r="CE2" s="140"/>
     </row>
     <row r="3" spans="1:90" ht="15.75" customHeight="1">
       <c r="A3" s="118"/>
@@ -4679,64 +4395,64 @@
       <c r="W3" s="119"/>
       <c r="X3" s="119"/>
       <c r="Y3" s="120"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="133"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="144"/>
-      <c r="AQ3" s="144"/>
-      <c r="AR3" s="144"/>
-      <c r="AS3" s="144"/>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="144"/>
-      <c r="AV3" s="145"/>
-      <c r="AW3" s="132"/>
-      <c r="AX3" s="133"/>
-      <c r="AY3" s="133"/>
-      <c r="AZ3" s="133"/>
-      <c r="BA3" s="133"/>
-      <c r="BB3" s="133"/>
-      <c r="BC3" s="133"/>
-      <c r="BD3" s="133"/>
-      <c r="BE3" s="133"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="153"/>
-      <c r="BH3" s="154"/>
-      <c r="BI3" s="154"/>
-      <c r="BJ3" s="154"/>
-      <c r="BK3" s="154"/>
-      <c r="BL3" s="154"/>
-      <c r="BM3" s="154"/>
-      <c r="BN3" s="154"/>
-      <c r="BO3" s="154"/>
-      <c r="BP3" s="154"/>
-      <c r="BQ3" s="154"/>
-      <c r="BR3" s="154"/>
-      <c r="BS3" s="155"/>
-      <c r="BT3" s="153"/>
-      <c r="BU3" s="154"/>
-      <c r="BV3" s="154"/>
-      <c r="BW3" s="155"/>
-      <c r="BX3" s="153"/>
-      <c r="BY3" s="154"/>
-      <c r="BZ3" s="154"/>
-      <c r="CA3" s="155"/>
-      <c r="CB3" s="143"/>
-      <c r="CC3" s="144"/>
-      <c r="CD3" s="144"/>
-      <c r="CE3" s="145"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="131"/>
+      <c r="BC3" s="131"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="131"/>
+      <c r="BF3" s="132"/>
+      <c r="BG3" s="151"/>
+      <c r="BH3" s="152"/>
+      <c r="BI3" s="152"/>
+      <c r="BJ3" s="152"/>
+      <c r="BK3" s="152"/>
+      <c r="BL3" s="152"/>
+      <c r="BM3" s="152"/>
+      <c r="BN3" s="152"/>
+      <c r="BO3" s="152"/>
+      <c r="BP3" s="152"/>
+      <c r="BQ3" s="152"/>
+      <c r="BR3" s="152"/>
+      <c r="BS3" s="153"/>
+      <c r="BT3" s="151"/>
+      <c r="BU3" s="152"/>
+      <c r="BV3" s="152"/>
+      <c r="BW3" s="153"/>
+      <c r="BX3" s="151"/>
+      <c r="BY3" s="152"/>
+      <c r="BZ3" s="152"/>
+      <c r="CA3" s="153"/>
+      <c r="CB3" s="141"/>
+      <c r="CC3" s="142"/>
+      <c r="CD3" s="142"/>
+      <c r="CE3" s="143"/>
     </row>
     <row r="4" spans="1:90" ht="15.75" customHeight="1">
       <c r="A4" s="121"/>
@@ -4764,64 +4480,64 @@
       <c r="W4" s="122"/>
       <c r="X4" s="122"/>
       <c r="Y4" s="123"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="146"/>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
-      <c r="AP4" s="147"/>
-      <c r="AQ4" s="147"/>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="147"/>
-      <c r="AU4" s="147"/>
-      <c r="AV4" s="148"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="137"/>
-      <c r="BG4" s="156"/>
-      <c r="BH4" s="157"/>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="157"/>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="157"/>
-      <c r="BO4" s="157"/>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="157"/>
-      <c r="BS4" s="158"/>
-      <c r="BT4" s="156"/>
-      <c r="BU4" s="157"/>
-      <c r="BV4" s="157"/>
-      <c r="BW4" s="158"/>
-      <c r="BX4" s="156"/>
-      <c r="BY4" s="157"/>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="158"/>
-      <c r="CB4" s="146"/>
-      <c r="CC4" s="147"/>
-      <c r="CD4" s="147"/>
-      <c r="CE4" s="148"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="135"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="145"/>
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="145"/>
+      <c r="AS4" s="145"/>
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="134"/>
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="135"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="155"/>
+      <c r="BI4" s="155"/>
+      <c r="BJ4" s="155"/>
+      <c r="BK4" s="155"/>
+      <c r="BL4" s="155"/>
+      <c r="BM4" s="155"/>
+      <c r="BN4" s="155"/>
+      <c r="BO4" s="155"/>
+      <c r="BP4" s="155"/>
+      <c r="BQ4" s="155"/>
+      <c r="BR4" s="155"/>
+      <c r="BS4" s="156"/>
+      <c r="BT4" s="154"/>
+      <c r="BU4" s="155"/>
+      <c r="BV4" s="155"/>
+      <c r="BW4" s="156"/>
+      <c r="BX4" s="154"/>
+      <c r="BY4" s="155"/>
+      <c r="BZ4" s="155"/>
+      <c r="CA4" s="156"/>
+      <c r="CB4" s="144"/>
+      <c r="CC4" s="145"/>
+      <c r="CD4" s="145"/>
+      <c r="CE4" s="146"/>
     </row>
     <row r="5" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -4916,91 +4632,91 @@
       <c r="CL5" s="3"/>
     </row>
     <row r="6" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="104"/>
-      <c r="BJ6" s="104"/>
-      <c r="BK6" s="104"/>
-      <c r="BL6" s="104"/>
-      <c r="BM6" s="104"/>
-      <c r="BN6" s="104"/>
-      <c r="BO6" s="104"/>
-      <c r="BP6" s="104"/>
-      <c r="BQ6" s="104"/>
-      <c r="BR6" s="104"/>
-      <c r="BS6" s="104"/>
-      <c r="BT6" s="104"/>
-      <c r="BU6" s="104"/>
-      <c r="BV6" s="104"/>
-      <c r="BW6" s="104"/>
-      <c r="BX6" s="104"/>
-      <c r="BY6" s="104"/>
-      <c r="BZ6" s="104"/>
-      <c r="CA6" s="104"/>
-      <c r="CB6" s="104"/>
-      <c r="CC6" s="104"/>
-      <c r="CD6" s="104"/>
-      <c r="CE6" s="105"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125"/>
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125"/>
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125"/>
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125"/>
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="125"/>
+      <c r="BJ6" s="125"/>
+      <c r="BK6" s="125"/>
+      <c r="BL6" s="125"/>
+      <c r="BM6" s="125"/>
+      <c r="BN6" s="125"/>
+      <c r="BO6" s="125"/>
+      <c r="BP6" s="125"/>
+      <c r="BQ6" s="125"/>
+      <c r="BR6" s="125"/>
+      <c r="BS6" s="125"/>
+      <c r="BT6" s="125"/>
+      <c r="BU6" s="125"/>
+      <c r="BV6" s="125"/>
+      <c r="BW6" s="125"/>
+      <c r="BX6" s="125"/>
+      <c r="BY6" s="125"/>
+      <c r="BZ6" s="125"/>
+      <c r="CA6" s="125"/>
+      <c r="CB6" s="125"/>
+      <c r="CC6" s="125"/>
+      <c r="CD6" s="125"/>
+      <c r="CE6" s="126"/>
       <c r="CF6" s="3"/>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
@@ -5008,97 +4724,97 @@
       <c r="CJ6" s="3"/>
     </row>
     <row r="7" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="127" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="100" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="100" t="s">
+      <c r="P7" s="160"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="160"/>
+      <c r="AG7" s="160"/>
+      <c r="AH7" s="160"/>
+      <c r="AI7" s="160"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="101"/>
-      <c r="AP7" s="101"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="101"/>
-      <c r="AS7" s="101"/>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="101"/>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="101"/>
-      <c r="AY7" s="101"/>
-      <c r="AZ7" s="101"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="101"/>
-      <c r="BC7" s="101"/>
-      <c r="BD7" s="101"/>
-      <c r="BE7" s="101"/>
-      <c r="BF7" s="101"/>
-      <c r="BG7" s="101"/>
-      <c r="BH7" s="101"/>
-      <c r="BI7" s="101"/>
-      <c r="BJ7" s="101"/>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="101"/>
-      <c r="BM7" s="101"/>
-      <c r="BN7" s="101"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="101"/>
-      <c r="BQ7" s="101"/>
-      <c r="BR7" s="101"/>
-      <c r="BS7" s="101"/>
-      <c r="BT7" s="101"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="101"/>
-      <c r="BW7" s="101"/>
-      <c r="BX7" s="101"/>
-      <c r="BY7" s="101"/>
-      <c r="BZ7" s="101"/>
-      <c r="CA7" s="101"/>
-      <c r="CB7" s="101"/>
-      <c r="CC7" s="101"/>
-      <c r="CD7" s="101"/>
-      <c r="CE7" s="102"/>
+      <c r="AL7" s="160"/>
+      <c r="AM7" s="160"/>
+      <c r="AN7" s="160"/>
+      <c r="AO7" s="160"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="160"/>
+      <c r="AR7" s="160"/>
+      <c r="AS7" s="160"/>
+      <c r="AT7" s="160"/>
+      <c r="AU7" s="160"/>
+      <c r="AV7" s="160"/>
+      <c r="AW7" s="160"/>
+      <c r="AX7" s="160"/>
+      <c r="AY7" s="160"/>
+      <c r="AZ7" s="160"/>
+      <c r="BA7" s="160"/>
+      <c r="BB7" s="160"/>
+      <c r="BC7" s="160"/>
+      <c r="BD7" s="160"/>
+      <c r="BE7" s="160"/>
+      <c r="BF7" s="160"/>
+      <c r="BG7" s="160"/>
+      <c r="BH7" s="160"/>
+      <c r="BI7" s="160"/>
+      <c r="BJ7" s="160"/>
+      <c r="BK7" s="160"/>
+      <c r="BL7" s="160"/>
+      <c r="BM7" s="160"/>
+      <c r="BN7" s="160"/>
+      <c r="BO7" s="160"/>
+      <c r="BP7" s="160"/>
+      <c r="BQ7" s="160"/>
+      <c r="BR7" s="160"/>
+      <c r="BS7" s="160"/>
+      <c r="BT7" s="160"/>
+      <c r="BU7" s="160"/>
+      <c r="BV7" s="160"/>
+      <c r="BW7" s="160"/>
+      <c r="BX7" s="160"/>
+      <c r="BY7" s="160"/>
+      <c r="BZ7" s="160"/>
+      <c r="CA7" s="160"/>
+      <c r="CB7" s="160"/>
+      <c r="CC7" s="160"/>
+      <c r="CD7" s="160"/>
+      <c r="CE7" s="161"/>
       <c r="CF7" s="3"/>
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
@@ -5106,24 +4822,24 @@
       <c r="CJ7" s="3"/>
     </row>
     <row r="8" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="108">
+      <c r="A8" s="102">
         <v>1</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="124" t="s">
+      <c r="B8" s="103"/>
+      <c r="C8" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="126"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
@@ -5200,24 +4916,24 @@
       <c r="CJ8" s="5"/>
     </row>
     <row r="9" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="110">
+      <c r="A9" s="107">
         <v>2</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="94" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="96"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="106"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -5240,55 +4956,55 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
-      <c r="AK9" s="94" t="s">
+      <c r="AK9" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="AL9" s="95"/>
-      <c r="AM9" s="95"/>
-      <c r="AN9" s="95"/>
-      <c r="AO9" s="95"/>
-      <c r="AP9" s="95"/>
-      <c r="AQ9" s="95"/>
-      <c r="AR9" s="95"/>
-      <c r="AS9" s="95"/>
-      <c r="AT9" s="95"/>
-      <c r="AU9" s="95"/>
-      <c r="AV9" s="95"/>
-      <c r="AW9" s="95"/>
-      <c r="AX9" s="95"/>
-      <c r="AY9" s="95"/>
-      <c r="AZ9" s="95"/>
-      <c r="BA9" s="95"/>
-      <c r="BB9" s="95"/>
-      <c r="BC9" s="95"/>
-      <c r="BD9" s="95"/>
-      <c r="BE9" s="95"/>
-      <c r="BF9" s="95"/>
-      <c r="BG9" s="95"/>
-      <c r="BH9" s="95"/>
-      <c r="BI9" s="95"/>
-      <c r="BJ9" s="95"/>
-      <c r="BK9" s="95"/>
-      <c r="BL9" s="95"/>
-      <c r="BM9" s="95"/>
-      <c r="BN9" s="95"/>
-      <c r="BO9" s="95"/>
-      <c r="BP9" s="95"/>
-      <c r="BQ9" s="95"/>
-      <c r="BR9" s="95"/>
-      <c r="BS9" s="95"/>
-      <c r="BT9" s="95"/>
-      <c r="BU9" s="95"/>
-      <c r="BV9" s="95"/>
-      <c r="BW9" s="95"/>
-      <c r="BX9" s="95"/>
-      <c r="BY9" s="95"/>
-      <c r="BZ9" s="95"/>
-      <c r="CA9" s="95"/>
-      <c r="CB9" s="95"/>
-      <c r="CC9" s="95"/>
-      <c r="CD9" s="95"/>
-      <c r="CE9" s="96"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="105"/>
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
+      <c r="BJ9" s="105"/>
+      <c r="BK9" s="105"/>
+      <c r="BL9" s="105"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="105"/>
+      <c r="BP9" s="105"/>
+      <c r="BQ9" s="105"/>
+      <c r="BR9" s="105"/>
+      <c r="BS9" s="105"/>
+      <c r="BT9" s="105"/>
+      <c r="BU9" s="105"/>
+      <c r="BV9" s="105"/>
+      <c r="BW9" s="105"/>
+      <c r="BX9" s="105"/>
+      <c r="BY9" s="105"/>
+      <c r="BZ9" s="105"/>
+      <c r="CA9" s="105"/>
+      <c r="CB9" s="105"/>
+      <c r="CC9" s="105"/>
+      <c r="CD9" s="105"/>
+      <c r="CE9" s="106"/>
       <c r="CF9" s="5"/>
       <c r="CG9" s="5"/>
       <c r="CH9" s="5"/>
@@ -5296,24 +5012,24 @@
       <c r="CJ9" s="5"/>
     </row>
     <row r="10" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="110">
+      <c r="A10" s="107">
         <v>3</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="106"/>
       <c r="O10" s="12" t="s">
         <v>25</v>
       </c>
@@ -5338,55 +5054,55 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="94" t="s">
+      <c r="AK10" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="AL10" s="95"/>
-      <c r="AM10" s="95"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="95"/>
-      <c r="AS10" s="95"/>
-      <c r="AT10" s="95"/>
-      <c r="AU10" s="95"/>
-      <c r="AV10" s="95"/>
-      <c r="AW10" s="95"/>
-      <c r="AX10" s="95"/>
-      <c r="AY10" s="95"/>
-      <c r="AZ10" s="95"/>
-      <c r="BA10" s="95"/>
-      <c r="BB10" s="95"/>
-      <c r="BC10" s="95"/>
-      <c r="BD10" s="95"/>
-      <c r="BE10" s="95"/>
-      <c r="BF10" s="95"/>
-      <c r="BG10" s="95"/>
-      <c r="BH10" s="95"/>
-      <c r="BI10" s="95"/>
-      <c r="BJ10" s="95"/>
-      <c r="BK10" s="95"/>
-      <c r="BL10" s="95"/>
-      <c r="BM10" s="95"/>
-      <c r="BN10" s="95"/>
-      <c r="BO10" s="95"/>
-      <c r="BP10" s="95"/>
-      <c r="BQ10" s="95"/>
-      <c r="BR10" s="95"/>
-      <c r="BS10" s="95"/>
-      <c r="BT10" s="95"/>
-      <c r="BU10" s="95"/>
-      <c r="BV10" s="95"/>
-      <c r="BW10" s="95"/>
-      <c r="BX10" s="95"/>
-      <c r="BY10" s="95"/>
-      <c r="BZ10" s="95"/>
-      <c r="CA10" s="95"/>
-      <c r="CB10" s="95"/>
-      <c r="CC10" s="95"/>
-      <c r="CD10" s="95"/>
-      <c r="CE10" s="96"/>
+      <c r="AL10" s="105"/>
+      <c r="AM10" s="105"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="105"/>
+      <c r="AR10" s="105"/>
+      <c r="AS10" s="105"/>
+      <c r="AT10" s="105"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="105"/>
+      <c r="AW10" s="105"/>
+      <c r="AX10" s="105"/>
+      <c r="AY10" s="105"/>
+      <c r="AZ10" s="105"/>
+      <c r="BA10" s="105"/>
+      <c r="BB10" s="105"/>
+      <c r="BC10" s="105"/>
+      <c r="BD10" s="105"/>
+      <c r="BE10" s="105"/>
+      <c r="BF10" s="105"/>
+      <c r="BG10" s="105"/>
+      <c r="BH10" s="105"/>
+      <c r="BI10" s="105"/>
+      <c r="BJ10" s="105"/>
+      <c r="BK10" s="105"/>
+      <c r="BL10" s="105"/>
+      <c r="BM10" s="105"/>
+      <c r="BN10" s="105"/>
+      <c r="BO10" s="105"/>
+      <c r="BP10" s="105"/>
+      <c r="BQ10" s="105"/>
+      <c r="BR10" s="105"/>
+      <c r="BS10" s="105"/>
+      <c r="BT10" s="105"/>
+      <c r="BU10" s="105"/>
+      <c r="BV10" s="105"/>
+      <c r="BW10" s="105"/>
+      <c r="BX10" s="105"/>
+      <c r="BY10" s="105"/>
+      <c r="BZ10" s="105"/>
+      <c r="CA10" s="105"/>
+      <c r="CB10" s="105"/>
+      <c r="CC10" s="105"/>
+      <c r="CD10" s="105"/>
+      <c r="CE10" s="106"/>
       <c r="CF10" s="5"/>
       <c r="CG10" s="5"/>
       <c r="CH10" s="5"/>
@@ -5394,24 +5110,24 @@
       <c r="CJ10" s="5"/>
     </row>
     <row r="11" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="108">
+      <c r="A11" s="102">
         <v>4</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="96"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="106"/>
       <c r="O11" s="12" t="s">
         <v>26</v>
       </c>
@@ -5436,55 +5152,55 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="94" t="s">
+      <c r="AK11" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="95"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="95"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="95"/>
-      <c r="AS11" s="95"/>
-      <c r="AT11" s="95"/>
-      <c r="AU11" s="95"/>
-      <c r="AV11" s="95"/>
-      <c r="AW11" s="95"/>
-      <c r="AX11" s="95"/>
-      <c r="AY11" s="95"/>
-      <c r="AZ11" s="95"/>
-      <c r="BA11" s="95"/>
-      <c r="BB11" s="95"/>
-      <c r="BC11" s="95"/>
-      <c r="BD11" s="95"/>
-      <c r="BE11" s="95"/>
-      <c r="BF11" s="95"/>
-      <c r="BG11" s="95"/>
-      <c r="BH11" s="95"/>
-      <c r="BI11" s="95"/>
-      <c r="BJ11" s="95"/>
-      <c r="BK11" s="95"/>
-      <c r="BL11" s="95"/>
-      <c r="BM11" s="95"/>
-      <c r="BN11" s="95"/>
-      <c r="BO11" s="95"/>
-      <c r="BP11" s="95"/>
-      <c r="BQ11" s="95"/>
-      <c r="BR11" s="95"/>
-      <c r="BS11" s="95"/>
-      <c r="BT11" s="95"/>
-      <c r="BU11" s="95"/>
-      <c r="BV11" s="95"/>
-      <c r="BW11" s="95"/>
-      <c r="BX11" s="95"/>
-      <c r="BY11" s="95"/>
-      <c r="BZ11" s="95"/>
-      <c r="CA11" s="95"/>
-      <c r="CB11" s="95"/>
-      <c r="CC11" s="95"/>
-      <c r="CD11" s="95"/>
-      <c r="CE11" s="96"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="105"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="105"/>
+      <c r="BA11" s="105"/>
+      <c r="BB11" s="105"/>
+      <c r="BC11" s="105"/>
+      <c r="BD11" s="105"/>
+      <c r="BE11" s="105"/>
+      <c r="BF11" s="105"/>
+      <c r="BG11" s="105"/>
+      <c r="BH11" s="105"/>
+      <c r="BI11" s="105"/>
+      <c r="BJ11" s="105"/>
+      <c r="BK11" s="105"/>
+      <c r="BL11" s="105"/>
+      <c r="BM11" s="105"/>
+      <c r="BN11" s="105"/>
+      <c r="BO11" s="105"/>
+      <c r="BP11" s="105"/>
+      <c r="BQ11" s="105"/>
+      <c r="BR11" s="105"/>
+      <c r="BS11" s="105"/>
+      <c r="BT11" s="105"/>
+      <c r="BU11" s="105"/>
+      <c r="BV11" s="105"/>
+      <c r="BW11" s="105"/>
+      <c r="BX11" s="105"/>
+      <c r="BY11" s="105"/>
+      <c r="BZ11" s="105"/>
+      <c r="CA11" s="105"/>
+      <c r="CB11" s="105"/>
+      <c r="CC11" s="105"/>
+      <c r="CD11" s="105"/>
+      <c r="CE11" s="106"/>
       <c r="CF11" s="5"/>
       <c r="CG11" s="5"/>
       <c r="CH11" s="5"/>
@@ -5492,24 +5208,24 @@
       <c r="CJ11" s="5"/>
     </row>
     <row r="12" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="110">
+      <c r="A12" s="107">
         <v>5</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="106"/>
       <c r="O12" s="12" t="s">
         <v>27</v>
       </c>
@@ -5534,55 +5250,55 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="94" t="s">
+      <c r="AK12" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="95"/>
-      <c r="CC12" s="95"/>
-      <c r="CD12" s="95"/>
-      <c r="CE12" s="96"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
+      <c r="AX12" s="105"/>
+      <c r="AY12" s="105"/>
+      <c r="AZ12" s="105"/>
+      <c r="BA12" s="105"/>
+      <c r="BB12" s="105"/>
+      <c r="BC12" s="105"/>
+      <c r="BD12" s="105"/>
+      <c r="BE12" s="105"/>
+      <c r="BF12" s="105"/>
+      <c r="BG12" s="105"/>
+      <c r="BH12" s="105"/>
+      <c r="BI12" s="105"/>
+      <c r="BJ12" s="105"/>
+      <c r="BK12" s="105"/>
+      <c r="BL12" s="105"/>
+      <c r="BM12" s="105"/>
+      <c r="BN12" s="105"/>
+      <c r="BO12" s="105"/>
+      <c r="BP12" s="105"/>
+      <c r="BQ12" s="105"/>
+      <c r="BR12" s="105"/>
+      <c r="BS12" s="105"/>
+      <c r="BT12" s="105"/>
+      <c r="BU12" s="105"/>
+      <c r="BV12" s="105"/>
+      <c r="BW12" s="105"/>
+      <c r="BX12" s="105"/>
+      <c r="BY12" s="105"/>
+      <c r="BZ12" s="105"/>
+      <c r="CA12" s="105"/>
+      <c r="CB12" s="105"/>
+      <c r="CC12" s="105"/>
+      <c r="CD12" s="105"/>
+      <c r="CE12" s="106"/>
       <c r="CF12" s="5"/>
       <c r="CG12" s="5"/>
       <c r="CH12" s="5"/>
@@ -5590,24 +5306,24 @@
       <c r="CJ12" s="5"/>
     </row>
     <row r="13" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="108">
+      <c r="A13" s="102">
         <v>6</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="94" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="106"/>
       <c r="O13" s="12"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -5630,55 +5346,55 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
-      <c r="AK13" s="94" t="s">
+      <c r="AK13" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
-      <c r="BJ13" s="95"/>
-      <c r="BK13" s="95"/>
-      <c r="BL13" s="95"/>
-      <c r="BM13" s="95"/>
-      <c r="BN13" s="95"/>
-      <c r="BO13" s="95"/>
-      <c r="BP13" s="95"/>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95"/>
-      <c r="BW13" s="95"/>
-      <c r="BX13" s="95"/>
-      <c r="BY13" s="95"/>
-      <c r="BZ13" s="95"/>
-      <c r="CA13" s="95"/>
-      <c r="CB13" s="95"/>
-      <c r="CC13" s="95"/>
-      <c r="CD13" s="95"/>
-      <c r="CE13" s="96"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="105"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="105"/>
+      <c r="AU13" s="105"/>
+      <c r="AV13" s="105"/>
+      <c r="AW13" s="105"/>
+      <c r="AX13" s="105"/>
+      <c r="AY13" s="105"/>
+      <c r="AZ13" s="105"/>
+      <c r="BA13" s="105"/>
+      <c r="BB13" s="105"/>
+      <c r="BC13" s="105"/>
+      <c r="BD13" s="105"/>
+      <c r="BE13" s="105"/>
+      <c r="BF13" s="105"/>
+      <c r="BG13" s="105"/>
+      <c r="BH13" s="105"/>
+      <c r="BI13" s="105"/>
+      <c r="BJ13" s="105"/>
+      <c r="BK13" s="105"/>
+      <c r="BL13" s="105"/>
+      <c r="BM13" s="105"/>
+      <c r="BN13" s="105"/>
+      <c r="BO13" s="105"/>
+      <c r="BP13" s="105"/>
+      <c r="BQ13" s="105"/>
+      <c r="BR13" s="105"/>
+      <c r="BS13" s="105"/>
+      <c r="BT13" s="105"/>
+      <c r="BU13" s="105"/>
+      <c r="BV13" s="105"/>
+      <c r="BW13" s="105"/>
+      <c r="BX13" s="105"/>
+      <c r="BY13" s="105"/>
+      <c r="BZ13" s="105"/>
+      <c r="CA13" s="105"/>
+      <c r="CB13" s="105"/>
+      <c r="CC13" s="105"/>
+      <c r="CD13" s="105"/>
+      <c r="CE13" s="106"/>
       <c r="CF13" s="5"/>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
@@ -5686,24 +5402,24 @@
       <c r="CJ13" s="5"/>
     </row>
     <row r="14" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="110">
+      <c r="A14" s="107">
         <v>7</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="94" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="96"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="106"/>
       <c r="O14" s="12"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -5726,55 +5442,55 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
-      <c r="AK14" s="94" t="s">
+      <c r="AK14" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="95"/>
-      <c r="BX14" s="95"/>
-      <c r="BY14" s="95"/>
-      <c r="BZ14" s="95"/>
-      <c r="CA14" s="95"/>
-      <c r="CB14" s="95"/>
-      <c r="CC14" s="95"/>
-      <c r="CD14" s="95"/>
-      <c r="CE14" s="96"/>
+      <c r="AL14" s="105"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="105"/>
+      <c r="AT14" s="105"/>
+      <c r="AU14" s="105"/>
+      <c r="AV14" s="105"/>
+      <c r="AW14" s="105"/>
+      <c r="AX14" s="105"/>
+      <c r="AY14" s="105"/>
+      <c r="AZ14" s="105"/>
+      <c r="BA14" s="105"/>
+      <c r="BB14" s="105"/>
+      <c r="BC14" s="105"/>
+      <c r="BD14" s="105"/>
+      <c r="BE14" s="105"/>
+      <c r="BF14" s="105"/>
+      <c r="BG14" s="105"/>
+      <c r="BH14" s="105"/>
+      <c r="BI14" s="105"/>
+      <c r="BJ14" s="105"/>
+      <c r="BK14" s="105"/>
+      <c r="BL14" s="105"/>
+      <c r="BM14" s="105"/>
+      <c r="BN14" s="105"/>
+      <c r="BO14" s="105"/>
+      <c r="BP14" s="105"/>
+      <c r="BQ14" s="105"/>
+      <c r="BR14" s="105"/>
+      <c r="BS14" s="105"/>
+      <c r="BT14" s="105"/>
+      <c r="BU14" s="105"/>
+      <c r="BV14" s="105"/>
+      <c r="BW14" s="105"/>
+      <c r="BX14" s="105"/>
+      <c r="BY14" s="105"/>
+      <c r="BZ14" s="105"/>
+      <c r="CA14" s="105"/>
+      <c r="CB14" s="105"/>
+      <c r="CC14" s="105"/>
+      <c r="CD14" s="105"/>
+      <c r="CE14" s="106"/>
       <c r="CF14" s="5"/>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
@@ -5782,24 +5498,24 @@
       <c r="CJ14" s="5"/>
     </row>
     <row r="15" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="110">
+      <c r="A15" s="107">
         <v>8</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="96"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="106"/>
       <c r="O15" s="12" t="s">
         <v>28</v>
       </c>
@@ -5824,55 +5540,55 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
-      <c r="AK15" s="94" t="s">
+      <c r="AK15" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AL15" s="95"/>
-      <c r="AM15" s="95"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="95"/>
-      <c r="BB15" s="95"/>
-      <c r="BC15" s="95"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="95"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="95"/>
-      <c r="BJ15" s="95"/>
-      <c r="BK15" s="95"/>
-      <c r="BL15" s="95"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
-      <c r="BP15" s="95"/>
-      <c r="BQ15" s="95"/>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="95"/>
-      <c r="BT15" s="95"/>
-      <c r="BU15" s="95"/>
-      <c r="BV15" s="95"/>
-      <c r="BW15" s="95"/>
-      <c r="BX15" s="95"/>
-      <c r="BY15" s="95"/>
-      <c r="BZ15" s="95"/>
-      <c r="CA15" s="95"/>
-      <c r="CB15" s="95"/>
-      <c r="CC15" s="95"/>
-      <c r="CD15" s="95"/>
-      <c r="CE15" s="96"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="105"/>
+      <c r="AW15" s="105"/>
+      <c r="AX15" s="105"/>
+      <c r="AY15" s="105"/>
+      <c r="AZ15" s="105"/>
+      <c r="BA15" s="105"/>
+      <c r="BB15" s="105"/>
+      <c r="BC15" s="105"/>
+      <c r="BD15" s="105"/>
+      <c r="BE15" s="105"/>
+      <c r="BF15" s="105"/>
+      <c r="BG15" s="105"/>
+      <c r="BH15" s="105"/>
+      <c r="BI15" s="105"/>
+      <c r="BJ15" s="105"/>
+      <c r="BK15" s="105"/>
+      <c r="BL15" s="105"/>
+      <c r="BM15" s="105"/>
+      <c r="BN15" s="105"/>
+      <c r="BO15" s="105"/>
+      <c r="BP15" s="105"/>
+      <c r="BQ15" s="105"/>
+      <c r="BR15" s="105"/>
+      <c r="BS15" s="105"/>
+      <c r="BT15" s="105"/>
+      <c r="BU15" s="105"/>
+      <c r="BV15" s="105"/>
+      <c r="BW15" s="105"/>
+      <c r="BX15" s="105"/>
+      <c r="BY15" s="105"/>
+      <c r="BZ15" s="105"/>
+      <c r="CA15" s="105"/>
+      <c r="CB15" s="105"/>
+      <c r="CC15" s="105"/>
+      <c r="CD15" s="105"/>
+      <c r="CE15" s="106"/>
       <c r="CF15" s="5"/>
       <c r="CG15" s="5"/>
       <c r="CH15" s="5"/>
@@ -5880,24 +5596,24 @@
       <c r="CJ15" s="5"/>
     </row>
     <row r="16" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="108">
+      <c r="A16" s="102">
         <v>9</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="94" t="s">
+      <c r="B16" s="103"/>
+      <c r="C16" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="96"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="106"/>
       <c r="O16" s="12"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -5920,55 +5636,55 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
-      <c r="AK16" s="94" t="s">
+      <c r="AK16" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="95"/>
-      <c r="BJ16" s="95"/>
-      <c r="BK16" s="95"/>
-      <c r="BL16" s="95"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="95"/>
-      <c r="BR16" s="95"/>
-      <c r="BS16" s="95"/>
-      <c r="BT16" s="95"/>
-      <c r="BU16" s="95"/>
-      <c r="BV16" s="95"/>
-      <c r="BW16" s="95"/>
-      <c r="BX16" s="95"/>
-      <c r="BY16" s="95"/>
-      <c r="BZ16" s="95"/>
-      <c r="CA16" s="95"/>
-      <c r="CB16" s="95"/>
-      <c r="CC16" s="95"/>
-      <c r="CD16" s="95"/>
-      <c r="CE16" s="96"/>
+      <c r="AL16" s="105"/>
+      <c r="AM16" s="105"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="105"/>
+      <c r="AT16" s="105"/>
+      <c r="AU16" s="105"/>
+      <c r="AV16" s="105"/>
+      <c r="AW16" s="105"/>
+      <c r="AX16" s="105"/>
+      <c r="AY16" s="105"/>
+      <c r="AZ16" s="105"/>
+      <c r="BA16" s="105"/>
+      <c r="BB16" s="105"/>
+      <c r="BC16" s="105"/>
+      <c r="BD16" s="105"/>
+      <c r="BE16" s="105"/>
+      <c r="BF16" s="105"/>
+      <c r="BG16" s="105"/>
+      <c r="BH16" s="105"/>
+      <c r="BI16" s="105"/>
+      <c r="BJ16" s="105"/>
+      <c r="BK16" s="105"/>
+      <c r="BL16" s="105"/>
+      <c r="BM16" s="105"/>
+      <c r="BN16" s="105"/>
+      <c r="BO16" s="105"/>
+      <c r="BP16" s="105"/>
+      <c r="BQ16" s="105"/>
+      <c r="BR16" s="105"/>
+      <c r="BS16" s="105"/>
+      <c r="BT16" s="105"/>
+      <c r="BU16" s="105"/>
+      <c r="BV16" s="105"/>
+      <c r="BW16" s="105"/>
+      <c r="BX16" s="105"/>
+      <c r="BY16" s="105"/>
+      <c r="BZ16" s="105"/>
+      <c r="CA16" s="105"/>
+      <c r="CB16" s="105"/>
+      <c r="CC16" s="105"/>
+      <c r="CD16" s="105"/>
+      <c r="CE16" s="106"/>
       <c r="CF16" s="5"/>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
@@ -5976,24 +5692,24 @@
       <c r="CJ16" s="5"/>
     </row>
     <row r="17" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="110">
+      <c r="A17" s="107">
         <v>10</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="94" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="96"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="106"/>
       <c r="O17" s="12"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -6016,55 +5732,55 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
-      <c r="AK17" s="94" t="s">
+      <c r="AK17" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="95"/>
-      <c r="BA17" s="95"/>
-      <c r="BB17" s="95"/>
-      <c r="BC17" s="95"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="95"/>
-      <c r="BJ17" s="95"/>
-      <c r="BK17" s="95"/>
-      <c r="BL17" s="95"/>
-      <c r="BM17" s="95"/>
-      <c r="BN17" s="95"/>
-      <c r="BO17" s="95"/>
-      <c r="BP17" s="95"/>
-      <c r="BQ17" s="95"/>
-      <c r="BR17" s="95"/>
-      <c r="BS17" s="95"/>
-      <c r="BT17" s="95"/>
-      <c r="BU17" s="95"/>
-      <c r="BV17" s="95"/>
-      <c r="BW17" s="95"/>
-      <c r="BX17" s="95"/>
-      <c r="BY17" s="95"/>
-      <c r="BZ17" s="95"/>
-      <c r="CA17" s="95"/>
-      <c r="CB17" s="95"/>
-      <c r="CC17" s="95"/>
-      <c r="CD17" s="95"/>
-      <c r="CE17" s="96"/>
+      <c r="AL17" s="105"/>
+      <c r="AM17" s="105"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="105"/>
+      <c r="AS17" s="105"/>
+      <c r="AT17" s="105"/>
+      <c r="AU17" s="105"/>
+      <c r="AV17" s="105"/>
+      <c r="AW17" s="105"/>
+      <c r="AX17" s="105"/>
+      <c r="AY17" s="105"/>
+      <c r="AZ17" s="105"/>
+      <c r="BA17" s="105"/>
+      <c r="BB17" s="105"/>
+      <c r="BC17" s="105"/>
+      <c r="BD17" s="105"/>
+      <c r="BE17" s="105"/>
+      <c r="BF17" s="105"/>
+      <c r="BG17" s="105"/>
+      <c r="BH17" s="105"/>
+      <c r="BI17" s="105"/>
+      <c r="BJ17" s="105"/>
+      <c r="BK17" s="105"/>
+      <c r="BL17" s="105"/>
+      <c r="BM17" s="105"/>
+      <c r="BN17" s="105"/>
+      <c r="BO17" s="105"/>
+      <c r="BP17" s="105"/>
+      <c r="BQ17" s="105"/>
+      <c r="BR17" s="105"/>
+      <c r="BS17" s="105"/>
+      <c r="BT17" s="105"/>
+      <c r="BU17" s="105"/>
+      <c r="BV17" s="105"/>
+      <c r="BW17" s="105"/>
+      <c r="BX17" s="105"/>
+      <c r="BY17" s="105"/>
+      <c r="BZ17" s="105"/>
+      <c r="CA17" s="105"/>
+      <c r="CB17" s="105"/>
+      <c r="CC17" s="105"/>
+      <c r="CD17" s="105"/>
+      <c r="CE17" s="106"/>
       <c r="CF17" s="5"/>
       <c r="CG17" s="5"/>
       <c r="CH17" s="5"/>
@@ -6072,97 +5788,97 @@
       <c r="CJ17" s="5"/>
     </row>
     <row r="18" spans="1:90" s="6" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="108">
+      <c r="A18" s="102">
         <v>11</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="94" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="106" t="s">
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="94" t="s">
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="158"/>
+      <c r="T18" s="158"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="158"/>
+      <c r="AJ18" s="158"/>
+      <c r="AK18" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="95"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="95"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="95"/>
-      <c r="BJ18" s="95"/>
-      <c r="BK18" s="95"/>
-      <c r="BL18" s="95"/>
-      <c r="BM18" s="95"/>
-      <c r="BN18" s="95"/>
-      <c r="BO18" s="95"/>
-      <c r="BP18" s="95"/>
-      <c r="BQ18" s="95"/>
-      <c r="BR18" s="95"/>
-      <c r="BS18" s="95"/>
-      <c r="BT18" s="95"/>
-      <c r="BU18" s="95"/>
-      <c r="BV18" s="95"/>
-      <c r="BW18" s="95"/>
-      <c r="BX18" s="95"/>
-      <c r="BY18" s="95"/>
-      <c r="BZ18" s="95"/>
-      <c r="CA18" s="95"/>
-      <c r="CB18" s="95"/>
-      <c r="CC18" s="95"/>
-      <c r="CD18" s="95"/>
-      <c r="CE18" s="96"/>
+      <c r="AL18" s="105"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="105"/>
+      <c r="AS18" s="105"/>
+      <c r="AT18" s="105"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="105"/>
+      <c r="AW18" s="105"/>
+      <c r="AX18" s="105"/>
+      <c r="AY18" s="105"/>
+      <c r="AZ18" s="105"/>
+      <c r="BA18" s="105"/>
+      <c r="BB18" s="105"/>
+      <c r="BC18" s="105"/>
+      <c r="BD18" s="105"/>
+      <c r="BE18" s="105"/>
+      <c r="BF18" s="105"/>
+      <c r="BG18" s="105"/>
+      <c r="BH18" s="105"/>
+      <c r="BI18" s="105"/>
+      <c r="BJ18" s="105"/>
+      <c r="BK18" s="105"/>
+      <c r="BL18" s="105"/>
+      <c r="BM18" s="105"/>
+      <c r="BN18" s="105"/>
+      <c r="BO18" s="105"/>
+      <c r="BP18" s="105"/>
+      <c r="BQ18" s="105"/>
+      <c r="BR18" s="105"/>
+      <c r="BS18" s="105"/>
+      <c r="BT18" s="105"/>
+      <c r="BU18" s="105"/>
+      <c r="BV18" s="105"/>
+      <c r="BW18" s="105"/>
+      <c r="BX18" s="105"/>
+      <c r="BY18" s="105"/>
+      <c r="BZ18" s="105"/>
+      <c r="CA18" s="105"/>
+      <c r="CB18" s="105"/>
+      <c r="CC18" s="105"/>
+      <c r="CD18" s="105"/>
+      <c r="CE18" s="106"/>
       <c r="CF18" s="5"/>
       <c r="CG18" s="5"/>
       <c r="CH18" s="5"/>
@@ -6170,24 +5886,24 @@
       <c r="CJ18" s="5"/>
     </row>
     <row r="19" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="110">
+      <c r="A19" s="107">
         <v>12</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="108"/>
+      <c r="C19" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="106"/>
       <c r="O19" s="12"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -6210,55 +5926,55 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
-      <c r="AK19" s="94" t="s">
+      <c r="AK19" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="95"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="95"/>
-      <c r="BJ19" s="95"/>
-      <c r="BK19" s="95"/>
-      <c r="BL19" s="95"/>
-      <c r="BM19" s="95"/>
-      <c r="BN19" s="95"/>
-      <c r="BO19" s="95"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="95"/>
-      <c r="BR19" s="95"/>
-      <c r="BS19" s="95"/>
-      <c r="BT19" s="95"/>
-      <c r="BU19" s="95"/>
-      <c r="BV19" s="95"/>
-      <c r="BW19" s="95"/>
-      <c r="BX19" s="95"/>
-      <c r="BY19" s="95"/>
-      <c r="BZ19" s="95"/>
-      <c r="CA19" s="95"/>
-      <c r="CB19" s="95"/>
-      <c r="CC19" s="95"/>
-      <c r="CD19" s="95"/>
-      <c r="CE19" s="96"/>
+      <c r="AL19" s="105"/>
+      <c r="AM19" s="105"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="105"/>
+      <c r="AT19" s="105"/>
+      <c r="AU19" s="105"/>
+      <c r="AV19" s="105"/>
+      <c r="AW19" s="105"/>
+      <c r="AX19" s="105"/>
+      <c r="AY19" s="105"/>
+      <c r="AZ19" s="105"/>
+      <c r="BA19" s="105"/>
+      <c r="BB19" s="105"/>
+      <c r="BC19" s="105"/>
+      <c r="BD19" s="105"/>
+      <c r="BE19" s="105"/>
+      <c r="BF19" s="105"/>
+      <c r="BG19" s="105"/>
+      <c r="BH19" s="105"/>
+      <c r="BI19" s="105"/>
+      <c r="BJ19" s="105"/>
+      <c r="BK19" s="105"/>
+      <c r="BL19" s="105"/>
+      <c r="BM19" s="105"/>
+      <c r="BN19" s="105"/>
+      <c r="BO19" s="105"/>
+      <c r="BP19" s="105"/>
+      <c r="BQ19" s="105"/>
+      <c r="BR19" s="105"/>
+      <c r="BS19" s="105"/>
+      <c r="BT19" s="105"/>
+      <c r="BU19" s="105"/>
+      <c r="BV19" s="105"/>
+      <c r="BW19" s="105"/>
+      <c r="BX19" s="105"/>
+      <c r="BY19" s="105"/>
+      <c r="BZ19" s="105"/>
+      <c r="CA19" s="105"/>
+      <c r="CB19" s="105"/>
+      <c r="CC19" s="105"/>
+      <c r="CD19" s="105"/>
+      <c r="CE19" s="106"/>
       <c r="CF19" s="5"/>
       <c r="CG19" s="5"/>
       <c r="CH19" s="5"/>
@@ -6266,24 +5982,24 @@
       <c r="CJ19" s="5"/>
     </row>
     <row r="20" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="159">
+      <c r="A20" s="94">
         <v>13</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="95"/>
+      <c r="C20" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="98"/>
       <c r="O20" s="14"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -6306,55 +6022,55 @@
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="97" t="s">
+      <c r="AK20" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="98"/>
-      <c r="AP20" s="98"/>
-      <c r="AQ20" s="98"/>
-      <c r="AR20" s="98"/>
-      <c r="AS20" s="98"/>
-      <c r="AT20" s="98"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="98"/>
-      <c r="AW20" s="98"/>
-      <c r="AX20" s="98"/>
-      <c r="AY20" s="98"/>
-      <c r="AZ20" s="98"/>
-      <c r="BA20" s="98"/>
-      <c r="BB20" s="98"/>
-      <c r="BC20" s="98"/>
-      <c r="BD20" s="98"/>
-      <c r="BE20" s="98"/>
-      <c r="BF20" s="98"/>
-      <c r="BG20" s="98"/>
-      <c r="BH20" s="98"/>
-      <c r="BI20" s="98"/>
-      <c r="BJ20" s="98"/>
-      <c r="BK20" s="98"/>
-      <c r="BL20" s="98"/>
-      <c r="BM20" s="98"/>
-      <c r="BN20" s="98"/>
-      <c r="BO20" s="98"/>
-      <c r="BP20" s="98"/>
-      <c r="BQ20" s="98"/>
-      <c r="BR20" s="98"/>
-      <c r="BS20" s="98"/>
-      <c r="BT20" s="98"/>
-      <c r="BU20" s="98"/>
-      <c r="BV20" s="98"/>
-      <c r="BW20" s="98"/>
-      <c r="BX20" s="98"/>
-      <c r="BY20" s="98"/>
-      <c r="BZ20" s="98"/>
-      <c r="CA20" s="98"/>
-      <c r="CB20" s="98"/>
-      <c r="CC20" s="98"/>
-      <c r="CD20" s="98"/>
-      <c r="CE20" s="99"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="97"/>
+      <c r="AP20" s="97"/>
+      <c r="AQ20" s="97"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="97"/>
+      <c r="AW20" s="97"/>
+      <c r="AX20" s="97"/>
+      <c r="AY20" s="97"/>
+      <c r="AZ20" s="97"/>
+      <c r="BA20" s="97"/>
+      <c r="BB20" s="97"/>
+      <c r="BC20" s="97"/>
+      <c r="BD20" s="97"/>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="97"/>
+      <c r="BG20" s="97"/>
+      <c r="BH20" s="97"/>
+      <c r="BI20" s="97"/>
+      <c r="BJ20" s="97"/>
+      <c r="BK20" s="97"/>
+      <c r="BL20" s="97"/>
+      <c r="BM20" s="97"/>
+      <c r="BN20" s="97"/>
+      <c r="BO20" s="97"/>
+      <c r="BP20" s="97"/>
+      <c r="BQ20" s="97"/>
+      <c r="BR20" s="97"/>
+      <c r="BS20" s="97"/>
+      <c r="BT20" s="97"/>
+      <c r="BU20" s="97"/>
+      <c r="BV20" s="97"/>
+      <c r="BW20" s="97"/>
+      <c r="BX20" s="97"/>
+      <c r="BY20" s="97"/>
+      <c r="BZ20" s="97"/>
+      <c r="CA20" s="97"/>
+      <c r="CB20" s="97"/>
+      <c r="CC20" s="97"/>
+      <c r="CD20" s="97"/>
+      <c r="CE20" s="98"/>
       <c r="CF20" s="5"/>
       <c r="CG20" s="5"/>
       <c r="CH20" s="5"/>
@@ -6544,91 +6260,91 @@
       <c r="CL22" s="3"/>
     </row>
     <row r="23" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="104"/>
-      <c r="AG23" s="104"/>
-      <c r="AH23" s="104"/>
-      <c r="AI23" s="104"/>
-      <c r="AJ23" s="104"/>
-      <c r="AK23" s="104"/>
-      <c r="AL23" s="104"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="104"/>
-      <c r="AP23" s="104"/>
-      <c r="AQ23" s="104"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="104"/>
-      <c r="AW23" s="104"/>
-      <c r="AX23" s="104"/>
-      <c r="AY23" s="104"/>
-      <c r="AZ23" s="104"/>
-      <c r="BA23" s="104"/>
-      <c r="BB23" s="104"/>
-      <c r="BC23" s="104"/>
-      <c r="BD23" s="104"/>
-      <c r="BE23" s="104"/>
-      <c r="BF23" s="104"/>
-      <c r="BG23" s="104"/>
-      <c r="BH23" s="104"/>
-      <c r="BI23" s="104"/>
-      <c r="BJ23" s="104"/>
-      <c r="BK23" s="104"/>
-      <c r="BL23" s="104"/>
-      <c r="BM23" s="104"/>
-      <c r="BN23" s="104"/>
-      <c r="BO23" s="104"/>
-      <c r="BP23" s="104"/>
-      <c r="BQ23" s="104"/>
-      <c r="BR23" s="104"/>
-      <c r="BS23" s="104"/>
-      <c r="BT23" s="104"/>
-      <c r="BU23" s="104"/>
-      <c r="BV23" s="104"/>
-      <c r="BW23" s="104"/>
-      <c r="BX23" s="104"/>
-      <c r="BY23" s="104"/>
-      <c r="BZ23" s="104"/>
-      <c r="CA23" s="104"/>
-      <c r="CB23" s="104"/>
-      <c r="CC23" s="104"/>
-      <c r="CD23" s="104"/>
-      <c r="CE23" s="105"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="125"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="125"/>
+      <c r="AI23" s="125"/>
+      <c r="AJ23" s="125"/>
+      <c r="AK23" s="125"/>
+      <c r="AL23" s="125"/>
+      <c r="AM23" s="125"/>
+      <c r="AN23" s="125"/>
+      <c r="AO23" s="125"/>
+      <c r="AP23" s="125"/>
+      <c r="AQ23" s="125"/>
+      <c r="AR23" s="125"/>
+      <c r="AS23" s="125"/>
+      <c r="AT23" s="125"/>
+      <c r="AU23" s="125"/>
+      <c r="AV23" s="125"/>
+      <c r="AW23" s="125"/>
+      <c r="AX23" s="125"/>
+      <c r="AY23" s="125"/>
+      <c r="AZ23" s="125"/>
+      <c r="BA23" s="125"/>
+      <c r="BB23" s="125"/>
+      <c r="BC23" s="125"/>
+      <c r="BD23" s="125"/>
+      <c r="BE23" s="125"/>
+      <c r="BF23" s="125"/>
+      <c r="BG23" s="125"/>
+      <c r="BH23" s="125"/>
+      <c r="BI23" s="125"/>
+      <c r="BJ23" s="125"/>
+      <c r="BK23" s="125"/>
+      <c r="BL23" s="125"/>
+      <c r="BM23" s="125"/>
+      <c r="BN23" s="125"/>
+      <c r="BO23" s="125"/>
+      <c r="BP23" s="125"/>
+      <c r="BQ23" s="125"/>
+      <c r="BR23" s="125"/>
+      <c r="BS23" s="125"/>
+      <c r="BT23" s="125"/>
+      <c r="BU23" s="125"/>
+      <c r="BV23" s="125"/>
+      <c r="BW23" s="125"/>
+      <c r="BX23" s="125"/>
+      <c r="BY23" s="125"/>
+      <c r="BZ23" s="125"/>
+      <c r="CA23" s="125"/>
+      <c r="CB23" s="125"/>
+      <c r="CC23" s="125"/>
+      <c r="CD23" s="125"/>
+      <c r="CE23" s="126"/>
       <c r="CF23" s="3"/>
       <c r="CG23" s="3"/>
       <c r="CH23" s="3"/>
@@ -6636,97 +6352,97 @@
       <c r="CJ23" s="3"/>
     </row>
     <row r="24" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="127" t="s">
+      <c r="B24" s="100"/>
+      <c r="C24" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="100" t="s">
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="102"/>
-      <c r="AK24" s="100" t="s">
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
+      <c r="AC24" s="160"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="161"/>
+      <c r="AK24" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="101"/>
-      <c r="AO24" s="101"/>
-      <c r="AP24" s="101"/>
-      <c r="AQ24" s="101"/>
-      <c r="AR24" s="101"/>
-      <c r="AS24" s="101"/>
-      <c r="AT24" s="101"/>
-      <c r="AU24" s="101"/>
-      <c r="AV24" s="101"/>
-      <c r="AW24" s="101"/>
-      <c r="AX24" s="101"/>
-      <c r="AY24" s="101"/>
-      <c r="AZ24" s="101"/>
-      <c r="BA24" s="101"/>
-      <c r="BB24" s="101"/>
-      <c r="BC24" s="101"/>
-      <c r="BD24" s="101"/>
-      <c r="BE24" s="101"/>
-      <c r="BF24" s="101"/>
-      <c r="BG24" s="101"/>
-      <c r="BH24" s="101"/>
-      <c r="BI24" s="101"/>
-      <c r="BJ24" s="101"/>
-      <c r="BK24" s="101"/>
-      <c r="BL24" s="101"/>
-      <c r="BM24" s="101"/>
-      <c r="BN24" s="101"/>
-      <c r="BO24" s="101"/>
-      <c r="BP24" s="101"/>
-      <c r="BQ24" s="101"/>
-      <c r="BR24" s="101"/>
-      <c r="BS24" s="101"/>
-      <c r="BT24" s="101"/>
-      <c r="BU24" s="101"/>
-      <c r="BV24" s="101"/>
-      <c r="BW24" s="101"/>
-      <c r="BX24" s="101"/>
-      <c r="BY24" s="101"/>
-      <c r="BZ24" s="101"/>
-      <c r="CA24" s="101"/>
-      <c r="CB24" s="101"/>
-      <c r="CC24" s="101"/>
-      <c r="CD24" s="101"/>
-      <c r="CE24" s="102"/>
+      <c r="AL24" s="160"/>
+      <c r="AM24" s="160"/>
+      <c r="AN24" s="160"/>
+      <c r="AO24" s="160"/>
+      <c r="AP24" s="160"/>
+      <c r="AQ24" s="160"/>
+      <c r="AR24" s="160"/>
+      <c r="AS24" s="160"/>
+      <c r="AT24" s="160"/>
+      <c r="AU24" s="160"/>
+      <c r="AV24" s="160"/>
+      <c r="AW24" s="160"/>
+      <c r="AX24" s="160"/>
+      <c r="AY24" s="160"/>
+      <c r="AZ24" s="160"/>
+      <c r="BA24" s="160"/>
+      <c r="BB24" s="160"/>
+      <c r="BC24" s="160"/>
+      <c r="BD24" s="160"/>
+      <c r="BE24" s="160"/>
+      <c r="BF24" s="160"/>
+      <c r="BG24" s="160"/>
+      <c r="BH24" s="160"/>
+      <c r="BI24" s="160"/>
+      <c r="BJ24" s="160"/>
+      <c r="BK24" s="160"/>
+      <c r="BL24" s="160"/>
+      <c r="BM24" s="160"/>
+      <c r="BN24" s="160"/>
+      <c r="BO24" s="160"/>
+      <c r="BP24" s="160"/>
+      <c r="BQ24" s="160"/>
+      <c r="BR24" s="160"/>
+      <c r="BS24" s="160"/>
+      <c r="BT24" s="160"/>
+      <c r="BU24" s="160"/>
+      <c r="BV24" s="160"/>
+      <c r="BW24" s="160"/>
+      <c r="BX24" s="160"/>
+      <c r="BY24" s="160"/>
+      <c r="BZ24" s="160"/>
+      <c r="CA24" s="160"/>
+      <c r="CB24" s="160"/>
+      <c r="CC24" s="160"/>
+      <c r="CD24" s="160"/>
+      <c r="CE24" s="161"/>
       <c r="CF24" s="3"/>
       <c r="CG24" s="3"/>
       <c r="CH24" s="3"/>
@@ -6734,24 +6450,24 @@
       <c r="CJ24" s="3"/>
     </row>
     <row r="25" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="108">
+      <c r="A25" s="102">
         <v>1</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="124" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="126"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="114"/>
       <c r="O25" s="9"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -6828,24 +6544,24 @@
       <c r="CJ25" s="5"/>
     </row>
     <row r="26" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="110">
+      <c r="A26" s="107">
         <v>2</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="94" t="s">
+      <c r="B26" s="108"/>
+      <c r="C26" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="96"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="106"/>
       <c r="O26" s="12"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -6868,55 +6584,55 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
-      <c r="AK26" s="94" t="s">
+      <c r="AK26" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="AL26" s="95"/>
-      <c r="AM26" s="95"/>
-      <c r="AN26" s="95"/>
-      <c r="AO26" s="95"/>
-      <c r="AP26" s="95"/>
-      <c r="AQ26" s="95"/>
-      <c r="AR26" s="95"/>
-      <c r="AS26" s="95"/>
-      <c r="AT26" s="95"/>
-      <c r="AU26" s="95"/>
-      <c r="AV26" s="95"/>
-      <c r="AW26" s="95"/>
-      <c r="AX26" s="95"/>
-      <c r="AY26" s="95"/>
-      <c r="AZ26" s="95"/>
-      <c r="BA26" s="95"/>
-      <c r="BB26" s="95"/>
-      <c r="BC26" s="95"/>
-      <c r="BD26" s="95"/>
-      <c r="BE26" s="95"/>
-      <c r="BF26" s="95"/>
-      <c r="BG26" s="95"/>
-      <c r="BH26" s="95"/>
-      <c r="BI26" s="95"/>
-      <c r="BJ26" s="95"/>
-      <c r="BK26" s="95"/>
-      <c r="BL26" s="95"/>
-      <c r="BM26" s="95"/>
-      <c r="BN26" s="95"/>
-      <c r="BO26" s="95"/>
-      <c r="BP26" s="95"/>
-      <c r="BQ26" s="95"/>
-      <c r="BR26" s="95"/>
-      <c r="BS26" s="95"/>
-      <c r="BT26" s="95"/>
-      <c r="BU26" s="95"/>
-      <c r="BV26" s="95"/>
-      <c r="BW26" s="95"/>
-      <c r="BX26" s="95"/>
-      <c r="BY26" s="95"/>
-      <c r="BZ26" s="95"/>
-      <c r="CA26" s="95"/>
-      <c r="CB26" s="95"/>
-      <c r="CC26" s="95"/>
-      <c r="CD26" s="95"/>
-      <c r="CE26" s="96"/>
+      <c r="AL26" s="105"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="105"/>
+      <c r="AT26" s="105"/>
+      <c r="AU26" s="105"/>
+      <c r="AV26" s="105"/>
+      <c r="AW26" s="105"/>
+      <c r="AX26" s="105"/>
+      <c r="AY26" s="105"/>
+      <c r="AZ26" s="105"/>
+      <c r="BA26" s="105"/>
+      <c r="BB26" s="105"/>
+      <c r="BC26" s="105"/>
+      <c r="BD26" s="105"/>
+      <c r="BE26" s="105"/>
+      <c r="BF26" s="105"/>
+      <c r="BG26" s="105"/>
+      <c r="BH26" s="105"/>
+      <c r="BI26" s="105"/>
+      <c r="BJ26" s="105"/>
+      <c r="BK26" s="105"/>
+      <c r="BL26" s="105"/>
+      <c r="BM26" s="105"/>
+      <c r="BN26" s="105"/>
+      <c r="BO26" s="105"/>
+      <c r="BP26" s="105"/>
+      <c r="BQ26" s="105"/>
+      <c r="BR26" s="105"/>
+      <c r="BS26" s="105"/>
+      <c r="BT26" s="105"/>
+      <c r="BU26" s="105"/>
+      <c r="BV26" s="105"/>
+      <c r="BW26" s="105"/>
+      <c r="BX26" s="105"/>
+      <c r="BY26" s="105"/>
+      <c r="BZ26" s="105"/>
+      <c r="CA26" s="105"/>
+      <c r="CB26" s="105"/>
+      <c r="CC26" s="105"/>
+      <c r="CD26" s="105"/>
+      <c r="CE26" s="106"/>
       <c r="CF26" s="5"/>
       <c r="CG26" s="5"/>
       <c r="CH26" s="5"/>
@@ -6924,24 +6640,24 @@
       <c r="CJ26" s="5"/>
     </row>
     <row r="27" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="110">
+      <c r="A27" s="107">
         <v>3</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="94" t="s">
+      <c r="B27" s="108"/>
+      <c r="C27" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="96"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="106"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
@@ -6964,55 +6680,55 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
-      <c r="AK27" s="94" t="s">
+      <c r="AK27" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="AL27" s="95"/>
-      <c r="AM27" s="95"/>
-      <c r="AN27" s="95"/>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="95"/>
-      <c r="AQ27" s="95"/>
-      <c r="AR27" s="95"/>
-      <c r="AS27" s="95"/>
-      <c r="AT27" s="95"/>
-      <c r="AU27" s="95"/>
-      <c r="AV27" s="95"/>
-      <c r="AW27" s="95"/>
-      <c r="AX27" s="95"/>
-      <c r="AY27" s="95"/>
-      <c r="AZ27" s="95"/>
-      <c r="BA27" s="95"/>
-      <c r="BB27" s="95"/>
-      <c r="BC27" s="95"/>
-      <c r="BD27" s="95"/>
-      <c r="BE27" s="95"/>
-      <c r="BF27" s="95"/>
-      <c r="BG27" s="95"/>
-      <c r="BH27" s="95"/>
-      <c r="BI27" s="95"/>
-      <c r="BJ27" s="95"/>
-      <c r="BK27" s="95"/>
-      <c r="BL27" s="95"/>
-      <c r="BM27" s="95"/>
-      <c r="BN27" s="95"/>
-      <c r="BO27" s="95"/>
-      <c r="BP27" s="95"/>
-      <c r="BQ27" s="95"/>
-      <c r="BR27" s="95"/>
-      <c r="BS27" s="95"/>
-      <c r="BT27" s="95"/>
-      <c r="BU27" s="95"/>
-      <c r="BV27" s="95"/>
-      <c r="BW27" s="95"/>
-      <c r="BX27" s="95"/>
-      <c r="BY27" s="95"/>
-      <c r="BZ27" s="95"/>
-      <c r="CA27" s="95"/>
-      <c r="CB27" s="95"/>
-      <c r="CC27" s="95"/>
-      <c r="CD27" s="95"/>
-      <c r="CE27" s="96"/>
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
+      <c r="AV27" s="105"/>
+      <c r="AW27" s="105"/>
+      <c r="AX27" s="105"/>
+      <c r="AY27" s="105"/>
+      <c r="AZ27" s="105"/>
+      <c r="BA27" s="105"/>
+      <c r="BB27" s="105"/>
+      <c r="BC27" s="105"/>
+      <c r="BD27" s="105"/>
+      <c r="BE27" s="105"/>
+      <c r="BF27" s="105"/>
+      <c r="BG27" s="105"/>
+      <c r="BH27" s="105"/>
+      <c r="BI27" s="105"/>
+      <c r="BJ27" s="105"/>
+      <c r="BK27" s="105"/>
+      <c r="BL27" s="105"/>
+      <c r="BM27" s="105"/>
+      <c r="BN27" s="105"/>
+      <c r="BO27" s="105"/>
+      <c r="BP27" s="105"/>
+      <c r="BQ27" s="105"/>
+      <c r="BR27" s="105"/>
+      <c r="BS27" s="105"/>
+      <c r="BT27" s="105"/>
+      <c r="BU27" s="105"/>
+      <c r="BV27" s="105"/>
+      <c r="BW27" s="105"/>
+      <c r="BX27" s="105"/>
+      <c r="BY27" s="105"/>
+      <c r="BZ27" s="105"/>
+      <c r="CA27" s="105"/>
+      <c r="CB27" s="105"/>
+      <c r="CC27" s="105"/>
+      <c r="CD27" s="105"/>
+      <c r="CE27" s="106"/>
       <c r="CF27" s="5"/>
       <c r="CG27" s="5"/>
       <c r="CH27" s="5"/>
@@ -7020,24 +6736,24 @@
       <c r="CJ27" s="5"/>
     </row>
     <row r="28" spans="1:90" s="6" customFormat="1" ht="12">
-      <c r="A28" s="108">
+      <c r="A28" s="102">
         <v>4</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="94" t="s">
+      <c r="B28" s="103"/>
+      <c r="C28" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="96"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="106"/>
       <c r="O28" s="12"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -7060,55 +6776,55 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
-      <c r="AK28" s="94" t="s">
+      <c r="AK28" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="AL28" s="95"/>
-      <c r="AM28" s="95"/>
-      <c r="AN28" s="95"/>
-      <c r="AO28" s="95"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="95"/>
-      <c r="AR28" s="95"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="95"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="95"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="95"/>
-      <c r="AZ28" s="95"/>
-      <c r="BA28" s="95"/>
-      <c r="BB28" s="95"/>
-      <c r="BC28" s="95"/>
-      <c r="BD28" s="95"/>
-      <c r="BE28" s="95"/>
-      <c r="BF28" s="95"/>
-      <c r="BG28" s="95"/>
-      <c r="BH28" s="95"/>
-      <c r="BI28" s="95"/>
-      <c r="BJ28" s="95"/>
-      <c r="BK28" s="95"/>
-      <c r="BL28" s="95"/>
-      <c r="BM28" s="95"/>
-      <c r="BN28" s="95"/>
-      <c r="BO28" s="95"/>
-      <c r="BP28" s="95"/>
-      <c r="BQ28" s="95"/>
-      <c r="BR28" s="95"/>
-      <c r="BS28" s="95"/>
-      <c r="BT28" s="95"/>
-      <c r="BU28" s="95"/>
-      <c r="BV28" s="95"/>
-      <c r="BW28" s="95"/>
-      <c r="BX28" s="95"/>
-      <c r="BY28" s="95"/>
-      <c r="BZ28" s="95"/>
-      <c r="CA28" s="95"/>
-      <c r="CB28" s="95"/>
-      <c r="CC28" s="95"/>
-      <c r="CD28" s="95"/>
-      <c r="CE28" s="96"/>
+      <c r="AL28" s="105"/>
+      <c r="AM28" s="105"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="105"/>
+      <c r="AT28" s="105"/>
+      <c r="AU28" s="105"/>
+      <c r="AV28" s="105"/>
+      <c r="AW28" s="105"/>
+      <c r="AX28" s="105"/>
+      <c r="AY28" s="105"/>
+      <c r="AZ28" s="105"/>
+      <c r="BA28" s="105"/>
+      <c r="BB28" s="105"/>
+      <c r="BC28" s="105"/>
+      <c r="BD28" s="105"/>
+      <c r="BE28" s="105"/>
+      <c r="BF28" s="105"/>
+      <c r="BG28" s="105"/>
+      <c r="BH28" s="105"/>
+      <c r="BI28" s="105"/>
+      <c r="BJ28" s="105"/>
+      <c r="BK28" s="105"/>
+      <c r="BL28" s="105"/>
+      <c r="BM28" s="105"/>
+      <c r="BN28" s="105"/>
+      <c r="BO28" s="105"/>
+      <c r="BP28" s="105"/>
+      <c r="BQ28" s="105"/>
+      <c r="BR28" s="105"/>
+      <c r="BS28" s="105"/>
+      <c r="BT28" s="105"/>
+      <c r="BU28" s="105"/>
+      <c r="BV28" s="105"/>
+      <c r="BW28" s="105"/>
+      <c r="BX28" s="105"/>
+      <c r="BY28" s="105"/>
+      <c r="BZ28" s="105"/>
+      <c r="CA28" s="105"/>
+      <c r="CB28" s="105"/>
+      <c r="CC28" s="105"/>
+      <c r="CD28" s="105"/>
+      <c r="CE28" s="106"/>
       <c r="CF28" s="5"/>
       <c r="CG28" s="5"/>
       <c r="CH28" s="5"/>
@@ -7116,24 +6832,24 @@
       <c r="CJ28" s="5"/>
     </row>
     <row r="29" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="110">
+      <c r="A29" s="107">
         <v>5</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="94" t="s">
+      <c r="B29" s="108"/>
+      <c r="C29" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="96"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="106"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -7156,55 +6872,55 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="94" t="s">
+      <c r="AK29" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="95"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="95"/>
-      <c r="BM29" s="95"/>
-      <c r="BN29" s="95"/>
-      <c r="BO29" s="95"/>
-      <c r="BP29" s="95"/>
-      <c r="BQ29" s="95"/>
-      <c r="BR29" s="95"/>
-      <c r="BS29" s="95"/>
-      <c r="BT29" s="95"/>
-      <c r="BU29" s="95"/>
-      <c r="BV29" s="95"/>
-      <c r="BW29" s="95"/>
-      <c r="BX29" s="95"/>
-      <c r="BY29" s="95"/>
-      <c r="BZ29" s="95"/>
-      <c r="CA29" s="95"/>
-      <c r="CB29" s="95"/>
-      <c r="CC29" s="95"/>
-      <c r="CD29" s="95"/>
-      <c r="CE29" s="96"/>
+      <c r="AL29" s="105"/>
+      <c r="AM29" s="105"/>
+      <c r="AN29" s="105"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="105"/>
+      <c r="AR29" s="105"/>
+      <c r="AS29" s="105"/>
+      <c r="AT29" s="105"/>
+      <c r="AU29" s="105"/>
+      <c r="AV29" s="105"/>
+      <c r="AW29" s="105"/>
+      <c r="AX29" s="105"/>
+      <c r="AY29" s="105"/>
+      <c r="AZ29" s="105"/>
+      <c r="BA29" s="105"/>
+      <c r="BB29" s="105"/>
+      <c r="BC29" s="105"/>
+      <c r="BD29" s="105"/>
+      <c r="BE29" s="105"/>
+      <c r="BF29" s="105"/>
+      <c r="BG29" s="105"/>
+      <c r="BH29" s="105"/>
+      <c r="BI29" s="105"/>
+      <c r="BJ29" s="105"/>
+      <c r="BK29" s="105"/>
+      <c r="BL29" s="105"/>
+      <c r="BM29" s="105"/>
+      <c r="BN29" s="105"/>
+      <c r="BO29" s="105"/>
+      <c r="BP29" s="105"/>
+      <c r="BQ29" s="105"/>
+      <c r="BR29" s="105"/>
+      <c r="BS29" s="105"/>
+      <c r="BT29" s="105"/>
+      <c r="BU29" s="105"/>
+      <c r="BV29" s="105"/>
+      <c r="BW29" s="105"/>
+      <c r="BX29" s="105"/>
+      <c r="BY29" s="105"/>
+      <c r="BZ29" s="105"/>
+      <c r="CA29" s="105"/>
+      <c r="CB29" s="105"/>
+      <c r="CC29" s="105"/>
+      <c r="CD29" s="105"/>
+      <c r="CE29" s="106"/>
       <c r="CF29" s="5"/>
       <c r="CG29" s="5"/>
       <c r="CH29" s="5"/>
@@ -7212,24 +6928,24 @@
       <c r="CJ29" s="5"/>
     </row>
     <row r="30" spans="1:90" s="6" customFormat="1" ht="12">
-      <c r="A30" s="108">
+      <c r="A30" s="102">
         <v>6</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="94" t="s">
+      <c r="B30" s="103"/>
+      <c r="C30" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="96"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="106"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -7252,55 +6968,55 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
-      <c r="AK30" s="94" t="s">
+      <c r="AK30" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="95"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="95"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="95"/>
-      <c r="BM30" s="95"/>
-      <c r="BN30" s="95"/>
-      <c r="BO30" s="95"/>
-      <c r="BP30" s="95"/>
-      <c r="BQ30" s="95"/>
-      <c r="BR30" s="95"/>
-      <c r="BS30" s="95"/>
-      <c r="BT30" s="95"/>
-      <c r="BU30" s="95"/>
-      <c r="BV30" s="95"/>
-      <c r="BW30" s="95"/>
-      <c r="BX30" s="95"/>
-      <c r="BY30" s="95"/>
-      <c r="BZ30" s="95"/>
-      <c r="CA30" s="95"/>
-      <c r="CB30" s="95"/>
-      <c r="CC30" s="95"/>
-      <c r="CD30" s="95"/>
-      <c r="CE30" s="96"/>
+      <c r="AL30" s="105"/>
+      <c r="AM30" s="105"/>
+      <c r="AN30" s="105"/>
+      <c r="AO30" s="105"/>
+      <c r="AP30" s="105"/>
+      <c r="AQ30" s="105"/>
+      <c r="AR30" s="105"/>
+      <c r="AS30" s="105"/>
+      <c r="AT30" s="105"/>
+      <c r="AU30" s="105"/>
+      <c r="AV30" s="105"/>
+      <c r="AW30" s="105"/>
+      <c r="AX30" s="105"/>
+      <c r="AY30" s="105"/>
+      <c r="AZ30" s="105"/>
+      <c r="BA30" s="105"/>
+      <c r="BB30" s="105"/>
+      <c r="BC30" s="105"/>
+      <c r="BD30" s="105"/>
+      <c r="BE30" s="105"/>
+      <c r="BF30" s="105"/>
+      <c r="BG30" s="105"/>
+      <c r="BH30" s="105"/>
+      <c r="BI30" s="105"/>
+      <c r="BJ30" s="105"/>
+      <c r="BK30" s="105"/>
+      <c r="BL30" s="105"/>
+      <c r="BM30" s="105"/>
+      <c r="BN30" s="105"/>
+      <c r="BO30" s="105"/>
+      <c r="BP30" s="105"/>
+      <c r="BQ30" s="105"/>
+      <c r="BR30" s="105"/>
+      <c r="BS30" s="105"/>
+      <c r="BT30" s="105"/>
+      <c r="BU30" s="105"/>
+      <c r="BV30" s="105"/>
+      <c r="BW30" s="105"/>
+      <c r="BX30" s="105"/>
+      <c r="BY30" s="105"/>
+      <c r="BZ30" s="105"/>
+      <c r="CA30" s="105"/>
+      <c r="CB30" s="105"/>
+      <c r="CC30" s="105"/>
+      <c r="CD30" s="105"/>
+      <c r="CE30" s="106"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5"/>
       <c r="CH30" s="5"/>
@@ -7308,24 +7024,24 @@
       <c r="CJ30" s="5"/>
     </row>
     <row r="31" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="110">
+      <c r="A31" s="107">
         <v>7</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="94" t="s">
+      <c r="B31" s="108"/>
+      <c r="C31" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="96"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="106"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -7348,55 +7064,55 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
-      <c r="AK31" s="94" t="s">
+      <c r="AK31" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="95"/>
-      <c r="AO31" s="95"/>
-      <c r="AP31" s="95"/>
-      <c r="AQ31" s="95"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="95"/>
-      <c r="BP31" s="95"/>
-      <c r="BQ31" s="95"/>
-      <c r="BR31" s="95"/>
-      <c r="BS31" s="95"/>
-      <c r="BT31" s="95"/>
-      <c r="BU31" s="95"/>
-      <c r="BV31" s="95"/>
-      <c r="BW31" s="95"/>
-      <c r="BX31" s="95"/>
-      <c r="BY31" s="95"/>
-      <c r="BZ31" s="95"/>
-      <c r="CA31" s="95"/>
-      <c r="CB31" s="95"/>
-      <c r="CC31" s="95"/>
-      <c r="CD31" s="95"/>
-      <c r="CE31" s="96"/>
+      <c r="AL31" s="105"/>
+      <c r="AM31" s="105"/>
+      <c r="AN31" s="105"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="105"/>
+      <c r="AQ31" s="105"/>
+      <c r="AR31" s="105"/>
+      <c r="AS31" s="105"/>
+      <c r="AT31" s="105"/>
+      <c r="AU31" s="105"/>
+      <c r="AV31" s="105"/>
+      <c r="AW31" s="105"/>
+      <c r="AX31" s="105"/>
+      <c r="AY31" s="105"/>
+      <c r="AZ31" s="105"/>
+      <c r="BA31" s="105"/>
+      <c r="BB31" s="105"/>
+      <c r="BC31" s="105"/>
+      <c r="BD31" s="105"/>
+      <c r="BE31" s="105"/>
+      <c r="BF31" s="105"/>
+      <c r="BG31" s="105"/>
+      <c r="BH31" s="105"/>
+      <c r="BI31" s="105"/>
+      <c r="BJ31" s="105"/>
+      <c r="BK31" s="105"/>
+      <c r="BL31" s="105"/>
+      <c r="BM31" s="105"/>
+      <c r="BN31" s="105"/>
+      <c r="BO31" s="105"/>
+      <c r="BP31" s="105"/>
+      <c r="BQ31" s="105"/>
+      <c r="BR31" s="105"/>
+      <c r="BS31" s="105"/>
+      <c r="BT31" s="105"/>
+      <c r="BU31" s="105"/>
+      <c r="BV31" s="105"/>
+      <c r="BW31" s="105"/>
+      <c r="BX31" s="105"/>
+      <c r="BY31" s="105"/>
+      <c r="BZ31" s="105"/>
+      <c r="CA31" s="105"/>
+      <c r="CB31" s="105"/>
+      <c r="CC31" s="105"/>
+      <c r="CD31" s="105"/>
+      <c r="CE31" s="106"/>
       <c r="CF31" s="5"/>
       <c r="CG31" s="5"/>
       <c r="CH31" s="5"/>
@@ -7404,24 +7120,24 @@
       <c r="CJ31" s="5"/>
     </row>
     <row r="32" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="110">
+      <c r="A32" s="107">
         <v>8</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="94" t="s">
+      <c r="B32" s="108"/>
+      <c r="C32" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="96"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="106"/>
       <c r="O32" s="12"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -7444,55 +7160,55 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
-      <c r="AK32" s="94" t="s">
+      <c r="AK32" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="95"/>
-      <c r="AO32" s="95"/>
-      <c r="AP32" s="95"/>
-      <c r="AQ32" s="95"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="95"/>
-      <c r="AW32" s="95"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="95"/>
-      <c r="AZ32" s="95"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="95"/>
-      <c r="BM32" s="95"/>
-      <c r="BN32" s="95"/>
-      <c r="BO32" s="95"/>
-      <c r="BP32" s="95"/>
-      <c r="BQ32" s="95"/>
-      <c r="BR32" s="95"/>
-      <c r="BS32" s="95"/>
-      <c r="BT32" s="95"/>
-      <c r="BU32" s="95"/>
-      <c r="BV32" s="95"/>
-      <c r="BW32" s="95"/>
-      <c r="BX32" s="95"/>
-      <c r="BY32" s="95"/>
-      <c r="BZ32" s="95"/>
-      <c r="CA32" s="95"/>
-      <c r="CB32" s="95"/>
-      <c r="CC32" s="95"/>
-      <c r="CD32" s="95"/>
-      <c r="CE32" s="96"/>
+      <c r="AL32" s="105"/>
+      <c r="AM32" s="105"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="105"/>
+      <c r="AY32" s="105"/>
+      <c r="AZ32" s="105"/>
+      <c r="BA32" s="105"/>
+      <c r="BB32" s="105"/>
+      <c r="BC32" s="105"/>
+      <c r="BD32" s="105"/>
+      <c r="BE32" s="105"/>
+      <c r="BF32" s="105"/>
+      <c r="BG32" s="105"/>
+      <c r="BH32" s="105"/>
+      <c r="BI32" s="105"/>
+      <c r="BJ32" s="105"/>
+      <c r="BK32" s="105"/>
+      <c r="BL32" s="105"/>
+      <c r="BM32" s="105"/>
+      <c r="BN32" s="105"/>
+      <c r="BO32" s="105"/>
+      <c r="BP32" s="105"/>
+      <c r="BQ32" s="105"/>
+      <c r="BR32" s="105"/>
+      <c r="BS32" s="105"/>
+      <c r="BT32" s="105"/>
+      <c r="BU32" s="105"/>
+      <c r="BV32" s="105"/>
+      <c r="BW32" s="105"/>
+      <c r="BX32" s="105"/>
+      <c r="BY32" s="105"/>
+      <c r="BZ32" s="105"/>
+      <c r="CA32" s="105"/>
+      <c r="CB32" s="105"/>
+      <c r="CC32" s="105"/>
+      <c r="CD32" s="105"/>
+      <c r="CE32" s="106"/>
       <c r="CF32" s="5"/>
       <c r="CG32" s="5"/>
       <c r="CH32" s="5"/>
@@ -7500,24 +7216,24 @@
       <c r="CJ32" s="5"/>
     </row>
     <row r="33" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="108">
+      <c r="A33" s="102">
         <v>9</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="94" t="s">
+      <c r="B33" s="103"/>
+      <c r="C33" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="96"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="106"/>
       <c r="O33" s="12"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
@@ -7540,55 +7256,55 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
-      <c r="AK33" s="94" t="s">
+      <c r="AK33" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="95"/>
-      <c r="AQ33" s="95"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="95"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="95"/>
-      <c r="BM33" s="95"/>
-      <c r="BN33" s="95"/>
-      <c r="BO33" s="95"/>
-      <c r="BP33" s="95"/>
-      <c r="BQ33" s="95"/>
-      <c r="BR33" s="95"/>
-      <c r="BS33" s="95"/>
-      <c r="BT33" s="95"/>
-      <c r="BU33" s="95"/>
-      <c r="BV33" s="95"/>
-      <c r="BW33" s="95"/>
-      <c r="BX33" s="95"/>
-      <c r="BY33" s="95"/>
-      <c r="BZ33" s="95"/>
-      <c r="CA33" s="95"/>
-      <c r="CB33" s="95"/>
-      <c r="CC33" s="95"/>
-      <c r="CD33" s="95"/>
-      <c r="CE33" s="96"/>
+      <c r="AL33" s="105"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
+      <c r="AX33" s="105"/>
+      <c r="AY33" s="105"/>
+      <c r="AZ33" s="105"/>
+      <c r="BA33" s="105"/>
+      <c r="BB33" s="105"/>
+      <c r="BC33" s="105"/>
+      <c r="BD33" s="105"/>
+      <c r="BE33" s="105"/>
+      <c r="BF33" s="105"/>
+      <c r="BG33" s="105"/>
+      <c r="BH33" s="105"/>
+      <c r="BI33" s="105"/>
+      <c r="BJ33" s="105"/>
+      <c r="BK33" s="105"/>
+      <c r="BL33" s="105"/>
+      <c r="BM33" s="105"/>
+      <c r="BN33" s="105"/>
+      <c r="BO33" s="105"/>
+      <c r="BP33" s="105"/>
+      <c r="BQ33" s="105"/>
+      <c r="BR33" s="105"/>
+      <c r="BS33" s="105"/>
+      <c r="BT33" s="105"/>
+      <c r="BU33" s="105"/>
+      <c r="BV33" s="105"/>
+      <c r="BW33" s="105"/>
+      <c r="BX33" s="105"/>
+      <c r="BY33" s="105"/>
+      <c r="BZ33" s="105"/>
+      <c r="CA33" s="105"/>
+      <c r="CB33" s="105"/>
+      <c r="CC33" s="105"/>
+      <c r="CD33" s="105"/>
+      <c r="CE33" s="106"/>
       <c r="CF33" s="5"/>
       <c r="CG33" s="5"/>
       <c r="CH33" s="5"/>
@@ -7596,24 +7312,24 @@
       <c r="CJ33" s="5"/>
     </row>
     <row r="34" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="110">
+      <c r="A34" s="107">
         <v>10</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="94" t="s">
+      <c r="B34" s="108"/>
+      <c r="C34" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="96"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="106"/>
       <c r="O34" s="12"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -7636,55 +7352,55 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
-      <c r="AK34" s="94" t="s">
+      <c r="AK34" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="95"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="95"/>
-      <c r="CC34" s="95"/>
-      <c r="CD34" s="95"/>
-      <c r="CE34" s="96"/>
+      <c r="AL34" s="105"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="105"/>
+      <c r="AT34" s="105"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="105"/>
+      <c r="AW34" s="105"/>
+      <c r="AX34" s="105"/>
+      <c r="AY34" s="105"/>
+      <c r="AZ34" s="105"/>
+      <c r="BA34" s="105"/>
+      <c r="BB34" s="105"/>
+      <c r="BC34" s="105"/>
+      <c r="BD34" s="105"/>
+      <c r="BE34" s="105"/>
+      <c r="BF34" s="105"/>
+      <c r="BG34" s="105"/>
+      <c r="BH34" s="105"/>
+      <c r="BI34" s="105"/>
+      <c r="BJ34" s="105"/>
+      <c r="BK34" s="105"/>
+      <c r="BL34" s="105"/>
+      <c r="BM34" s="105"/>
+      <c r="BN34" s="105"/>
+      <c r="BO34" s="105"/>
+      <c r="BP34" s="105"/>
+      <c r="BQ34" s="105"/>
+      <c r="BR34" s="105"/>
+      <c r="BS34" s="105"/>
+      <c r="BT34" s="105"/>
+      <c r="BU34" s="105"/>
+      <c r="BV34" s="105"/>
+      <c r="BW34" s="105"/>
+      <c r="BX34" s="105"/>
+      <c r="BY34" s="105"/>
+      <c r="BZ34" s="105"/>
+      <c r="CA34" s="105"/>
+      <c r="CB34" s="105"/>
+      <c r="CC34" s="105"/>
+      <c r="CD34" s="105"/>
+      <c r="CE34" s="106"/>
       <c r="CF34" s="5"/>
       <c r="CG34" s="5"/>
       <c r="CH34" s="5"/>
@@ -7692,93 +7408,93 @@
       <c r="CJ34" s="5"/>
     </row>
     <row r="35" spans="1:90" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="108">
+      <c r="A35" s="102">
         <v>11</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="94" t="s">
+      <c r="B35" s="103"/>
+      <c r="C35" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="107"/>
-      <c r="AI35" s="107"/>
-      <c r="AJ35" s="107"/>
-      <c r="AK35" s="94"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="95"/>
-      <c r="AO35" s="95"/>
-      <c r="AP35" s="95"/>
-      <c r="AQ35" s="95"/>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="95"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="95"/>
-      <c r="AW35" s="95"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="95"/>
-      <c r="AZ35" s="95"/>
-      <c r="BA35" s="95"/>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="95"/>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-      <c r="BI35" s="95"/>
-      <c r="BJ35" s="95"/>
-      <c r="BK35" s="95"/>
-      <c r="BL35" s="95"/>
-      <c r="BM35" s="95"/>
-      <c r="BN35" s="95"/>
-      <c r="BO35" s="95"/>
-      <c r="BP35" s="95"/>
-      <c r="BQ35" s="95"/>
-      <c r="BR35" s="95"/>
-      <c r="BS35" s="95"/>
-      <c r="BT35" s="95"/>
-      <c r="BU35" s="95"/>
-      <c r="BV35" s="95"/>
-      <c r="BW35" s="95"/>
-      <c r="BX35" s="95"/>
-      <c r="BY35" s="95"/>
-      <c r="BZ35" s="95"/>
-      <c r="CA35" s="95"/>
-      <c r="CB35" s="95"/>
-      <c r="CC35" s="95"/>
-      <c r="CD35" s="95"/>
-      <c r="CE35" s="96"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="158"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="158"/>
+      <c r="W35" s="158"/>
+      <c r="X35" s="158"/>
+      <c r="Y35" s="158"/>
+      <c r="Z35" s="158"/>
+      <c r="AA35" s="158"/>
+      <c r="AB35" s="158"/>
+      <c r="AC35" s="158"/>
+      <c r="AD35" s="158"/>
+      <c r="AE35" s="158"/>
+      <c r="AF35" s="158"/>
+      <c r="AG35" s="158"/>
+      <c r="AH35" s="158"/>
+      <c r="AI35" s="158"/>
+      <c r="AJ35" s="158"/>
+      <c r="AK35" s="104"/>
+      <c r="AL35" s="105"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="105"/>
+      <c r="AT35" s="105"/>
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="105"/>
+      <c r="AW35" s="105"/>
+      <c r="AX35" s="105"/>
+      <c r="AY35" s="105"/>
+      <c r="AZ35" s="105"/>
+      <c r="BA35" s="105"/>
+      <c r="BB35" s="105"/>
+      <c r="BC35" s="105"/>
+      <c r="BD35" s="105"/>
+      <c r="BE35" s="105"/>
+      <c r="BF35" s="105"/>
+      <c r="BG35" s="105"/>
+      <c r="BH35" s="105"/>
+      <c r="BI35" s="105"/>
+      <c r="BJ35" s="105"/>
+      <c r="BK35" s="105"/>
+      <c r="BL35" s="105"/>
+      <c r="BM35" s="105"/>
+      <c r="BN35" s="105"/>
+      <c r="BO35" s="105"/>
+      <c r="BP35" s="105"/>
+      <c r="BQ35" s="105"/>
+      <c r="BR35" s="105"/>
+      <c r="BS35" s="105"/>
+      <c r="BT35" s="105"/>
+      <c r="BU35" s="105"/>
+      <c r="BV35" s="105"/>
+      <c r="BW35" s="105"/>
+      <c r="BX35" s="105"/>
+      <c r="BY35" s="105"/>
+      <c r="BZ35" s="105"/>
+      <c r="CA35" s="105"/>
+      <c r="CB35" s="105"/>
+      <c r="CC35" s="105"/>
+      <c r="CD35" s="105"/>
+      <c r="CE35" s="106"/>
       <c r="CF35" s="5"/>
       <c r="CG35" s="5"/>
       <c r="CH35" s="5"/>
@@ -7786,24 +7502,24 @@
       <c r="CJ35" s="5"/>
     </row>
     <row r="36" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="110">
+      <c r="A36" s="107">
         <v>12</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="94" t="s">
+      <c r="B36" s="108"/>
+      <c r="C36" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="96"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="106"/>
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
@@ -7826,55 +7542,55 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
-      <c r="AK36" s="94" t="s">
+      <c r="AK36" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="95"/>
-      <c r="AO36" s="95"/>
-      <c r="AP36" s="95"/>
-      <c r="AQ36" s="95"/>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="95"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="95"/>
-      <c r="AX36" s="95"/>
-      <c r="AY36" s="95"/>
-      <c r="AZ36" s="95"/>
-      <c r="BA36" s="95"/>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
-      <c r="BF36" s="95"/>
-      <c r="BG36" s="95"/>
-      <c r="BH36" s="95"/>
-      <c r="BI36" s="95"/>
-      <c r="BJ36" s="95"/>
-      <c r="BK36" s="95"/>
-      <c r="BL36" s="95"/>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="95"/>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="95"/>
-      <c r="BT36" s="95"/>
-      <c r="BU36" s="95"/>
-      <c r="BV36" s="95"/>
-      <c r="BW36" s="95"/>
-      <c r="BX36" s="95"/>
-      <c r="BY36" s="95"/>
-      <c r="BZ36" s="95"/>
-      <c r="CA36" s="95"/>
-      <c r="CB36" s="95"/>
-      <c r="CC36" s="95"/>
-      <c r="CD36" s="95"/>
-      <c r="CE36" s="96"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="105"/>
+      <c r="AT36" s="105"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="105"/>
+      <c r="AW36" s="105"/>
+      <c r="AX36" s="105"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="105"/>
+      <c r="BA36" s="105"/>
+      <c r="BB36" s="105"/>
+      <c r="BC36" s="105"/>
+      <c r="BD36" s="105"/>
+      <c r="BE36" s="105"/>
+      <c r="BF36" s="105"/>
+      <c r="BG36" s="105"/>
+      <c r="BH36" s="105"/>
+      <c r="BI36" s="105"/>
+      <c r="BJ36" s="105"/>
+      <c r="BK36" s="105"/>
+      <c r="BL36" s="105"/>
+      <c r="BM36" s="105"/>
+      <c r="BN36" s="105"/>
+      <c r="BO36" s="105"/>
+      <c r="BP36" s="105"/>
+      <c r="BQ36" s="105"/>
+      <c r="BR36" s="105"/>
+      <c r="BS36" s="105"/>
+      <c r="BT36" s="105"/>
+      <c r="BU36" s="105"/>
+      <c r="BV36" s="105"/>
+      <c r="BW36" s="105"/>
+      <c r="BX36" s="105"/>
+      <c r="BY36" s="105"/>
+      <c r="BZ36" s="105"/>
+      <c r="CA36" s="105"/>
+      <c r="CB36" s="105"/>
+      <c r="CC36" s="105"/>
+      <c r="CD36" s="105"/>
+      <c r="CE36" s="106"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="5"/>
       <c r="CH36" s="5"/>
@@ -7882,24 +7598,24 @@
       <c r="CJ36" s="5"/>
     </row>
     <row r="37" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="159">
+      <c r="A37" s="94">
         <v>13</v>
       </c>
-      <c r="B37" s="160"/>
-      <c r="C37" s="97" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
-      <c r="N37" s="99"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="98"/>
       <c r="O37" s="14"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
@@ -7922,55 +7638,55 @@
       <c r="AH37" s="15"/>
       <c r="AI37" s="15"/>
       <c r="AJ37" s="15"/>
-      <c r="AK37" s="97" t="s">
+      <c r="AK37" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AL37" s="98"/>
-      <c r="AM37" s="98"/>
-      <c r="AN37" s="98"/>
-      <c r="AO37" s="98"/>
-      <c r="AP37" s="98"/>
-      <c r="AQ37" s="98"/>
-      <c r="AR37" s="98"/>
-      <c r="AS37" s="98"/>
-      <c r="AT37" s="98"/>
-      <c r="AU37" s="98"/>
-      <c r="AV37" s="98"/>
-      <c r="AW37" s="98"/>
-      <c r="AX37" s="98"/>
-      <c r="AY37" s="98"/>
-      <c r="AZ37" s="98"/>
-      <c r="BA37" s="98"/>
-      <c r="BB37" s="98"/>
-      <c r="BC37" s="98"/>
-      <c r="BD37" s="98"/>
-      <c r="BE37" s="98"/>
-      <c r="BF37" s="98"/>
-      <c r="BG37" s="98"/>
-      <c r="BH37" s="98"/>
-      <c r="BI37" s="98"/>
-      <c r="BJ37" s="98"/>
-      <c r="BK37" s="98"/>
-      <c r="BL37" s="98"/>
-      <c r="BM37" s="98"/>
-      <c r="BN37" s="98"/>
-      <c r="BO37" s="98"/>
-      <c r="BP37" s="98"/>
-      <c r="BQ37" s="98"/>
-      <c r="BR37" s="98"/>
-      <c r="BS37" s="98"/>
-      <c r="BT37" s="98"/>
-      <c r="BU37" s="98"/>
-      <c r="BV37" s="98"/>
-      <c r="BW37" s="98"/>
-      <c r="BX37" s="98"/>
-      <c r="BY37" s="98"/>
-      <c r="BZ37" s="98"/>
-      <c r="CA37" s="98"/>
-      <c r="CB37" s="98"/>
-      <c r="CC37" s="98"/>
-      <c r="CD37" s="98"/>
-      <c r="CE37" s="99"/>
+      <c r="AL37" s="97"/>
+      <c r="AM37" s="97"/>
+      <c r="AN37" s="97"/>
+      <c r="AO37" s="97"/>
+      <c r="AP37" s="97"/>
+      <c r="AQ37" s="97"/>
+      <c r="AR37" s="97"/>
+      <c r="AS37" s="97"/>
+      <c r="AT37" s="97"/>
+      <c r="AU37" s="97"/>
+      <c r="AV37" s="97"/>
+      <c r="AW37" s="97"/>
+      <c r="AX37" s="97"/>
+      <c r="AY37" s="97"/>
+      <c r="AZ37" s="97"/>
+      <c r="BA37" s="97"/>
+      <c r="BB37" s="97"/>
+      <c r="BC37" s="97"/>
+      <c r="BD37" s="97"/>
+      <c r="BE37" s="97"/>
+      <c r="BF37" s="97"/>
+      <c r="BG37" s="97"/>
+      <c r="BH37" s="97"/>
+      <c r="BI37" s="97"/>
+      <c r="BJ37" s="97"/>
+      <c r="BK37" s="97"/>
+      <c r="BL37" s="97"/>
+      <c r="BM37" s="97"/>
+      <c r="BN37" s="97"/>
+      <c r="BO37" s="97"/>
+      <c r="BP37" s="97"/>
+      <c r="BQ37" s="97"/>
+      <c r="BR37" s="97"/>
+      <c r="BS37" s="97"/>
+      <c r="BT37" s="97"/>
+      <c r="BU37" s="97"/>
+      <c r="BV37" s="97"/>
+      <c r="BW37" s="97"/>
+      <c r="BX37" s="97"/>
+      <c r="BY37" s="97"/>
+      <c r="BZ37" s="97"/>
+      <c r="CA37" s="97"/>
+      <c r="CB37" s="97"/>
+      <c r="CC37" s="97"/>
+      <c r="CD37" s="97"/>
+      <c r="CE37" s="98"/>
       <c r="CF37" s="5"/>
       <c r="CG37" s="5"/>
       <c r="CH37" s="5"/>
@@ -15063,6 +14779,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="AK35:CE35"/>
+    <mergeCell ref="AK36:CE36"/>
+    <mergeCell ref="AK37:CE37"/>
+    <mergeCell ref="O7:AJ7"/>
+    <mergeCell ref="AK7:CE7"/>
+    <mergeCell ref="A23:CE23"/>
+    <mergeCell ref="O24:AJ24"/>
+    <mergeCell ref="AK24:CE24"/>
+    <mergeCell ref="O35:AJ35"/>
+    <mergeCell ref="AK30:CE30"/>
+    <mergeCell ref="AK31:CE31"/>
+    <mergeCell ref="AK32:CE32"/>
+    <mergeCell ref="AK33:CE33"/>
+    <mergeCell ref="AK34:CE34"/>
+    <mergeCell ref="AK26:CE26"/>
+    <mergeCell ref="AK27:CE27"/>
+    <mergeCell ref="AK28:CE28"/>
+    <mergeCell ref="AK29:CE29"/>
+    <mergeCell ref="AK19:CE19"/>
+    <mergeCell ref="AK20:CE20"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="O18:AJ18"/>
+    <mergeCell ref="AK9:CE9"/>
+    <mergeCell ref="AK10:CE10"/>
+    <mergeCell ref="AK11:CE11"/>
+    <mergeCell ref="AK12:CE12"/>
+    <mergeCell ref="AK13:CE13"/>
+    <mergeCell ref="AK14:CE14"/>
+    <mergeCell ref="AK15:CE15"/>
+    <mergeCell ref="AK16:CE16"/>
+    <mergeCell ref="AK17:CE17"/>
+    <mergeCell ref="AK18:CE18"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="AJ2:AV4"/>
+    <mergeCell ref="AW2:BF4"/>
+    <mergeCell ref="CB2:CE4"/>
+    <mergeCell ref="AJ1:AV1"/>
+    <mergeCell ref="AW1:BF1"/>
+    <mergeCell ref="BT1:CA1"/>
+    <mergeCell ref="BT2:BW4"/>
+    <mergeCell ref="BX2:CA4"/>
+    <mergeCell ref="BG2:BS4"/>
+    <mergeCell ref="BG1:BS1"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y4"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="A6:CE6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="Z1:AI1"/>
+    <mergeCell ref="Z2:AI4"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:N37"/>
     <mergeCell ref="C7:N7"/>
@@ -15087,85 +14882,6 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:N36"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="BG1:BS1"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y4"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="A6:CE6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="Z1:AI1"/>
-    <mergeCell ref="Z2:AI4"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="AJ2:AV4"/>
-    <mergeCell ref="AW2:BF4"/>
-    <mergeCell ref="CB2:CE4"/>
-    <mergeCell ref="AJ1:AV1"/>
-    <mergeCell ref="AW1:BF1"/>
-    <mergeCell ref="BT1:CA1"/>
-    <mergeCell ref="BT2:BW4"/>
-    <mergeCell ref="BX2:CA4"/>
-    <mergeCell ref="BG2:BS4"/>
-    <mergeCell ref="O18:AJ18"/>
-    <mergeCell ref="AK9:CE9"/>
-    <mergeCell ref="AK10:CE10"/>
-    <mergeCell ref="AK11:CE11"/>
-    <mergeCell ref="AK12:CE12"/>
-    <mergeCell ref="AK13:CE13"/>
-    <mergeCell ref="AK14:CE14"/>
-    <mergeCell ref="AK15:CE15"/>
-    <mergeCell ref="AK16:CE16"/>
-    <mergeCell ref="AK17:CE17"/>
-    <mergeCell ref="AK18:CE18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="AK35:CE35"/>
-    <mergeCell ref="AK36:CE36"/>
-    <mergeCell ref="AK37:CE37"/>
-    <mergeCell ref="O7:AJ7"/>
-    <mergeCell ref="AK7:CE7"/>
-    <mergeCell ref="A23:CE23"/>
-    <mergeCell ref="O24:AJ24"/>
-    <mergeCell ref="AK24:CE24"/>
-    <mergeCell ref="O35:AJ35"/>
-    <mergeCell ref="AK30:CE30"/>
-    <mergeCell ref="AK31:CE31"/>
-    <mergeCell ref="AK32:CE32"/>
-    <mergeCell ref="AK33:CE33"/>
-    <mergeCell ref="AK34:CE34"/>
-    <mergeCell ref="AK26:CE26"/>
-    <mergeCell ref="AK27:CE27"/>
-    <mergeCell ref="AK28:CE28"/>
-    <mergeCell ref="AK29:CE29"/>
-    <mergeCell ref="AK19:CE19"/>
-    <mergeCell ref="AK20:CE20"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:N18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -15192,103 +14908,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="112" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="112" t="s">
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="139"/>
-      <c r="AW1" s="112" t="s">
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="113"/>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="113"/>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="114"/>
-      <c r="BG1" s="112" t="s">
+      <c r="AX1" s="110"/>
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
-      <c r="BJ1" s="113"/>
-      <c r="BK1" s="113"/>
-      <c r="BL1" s="113"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="113"/>
-      <c r="BO1" s="113"/>
-      <c r="BP1" s="113"/>
-      <c r="BQ1" s="113"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="114"/>
-      <c r="BT1" s="112" t="s">
+      <c r="BH1" s="110"/>
+      <c r="BI1" s="110"/>
+      <c r="BJ1" s="110"/>
+      <c r="BK1" s="110"/>
+      <c r="BL1" s="110"/>
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="110"/>
+      <c r="BO1" s="110"/>
+      <c r="BP1" s="110"/>
+      <c r="BQ1" s="110"/>
+      <c r="BR1" s="110"/>
+      <c r="BS1" s="111"/>
+      <c r="BT1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="113"/>
-      <c r="BV1" s="113"/>
-      <c r="BW1" s="113"/>
-      <c r="BX1" s="113"/>
-      <c r="BY1" s="113"/>
-      <c r="BZ1" s="113"/>
-      <c r="CA1" s="114"/>
-      <c r="CB1" s="112" t="s">
+      <c r="BU1" s="110"/>
+      <c r="BV1" s="110"/>
+      <c r="BW1" s="110"/>
+      <c r="BX1" s="110"/>
+      <c r="BY1" s="110"/>
+      <c r="BZ1" s="110"/>
+      <c r="CA1" s="111"/>
+      <c r="CB1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="138"/>
-      <c r="CD1" s="138"/>
-      <c r="CE1" s="139"/>
+      <c r="CC1" s="136"/>
+      <c r="CD1" s="136"/>
+      <c r="CE1" s="137"/>
     </row>
     <row r="2" spans="1:90" ht="15.75" customHeight="1">
       <c r="A2" s="115" t="s">
@@ -15318,66 +15034,66 @@
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
       <c r="Y2" s="117"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="141"/>
-      <c r="AQ2" s="141"/>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="130"/>
-      <c r="AY2" s="130"/>
-      <c r="AZ2" s="130"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="130"/>
-      <c r="BC2" s="130"/>
-      <c r="BD2" s="130"/>
-      <c r="BE2" s="130"/>
-      <c r="BF2" s="131"/>
-      <c r="BG2" s="150"/>
-      <c r="BH2" s="151"/>
-      <c r="BI2" s="151"/>
-      <c r="BJ2" s="151"/>
-      <c r="BK2" s="151"/>
-      <c r="BL2" s="151"/>
-      <c r="BM2" s="151"/>
-      <c r="BN2" s="151"/>
-      <c r="BO2" s="151"/>
-      <c r="BP2" s="151"/>
-      <c r="BQ2" s="151"/>
-      <c r="BR2" s="151"/>
-      <c r="BS2" s="152"/>
-      <c r="BT2" s="150"/>
-      <c r="BU2" s="151"/>
-      <c r="BV2" s="151"/>
-      <c r="BW2" s="152"/>
-      <c r="BX2" s="150"/>
-      <c r="BY2" s="151"/>
-      <c r="BZ2" s="151"/>
-      <c r="CA2" s="152"/>
-      <c r="CB2" s="149" t="s">
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="149"/>
+      <c r="BI2" s="149"/>
+      <c r="BJ2" s="149"/>
+      <c r="BK2" s="149"/>
+      <c r="BL2" s="149"/>
+      <c r="BM2" s="149"/>
+      <c r="BN2" s="149"/>
+      <c r="BO2" s="149"/>
+      <c r="BP2" s="149"/>
+      <c r="BQ2" s="149"/>
+      <c r="BR2" s="149"/>
+      <c r="BS2" s="150"/>
+      <c r="BT2" s="148"/>
+      <c r="BU2" s="149"/>
+      <c r="BV2" s="149"/>
+      <c r="BW2" s="150"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="149"/>
+      <c r="BZ2" s="149"/>
+      <c r="CA2" s="150"/>
+      <c r="CB2" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="141"/>
-      <c r="CD2" s="141"/>
-      <c r="CE2" s="142"/>
+      <c r="CC2" s="139"/>
+      <c r="CD2" s="139"/>
+      <c r="CE2" s="140"/>
     </row>
     <row r="3" spans="1:90" ht="15.75" customHeight="1">
       <c r="A3" s="118"/>
@@ -15405,64 +15121,64 @@
       <c r="W3" s="119"/>
       <c r="X3" s="119"/>
       <c r="Y3" s="120"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="133"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="144"/>
-      <c r="AQ3" s="144"/>
-      <c r="AR3" s="144"/>
-      <c r="AS3" s="144"/>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="144"/>
-      <c r="AV3" s="145"/>
-      <c r="AW3" s="132"/>
-      <c r="AX3" s="133"/>
-      <c r="AY3" s="133"/>
-      <c r="AZ3" s="133"/>
-      <c r="BA3" s="133"/>
-      <c r="BB3" s="133"/>
-      <c r="BC3" s="133"/>
-      <c r="BD3" s="133"/>
-      <c r="BE3" s="133"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="153"/>
-      <c r="BH3" s="154"/>
-      <c r="BI3" s="154"/>
-      <c r="BJ3" s="154"/>
-      <c r="BK3" s="154"/>
-      <c r="BL3" s="154"/>
-      <c r="BM3" s="154"/>
-      <c r="BN3" s="154"/>
-      <c r="BO3" s="154"/>
-      <c r="BP3" s="154"/>
-      <c r="BQ3" s="154"/>
-      <c r="BR3" s="154"/>
-      <c r="BS3" s="155"/>
-      <c r="BT3" s="153"/>
-      <c r="BU3" s="154"/>
-      <c r="BV3" s="154"/>
-      <c r="BW3" s="155"/>
-      <c r="BX3" s="153"/>
-      <c r="BY3" s="154"/>
-      <c r="BZ3" s="154"/>
-      <c r="CA3" s="155"/>
-      <c r="CB3" s="143"/>
-      <c r="CC3" s="144"/>
-      <c r="CD3" s="144"/>
-      <c r="CE3" s="145"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="131"/>
+      <c r="BC3" s="131"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="131"/>
+      <c r="BF3" s="132"/>
+      <c r="BG3" s="151"/>
+      <c r="BH3" s="152"/>
+      <c r="BI3" s="152"/>
+      <c r="BJ3" s="152"/>
+      <c r="BK3" s="152"/>
+      <c r="BL3" s="152"/>
+      <c r="BM3" s="152"/>
+      <c r="BN3" s="152"/>
+      <c r="BO3" s="152"/>
+      <c r="BP3" s="152"/>
+      <c r="BQ3" s="152"/>
+      <c r="BR3" s="152"/>
+      <c r="BS3" s="153"/>
+      <c r="BT3" s="151"/>
+      <c r="BU3" s="152"/>
+      <c r="BV3" s="152"/>
+      <c r="BW3" s="153"/>
+      <c r="BX3" s="151"/>
+      <c r="BY3" s="152"/>
+      <c r="BZ3" s="152"/>
+      <c r="CA3" s="153"/>
+      <c r="CB3" s="141"/>
+      <c r="CC3" s="142"/>
+      <c r="CD3" s="142"/>
+      <c r="CE3" s="143"/>
     </row>
     <row r="4" spans="1:90" ht="15.75" customHeight="1">
       <c r="A4" s="121"/>
@@ -15490,64 +15206,64 @@
       <c r="W4" s="122"/>
       <c r="X4" s="122"/>
       <c r="Y4" s="123"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="146"/>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
-      <c r="AP4" s="147"/>
-      <c r="AQ4" s="147"/>
-      <c r="AR4" s="147"/>
-      <c r="AS4" s="147"/>
-      <c r="AT4" s="147"/>
-      <c r="AU4" s="147"/>
-      <c r="AV4" s="148"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="137"/>
-      <c r="BG4" s="156"/>
-      <c r="BH4" s="157"/>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="157"/>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="157"/>
-      <c r="BO4" s="157"/>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="157"/>
-      <c r="BS4" s="158"/>
-      <c r="BT4" s="156"/>
-      <c r="BU4" s="157"/>
-      <c r="BV4" s="157"/>
-      <c r="BW4" s="158"/>
-      <c r="BX4" s="156"/>
-      <c r="BY4" s="157"/>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="158"/>
-      <c r="CB4" s="146"/>
-      <c r="CC4" s="147"/>
-      <c r="CD4" s="147"/>
-      <c r="CE4" s="148"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="135"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="145"/>
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="145"/>
+      <c r="AS4" s="145"/>
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="134"/>
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="135"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="155"/>
+      <c r="BI4" s="155"/>
+      <c r="BJ4" s="155"/>
+      <c r="BK4" s="155"/>
+      <c r="BL4" s="155"/>
+      <c r="BM4" s="155"/>
+      <c r="BN4" s="155"/>
+      <c r="BO4" s="155"/>
+      <c r="BP4" s="155"/>
+      <c r="BQ4" s="155"/>
+      <c r="BR4" s="155"/>
+      <c r="BS4" s="156"/>
+      <c r="BT4" s="154"/>
+      <c r="BU4" s="155"/>
+      <c r="BV4" s="155"/>
+      <c r="BW4" s="156"/>
+      <c r="BX4" s="154"/>
+      <c r="BY4" s="155"/>
+      <c r="BZ4" s="155"/>
+      <c r="CA4" s="156"/>
+      <c r="CB4" s="144"/>
+      <c r="CC4" s="145"/>
+      <c r="CD4" s="145"/>
+      <c r="CE4" s="146"/>
     </row>
     <row r="5" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>

--- a/20 開発資料/00.基本設計/SAP要件確認資料.xlsx
+++ b/20 開発資料/00.基本設計/SAP要件確認資料.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="181">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2029,8 +2029,45 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
+    <t>Cost Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画担当者
+  CostCenter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画担当者
+  CostCenter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>NZMi0014</t>
+      <t xml:space="preserve">NZMi0015
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(基本情報)   </t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NZMi0014
+</t>
     </r>
     <r>
       <rPr>
@@ -2041,27 +2078,68 @@
       </rPr>
       <t>(交通宿泊依頼)</t>
     </r>
-    <rPh sb="9" eb="11">
+    <rPh sb="10" eb="12">
       <t>コウツウ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="12" eb="14">
       <t>シュクハク</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="14" eb="16">
       <t>イライ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Cost Center</t>
+    <t>"6844000"</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"6833200"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラム番号[4]
+Account</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAP カラム番号[9] 
+Internal Order</t>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラム番号[8] 
+Cost Center</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ実車料金（課税金額）</t>
+    <rPh sb="4" eb="6">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゼイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
@@ -2150,6 +2228,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2171,7 +2254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2678,6 +2761,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2690,7 +2782,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2955,11 +3047,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2970,29 +3065,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3003,10 +3104,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3045,128 +3251,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3471,24 +3641,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11" style="16" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="16" customWidth="1"/>
     <col min="3" max="3" width="9" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="7.28515625" style="16"/>
+    <col min="4" max="4" width="15.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="7.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>103</v>
       </c>
@@ -3496,155 +3669,197 @@
       <c r="C1" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92" t="s">
+      <c r="D1" s="188" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="187" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="91"/>
+      <c r="G1" s="187" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="86"/>
       <c r="B2" s="87"/>
       <c r="C2" s="89"/>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="189"/>
+      <c r="E2" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="G2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A3" s="179" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="183" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="D3" s="175" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="175" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="176"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="165"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A4" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="184" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="D4" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="177" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="174" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="177"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="173"/>
+    </row>
+    <row r="5" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A5" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="190" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="178" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="169" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="G5" s="178"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A6" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="178" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="169" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="G6" s="178"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="170" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A7" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="185" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30" t="s">
+      <c r="D7" s="167"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A8" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="186" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="172"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75">
+    <row r="10" spans="1:9" ht="12.75">
       <c r="A10" s="55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" s="56" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4182,362 +4397,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="109" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="109" t="s">
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="136"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="137"/>
-      <c r="AW1" s="109" t="s">
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="111"/>
-      <c r="BG1" s="109" t="s">
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="134"/>
+      <c r="BA1" s="134"/>
+      <c r="BB1" s="134"/>
+      <c r="BC1" s="134"/>
+      <c r="BD1" s="134"/>
+      <c r="BE1" s="134"/>
+      <c r="BF1" s="135"/>
+      <c r="BG1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BQ1" s="110"/>
-      <c r="BR1" s="110"/>
-      <c r="BS1" s="111"/>
-      <c r="BT1" s="109" t="s">
+      <c r="BH1" s="134"/>
+      <c r="BI1" s="134"/>
+      <c r="BJ1" s="134"/>
+      <c r="BK1" s="134"/>
+      <c r="BL1" s="134"/>
+      <c r="BM1" s="134"/>
+      <c r="BN1" s="134"/>
+      <c r="BO1" s="134"/>
+      <c r="BP1" s="134"/>
+      <c r="BQ1" s="134"/>
+      <c r="BR1" s="134"/>
+      <c r="BS1" s="135"/>
+      <c r="BT1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="110"/>
-      <c r="BV1" s="110"/>
-      <c r="BW1" s="110"/>
-      <c r="BX1" s="110"/>
-      <c r="BY1" s="110"/>
-      <c r="BZ1" s="110"/>
-      <c r="CA1" s="111"/>
-      <c r="CB1" s="109" t="s">
+      <c r="BU1" s="134"/>
+      <c r="BV1" s="134"/>
+      <c r="BW1" s="134"/>
+      <c r="BX1" s="134"/>
+      <c r="BY1" s="134"/>
+      <c r="BZ1" s="134"/>
+      <c r="CA1" s="135"/>
+      <c r="CB1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="136"/>
-      <c r="CD1" s="136"/>
-      <c r="CE1" s="137"/>
+      <c r="CC1" s="113"/>
+      <c r="CD1" s="113"/>
+      <c r="CE1" s="114"/>
     </row>
     <row r="2" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="139"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="139"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128"/>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="149"/>
-      <c r="BI2" s="149"/>
-      <c r="BJ2" s="149"/>
-      <c r="BK2" s="149"/>
-      <c r="BL2" s="149"/>
-      <c r="BM2" s="149"/>
-      <c r="BN2" s="149"/>
-      <c r="BO2" s="149"/>
-      <c r="BP2" s="149"/>
-      <c r="BQ2" s="149"/>
-      <c r="BR2" s="149"/>
-      <c r="BS2" s="150"/>
-      <c r="BT2" s="148"/>
-      <c r="BU2" s="149"/>
-      <c r="BV2" s="149"/>
-      <c r="BW2" s="150"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="149"/>
-      <c r="BZ2" s="149"/>
-      <c r="CA2" s="150"/>
-      <c r="CB2" s="147" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="137"/>
+      <c r="BI2" s="137"/>
+      <c r="BJ2" s="137"/>
+      <c r="BK2" s="137"/>
+      <c r="BL2" s="137"/>
+      <c r="BM2" s="137"/>
+      <c r="BN2" s="137"/>
+      <c r="BO2" s="137"/>
+      <c r="BP2" s="137"/>
+      <c r="BQ2" s="137"/>
+      <c r="BR2" s="137"/>
+      <c r="BS2" s="138"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="137"/>
+      <c r="BV2" s="137"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="136"/>
+      <c r="BY2" s="137"/>
+      <c r="BZ2" s="137"/>
+      <c r="CA2" s="138"/>
+      <c r="CB2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="139"/>
-      <c r="CD2" s="139"/>
-      <c r="CE2" s="140"/>
+      <c r="CC2" s="116"/>
+      <c r="CD2" s="116"/>
+      <c r="CE2" s="117"/>
     </row>
     <row r="3" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142"/>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="142"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="131"/>
-      <c r="BC3" s="131"/>
-      <c r="BD3" s="131"/>
-      <c r="BE3" s="131"/>
-      <c r="BF3" s="132"/>
-      <c r="BG3" s="151"/>
-      <c r="BH3" s="152"/>
-      <c r="BI3" s="152"/>
-      <c r="BJ3" s="152"/>
-      <c r="BK3" s="152"/>
-      <c r="BL3" s="152"/>
-      <c r="BM3" s="152"/>
-      <c r="BN3" s="152"/>
-      <c r="BO3" s="152"/>
-      <c r="BP3" s="152"/>
-      <c r="BQ3" s="152"/>
-      <c r="BR3" s="152"/>
-      <c r="BS3" s="153"/>
-      <c r="BT3" s="151"/>
-      <c r="BU3" s="152"/>
-      <c r="BV3" s="152"/>
-      <c r="BW3" s="153"/>
-      <c r="BX3" s="151"/>
-      <c r="BY3" s="152"/>
-      <c r="BZ3" s="152"/>
-      <c r="CA3" s="153"/>
-      <c r="CB3" s="141"/>
-      <c r="CC3" s="142"/>
-      <c r="CD3" s="142"/>
-      <c r="CE3" s="143"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="127"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="140"/>
+      <c r="BI3" s="140"/>
+      <c r="BJ3" s="140"/>
+      <c r="BK3" s="140"/>
+      <c r="BL3" s="140"/>
+      <c r="BM3" s="140"/>
+      <c r="BN3" s="140"/>
+      <c r="BO3" s="140"/>
+      <c r="BP3" s="140"/>
+      <c r="BQ3" s="140"/>
+      <c r="BR3" s="140"/>
+      <c r="BS3" s="141"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="140"/>
+      <c r="BV3" s="140"/>
+      <c r="BW3" s="141"/>
+      <c r="BX3" s="139"/>
+      <c r="BY3" s="140"/>
+      <c r="BZ3" s="140"/>
+      <c r="CA3" s="141"/>
+      <c r="CB3" s="118"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="120"/>
     </row>
     <row r="4" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="145"/>
-      <c r="AL4" s="145"/>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="145"/>
-      <c r="AO4" s="145"/>
-      <c r="AP4" s="145"/>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="145"/>
-      <c r="AS4" s="145"/>
-      <c r="AT4" s="145"/>
-      <c r="AU4" s="145"/>
-      <c r="AV4" s="146"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="134"/>
-      <c r="BA4" s="134"/>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="155"/>
-      <c r="BI4" s="155"/>
-      <c r="BJ4" s="155"/>
-      <c r="BK4" s="155"/>
-      <c r="BL4" s="155"/>
-      <c r="BM4" s="155"/>
-      <c r="BN4" s="155"/>
-      <c r="BO4" s="155"/>
-      <c r="BP4" s="155"/>
-      <c r="BQ4" s="155"/>
-      <c r="BR4" s="155"/>
-      <c r="BS4" s="156"/>
-      <c r="BT4" s="154"/>
-      <c r="BU4" s="155"/>
-      <c r="BV4" s="155"/>
-      <c r="BW4" s="156"/>
-      <c r="BX4" s="154"/>
-      <c r="BY4" s="155"/>
-      <c r="BZ4" s="155"/>
-      <c r="CA4" s="156"/>
-      <c r="CB4" s="144"/>
-      <c r="CC4" s="145"/>
-      <c r="CD4" s="145"/>
-      <c r="CE4" s="146"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="131"/>
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="131"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="142"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="143"/>
+      <c r="BK4" s="143"/>
+      <c r="BL4" s="143"/>
+      <c r="BM4" s="143"/>
+      <c r="BN4" s="143"/>
+      <c r="BO4" s="143"/>
+      <c r="BP4" s="143"/>
+      <c r="BQ4" s="143"/>
+      <c r="BR4" s="143"/>
+      <c r="BS4" s="144"/>
+      <c r="BT4" s="142"/>
+      <c r="BU4" s="143"/>
+      <c r="BV4" s="143"/>
+      <c r="BW4" s="144"/>
+      <c r="BX4" s="142"/>
+      <c r="BY4" s="143"/>
+      <c r="BZ4" s="143"/>
+      <c r="CA4" s="144"/>
+      <c r="CB4" s="121"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="123"/>
     </row>
     <row r="5" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -4632,91 +4847,91 @@
       <c r="CL5" s="3"/>
     </row>
     <row r="6" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125"/>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125"/>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125"/>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125"/>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="125"/>
-      <c r="BJ6" s="125"/>
-      <c r="BK6" s="125"/>
-      <c r="BL6" s="125"/>
-      <c r="BM6" s="125"/>
-      <c r="BN6" s="125"/>
-      <c r="BO6" s="125"/>
-      <c r="BP6" s="125"/>
-      <c r="BQ6" s="125"/>
-      <c r="BR6" s="125"/>
-      <c r="BS6" s="125"/>
-      <c r="BT6" s="125"/>
-      <c r="BU6" s="125"/>
-      <c r="BV6" s="125"/>
-      <c r="BW6" s="125"/>
-      <c r="BX6" s="125"/>
-      <c r="BY6" s="125"/>
-      <c r="BZ6" s="125"/>
-      <c r="CA6" s="125"/>
-      <c r="CB6" s="125"/>
-      <c r="CC6" s="125"/>
-      <c r="CD6" s="125"/>
-      <c r="CE6" s="126"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="104"/>
+      <c r="BJ6" s="104"/>
+      <c r="BK6" s="104"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="104"/>
+      <c r="BN6" s="104"/>
+      <c r="BO6" s="104"/>
+      <c r="BP6" s="104"/>
+      <c r="BQ6" s="104"/>
+      <c r="BR6" s="104"/>
+      <c r="BS6" s="104"/>
+      <c r="BT6" s="104"/>
+      <c r="BU6" s="104"/>
+      <c r="BV6" s="104"/>
+      <c r="BW6" s="104"/>
+      <c r="BX6" s="104"/>
+      <c r="BY6" s="104"/>
+      <c r="BZ6" s="104"/>
+      <c r="CA6" s="104"/>
+      <c r="CB6" s="104"/>
+      <c r="CC6" s="104"/>
+      <c r="CD6" s="104"/>
+      <c r="CE6" s="105"/>
       <c r="CF6" s="3"/>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
@@ -4724,97 +4939,97 @@
       <c r="CJ6" s="3"/>
     </row>
     <row r="7" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="148"/>
+      <c r="C7" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="159" t="s">
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="160"/>
-      <c r="AJ7" s="161"/>
-      <c r="AK7" s="159" t="s">
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="AL7" s="160"/>
-      <c r="AM7" s="160"/>
-      <c r="AN7" s="160"/>
-      <c r="AO7" s="160"/>
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="160"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="160"/>
-      <c r="AT7" s="160"/>
-      <c r="AU7" s="160"/>
-      <c r="AV7" s="160"/>
-      <c r="AW7" s="160"/>
-      <c r="AX7" s="160"/>
-      <c r="AY7" s="160"/>
-      <c r="AZ7" s="160"/>
-      <c r="BA7" s="160"/>
-      <c r="BB7" s="160"/>
-      <c r="BC7" s="160"/>
-      <c r="BD7" s="160"/>
-      <c r="BE7" s="160"/>
-      <c r="BF7" s="160"/>
-      <c r="BG7" s="160"/>
-      <c r="BH7" s="160"/>
-      <c r="BI7" s="160"/>
-      <c r="BJ7" s="160"/>
-      <c r="BK7" s="160"/>
-      <c r="BL7" s="160"/>
-      <c r="BM7" s="160"/>
-      <c r="BN7" s="160"/>
-      <c r="BO7" s="160"/>
-      <c r="BP7" s="160"/>
-      <c r="BQ7" s="160"/>
-      <c r="BR7" s="160"/>
-      <c r="BS7" s="160"/>
-      <c r="BT7" s="160"/>
-      <c r="BU7" s="160"/>
-      <c r="BV7" s="160"/>
-      <c r="BW7" s="160"/>
-      <c r="BX7" s="160"/>
-      <c r="BY7" s="160"/>
-      <c r="BZ7" s="160"/>
-      <c r="CA7" s="160"/>
-      <c r="CB7" s="160"/>
-      <c r="CC7" s="160"/>
-      <c r="CD7" s="160"/>
-      <c r="CE7" s="161"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="101"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="101"/>
+      <c r="AS7" s="101"/>
+      <c r="AT7" s="101"/>
+      <c r="AU7" s="101"/>
+      <c r="AV7" s="101"/>
+      <c r="AW7" s="101"/>
+      <c r="AX7" s="101"/>
+      <c r="AY7" s="101"/>
+      <c r="AZ7" s="101"/>
+      <c r="BA7" s="101"/>
+      <c r="BB7" s="101"/>
+      <c r="BC7" s="101"/>
+      <c r="BD7" s="101"/>
+      <c r="BE7" s="101"/>
+      <c r="BF7" s="101"/>
+      <c r="BG7" s="101"/>
+      <c r="BH7" s="101"/>
+      <c r="BI7" s="101"/>
+      <c r="BJ7" s="101"/>
+      <c r="BK7" s="101"/>
+      <c r="BL7" s="101"/>
+      <c r="BM7" s="101"/>
+      <c r="BN7" s="101"/>
+      <c r="BO7" s="101"/>
+      <c r="BP7" s="101"/>
+      <c r="BQ7" s="101"/>
+      <c r="BR7" s="101"/>
+      <c r="BS7" s="101"/>
+      <c r="BT7" s="101"/>
+      <c r="BU7" s="101"/>
+      <c r="BV7" s="101"/>
+      <c r="BW7" s="101"/>
+      <c r="BX7" s="101"/>
+      <c r="BY7" s="101"/>
+      <c r="BZ7" s="101"/>
+      <c r="CA7" s="101"/>
+      <c r="CB7" s="101"/>
+      <c r="CC7" s="101"/>
+      <c r="CD7" s="101"/>
+      <c r="CE7" s="102"/>
       <c r="CF7" s="3"/>
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
@@ -4822,24 +5037,24 @@
       <c r="CJ7" s="3"/>
     </row>
     <row r="8" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="102">
+      <c r="A8" s="108">
         <v>1</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="112" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="114"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="152"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
@@ -4916,24 +5131,24 @@
       <c r="CJ8" s="5"/>
     </row>
     <row r="9" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="107">
+      <c r="A9" s="110">
         <v>2</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="106"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="96"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -4956,55 +5171,55 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
-      <c r="AK9" s="104" t="s">
+      <c r="AK9" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="AL9" s="105"/>
-      <c r="AM9" s="105"/>
-      <c r="AN9" s="105"/>
-      <c r="AO9" s="105"/>
-      <c r="AP9" s="105"/>
-      <c r="AQ9" s="105"/>
-      <c r="AR9" s="105"/>
-      <c r="AS9" s="105"/>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="105"/>
-      <c r="AV9" s="105"/>
-      <c r="AW9" s="105"/>
-      <c r="AX9" s="105"/>
-      <c r="AY9" s="105"/>
-      <c r="AZ9" s="105"/>
-      <c r="BA9" s="105"/>
-      <c r="BB9" s="105"/>
-      <c r="BC9" s="105"/>
-      <c r="BD9" s="105"/>
-      <c r="BE9" s="105"/>
-      <c r="BF9" s="105"/>
-      <c r="BG9" s="105"/>
-      <c r="BH9" s="105"/>
-      <c r="BI9" s="105"/>
-      <c r="BJ9" s="105"/>
-      <c r="BK9" s="105"/>
-      <c r="BL9" s="105"/>
-      <c r="BM9" s="105"/>
-      <c r="BN9" s="105"/>
-      <c r="BO9" s="105"/>
-      <c r="BP9" s="105"/>
-      <c r="BQ9" s="105"/>
-      <c r="BR9" s="105"/>
-      <c r="BS9" s="105"/>
-      <c r="BT9" s="105"/>
-      <c r="BU9" s="105"/>
-      <c r="BV9" s="105"/>
-      <c r="BW9" s="105"/>
-      <c r="BX9" s="105"/>
-      <c r="BY9" s="105"/>
-      <c r="BZ9" s="105"/>
-      <c r="CA9" s="105"/>
-      <c r="CB9" s="105"/>
-      <c r="CC9" s="105"/>
-      <c r="CD9" s="105"/>
-      <c r="CE9" s="106"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="95"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="95"/>
+      <c r="AQ9" s="95"/>
+      <c r="AR9" s="95"/>
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="95"/>
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="95"/>
+      <c r="AW9" s="95"/>
+      <c r="AX9" s="95"/>
+      <c r="AY9" s="95"/>
+      <c r="AZ9" s="95"/>
+      <c r="BA9" s="95"/>
+      <c r="BB9" s="95"/>
+      <c r="BC9" s="95"/>
+      <c r="BD9" s="95"/>
+      <c r="BE9" s="95"/>
+      <c r="BF9" s="95"/>
+      <c r="BG9" s="95"/>
+      <c r="BH9" s="95"/>
+      <c r="BI9" s="95"/>
+      <c r="BJ9" s="95"/>
+      <c r="BK9" s="95"/>
+      <c r="BL9" s="95"/>
+      <c r="BM9" s="95"/>
+      <c r="BN9" s="95"/>
+      <c r="BO9" s="95"/>
+      <c r="BP9" s="95"/>
+      <c r="BQ9" s="95"/>
+      <c r="BR9" s="95"/>
+      <c r="BS9" s="95"/>
+      <c r="BT9" s="95"/>
+      <c r="BU9" s="95"/>
+      <c r="BV9" s="95"/>
+      <c r="BW9" s="95"/>
+      <c r="BX9" s="95"/>
+      <c r="BY9" s="95"/>
+      <c r="BZ9" s="95"/>
+      <c r="CA9" s="95"/>
+      <c r="CB9" s="95"/>
+      <c r="CC9" s="95"/>
+      <c r="CD9" s="95"/>
+      <c r="CE9" s="96"/>
       <c r="CF9" s="5"/>
       <c r="CG9" s="5"/>
       <c r="CH9" s="5"/>
@@ -5012,24 +5227,24 @@
       <c r="CJ9" s="5"/>
     </row>
     <row r="10" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="107">
+      <c r="A10" s="110">
         <v>3</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="104" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="106"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="96"/>
       <c r="O10" s="12" t="s">
         <v>25</v>
       </c>
@@ -5054,55 +5269,55 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="104" t="s">
+      <c r="AK10" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="105"/>
-      <c r="AP10" s="105"/>
-      <c r="AQ10" s="105"/>
-      <c r="AR10" s="105"/>
-      <c r="AS10" s="105"/>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="105"/>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="105"/>
-      <c r="AY10" s="105"/>
-      <c r="AZ10" s="105"/>
-      <c r="BA10" s="105"/>
-      <c r="BB10" s="105"/>
-      <c r="BC10" s="105"/>
-      <c r="BD10" s="105"/>
-      <c r="BE10" s="105"/>
-      <c r="BF10" s="105"/>
-      <c r="BG10" s="105"/>
-      <c r="BH10" s="105"/>
-      <c r="BI10" s="105"/>
-      <c r="BJ10" s="105"/>
-      <c r="BK10" s="105"/>
-      <c r="BL10" s="105"/>
-      <c r="BM10" s="105"/>
-      <c r="BN10" s="105"/>
-      <c r="BO10" s="105"/>
-      <c r="BP10" s="105"/>
-      <c r="BQ10" s="105"/>
-      <c r="BR10" s="105"/>
-      <c r="BS10" s="105"/>
-      <c r="BT10" s="105"/>
-      <c r="BU10" s="105"/>
-      <c r="BV10" s="105"/>
-      <c r="BW10" s="105"/>
-      <c r="BX10" s="105"/>
-      <c r="BY10" s="105"/>
-      <c r="BZ10" s="105"/>
-      <c r="CA10" s="105"/>
-      <c r="CB10" s="105"/>
-      <c r="CC10" s="105"/>
-      <c r="CD10" s="105"/>
-      <c r="CE10" s="106"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="95"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="95"/>
+      <c r="AX10" s="95"/>
+      <c r="AY10" s="95"/>
+      <c r="AZ10" s="95"/>
+      <c r="BA10" s="95"/>
+      <c r="BB10" s="95"/>
+      <c r="BC10" s="95"/>
+      <c r="BD10" s="95"/>
+      <c r="BE10" s="95"/>
+      <c r="BF10" s="95"/>
+      <c r="BG10" s="95"/>
+      <c r="BH10" s="95"/>
+      <c r="BI10" s="95"/>
+      <c r="BJ10" s="95"/>
+      <c r="BK10" s="95"/>
+      <c r="BL10" s="95"/>
+      <c r="BM10" s="95"/>
+      <c r="BN10" s="95"/>
+      <c r="BO10" s="95"/>
+      <c r="BP10" s="95"/>
+      <c r="BQ10" s="95"/>
+      <c r="BR10" s="95"/>
+      <c r="BS10" s="95"/>
+      <c r="BT10" s="95"/>
+      <c r="BU10" s="95"/>
+      <c r="BV10" s="95"/>
+      <c r="BW10" s="95"/>
+      <c r="BX10" s="95"/>
+      <c r="BY10" s="95"/>
+      <c r="BZ10" s="95"/>
+      <c r="CA10" s="95"/>
+      <c r="CB10" s="95"/>
+      <c r="CC10" s="95"/>
+      <c r="CD10" s="95"/>
+      <c r="CE10" s="96"/>
       <c r="CF10" s="5"/>
       <c r="CG10" s="5"/>
       <c r="CH10" s="5"/>
@@ -5110,24 +5325,24 @@
       <c r="CJ10" s="5"/>
     </row>
     <row r="11" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="102">
+      <c r="A11" s="108">
         <v>4</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="106"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="12" t="s">
         <v>26</v>
       </c>
@@ -5152,55 +5367,55 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="104" t="s">
+      <c r="AK11" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="AL11" s="105"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="105"/>
-      <c r="AP11" s="105"/>
-      <c r="AQ11" s="105"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="105"/>
-      <c r="AT11" s="105"/>
-      <c r="AU11" s="105"/>
-      <c r="AV11" s="105"/>
-      <c r="AW11" s="105"/>
-      <c r="AX11" s="105"/>
-      <c r="AY11" s="105"/>
-      <c r="AZ11" s="105"/>
-      <c r="BA11" s="105"/>
-      <c r="BB11" s="105"/>
-      <c r="BC11" s="105"/>
-      <c r="BD11" s="105"/>
-      <c r="BE11" s="105"/>
-      <c r="BF11" s="105"/>
-      <c r="BG11" s="105"/>
-      <c r="BH11" s="105"/>
-      <c r="BI11" s="105"/>
-      <c r="BJ11" s="105"/>
-      <c r="BK11" s="105"/>
-      <c r="BL11" s="105"/>
-      <c r="BM11" s="105"/>
-      <c r="BN11" s="105"/>
-      <c r="BO11" s="105"/>
-      <c r="BP11" s="105"/>
-      <c r="BQ11" s="105"/>
-      <c r="BR11" s="105"/>
-      <c r="BS11" s="105"/>
-      <c r="BT11" s="105"/>
-      <c r="BU11" s="105"/>
-      <c r="BV11" s="105"/>
-      <c r="BW11" s="105"/>
-      <c r="BX11" s="105"/>
-      <c r="BY11" s="105"/>
-      <c r="BZ11" s="105"/>
-      <c r="CA11" s="105"/>
-      <c r="CB11" s="105"/>
-      <c r="CC11" s="105"/>
-      <c r="CD11" s="105"/>
-      <c r="CE11" s="106"/>
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="95"/>
+      <c r="AU11" s="95"/>
+      <c r="AV11" s="95"/>
+      <c r="AW11" s="95"/>
+      <c r="AX11" s="95"/>
+      <c r="AY11" s="95"/>
+      <c r="AZ11" s="95"/>
+      <c r="BA11" s="95"/>
+      <c r="BB11" s="95"/>
+      <c r="BC11" s="95"/>
+      <c r="BD11" s="95"/>
+      <c r="BE11" s="95"/>
+      <c r="BF11" s="95"/>
+      <c r="BG11" s="95"/>
+      <c r="BH11" s="95"/>
+      <c r="BI11" s="95"/>
+      <c r="BJ11" s="95"/>
+      <c r="BK11" s="95"/>
+      <c r="BL11" s="95"/>
+      <c r="BM11" s="95"/>
+      <c r="BN11" s="95"/>
+      <c r="BO11" s="95"/>
+      <c r="BP11" s="95"/>
+      <c r="BQ11" s="95"/>
+      <c r="BR11" s="95"/>
+      <c r="BS11" s="95"/>
+      <c r="BT11" s="95"/>
+      <c r="BU11" s="95"/>
+      <c r="BV11" s="95"/>
+      <c r="BW11" s="95"/>
+      <c r="BX11" s="95"/>
+      <c r="BY11" s="95"/>
+      <c r="BZ11" s="95"/>
+      <c r="CA11" s="95"/>
+      <c r="CB11" s="95"/>
+      <c r="CC11" s="95"/>
+      <c r="CD11" s="95"/>
+      <c r="CE11" s="96"/>
       <c r="CF11" s="5"/>
       <c r="CG11" s="5"/>
       <c r="CH11" s="5"/>
@@ -5208,24 +5423,24 @@
       <c r="CJ11" s="5"/>
     </row>
     <row r="12" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="107">
+      <c r="A12" s="110">
         <v>5</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="104" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="106"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="96"/>
       <c r="O12" s="12" t="s">
         <v>27</v>
       </c>
@@ -5250,55 +5465,55 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="104" t="s">
+      <c r="AK12" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="AL12" s="105"/>
-      <c r="AM12" s="105"/>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="105"/>
-      <c r="AQ12" s="105"/>
-      <c r="AR12" s="105"/>
-      <c r="AS12" s="105"/>
-      <c r="AT12" s="105"/>
-      <c r="AU12" s="105"/>
-      <c r="AV12" s="105"/>
-      <c r="AW12" s="105"/>
-      <c r="AX12" s="105"/>
-      <c r="AY12" s="105"/>
-      <c r="AZ12" s="105"/>
-      <c r="BA12" s="105"/>
-      <c r="BB12" s="105"/>
-      <c r="BC12" s="105"/>
-      <c r="BD12" s="105"/>
-      <c r="BE12" s="105"/>
-      <c r="BF12" s="105"/>
-      <c r="BG12" s="105"/>
-      <c r="BH12" s="105"/>
-      <c r="BI12" s="105"/>
-      <c r="BJ12" s="105"/>
-      <c r="BK12" s="105"/>
-      <c r="BL12" s="105"/>
-      <c r="BM12" s="105"/>
-      <c r="BN12" s="105"/>
-      <c r="BO12" s="105"/>
-      <c r="BP12" s="105"/>
-      <c r="BQ12" s="105"/>
-      <c r="BR12" s="105"/>
-      <c r="BS12" s="105"/>
-      <c r="BT12" s="105"/>
-      <c r="BU12" s="105"/>
-      <c r="BV12" s="105"/>
-      <c r="BW12" s="105"/>
-      <c r="BX12" s="105"/>
-      <c r="BY12" s="105"/>
-      <c r="BZ12" s="105"/>
-      <c r="CA12" s="105"/>
-      <c r="CB12" s="105"/>
-      <c r="CC12" s="105"/>
-      <c r="CD12" s="105"/>
-      <c r="CE12" s="106"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="95"/>
+      <c r="BK12" s="95"/>
+      <c r="BL12" s="95"/>
+      <c r="BM12" s="95"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="95"/>
+      <c r="BP12" s="95"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="BY12" s="95"/>
+      <c r="BZ12" s="95"/>
+      <c r="CA12" s="95"/>
+      <c r="CB12" s="95"/>
+      <c r="CC12" s="95"/>
+      <c r="CD12" s="95"/>
+      <c r="CE12" s="96"/>
       <c r="CF12" s="5"/>
       <c r="CG12" s="5"/>
       <c r="CH12" s="5"/>
@@ -5306,24 +5521,24 @@
       <c r="CJ12" s="5"/>
     </row>
     <row r="13" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="102">
+      <c r="A13" s="108">
         <v>6</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="106"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="96"/>
       <c r="O13" s="12"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -5346,55 +5561,55 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
-      <c r="AK13" s="104" t="s">
+      <c r="AK13" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="105"/>
-      <c r="AP13" s="105"/>
-      <c r="AQ13" s="105"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="105"/>
-      <c r="AT13" s="105"/>
-      <c r="AU13" s="105"/>
-      <c r="AV13" s="105"/>
-      <c r="AW13" s="105"/>
-      <c r="AX13" s="105"/>
-      <c r="AY13" s="105"/>
-      <c r="AZ13" s="105"/>
-      <c r="BA13" s="105"/>
-      <c r="BB13" s="105"/>
-      <c r="BC13" s="105"/>
-      <c r="BD13" s="105"/>
-      <c r="BE13" s="105"/>
-      <c r="BF13" s="105"/>
-      <c r="BG13" s="105"/>
-      <c r="BH13" s="105"/>
-      <c r="BI13" s="105"/>
-      <c r="BJ13" s="105"/>
-      <c r="BK13" s="105"/>
-      <c r="BL13" s="105"/>
-      <c r="BM13" s="105"/>
-      <c r="BN13" s="105"/>
-      <c r="BO13" s="105"/>
-      <c r="BP13" s="105"/>
-      <c r="BQ13" s="105"/>
-      <c r="BR13" s="105"/>
-      <c r="BS13" s="105"/>
-      <c r="BT13" s="105"/>
-      <c r="BU13" s="105"/>
-      <c r="BV13" s="105"/>
-      <c r="BW13" s="105"/>
-      <c r="BX13" s="105"/>
-      <c r="BY13" s="105"/>
-      <c r="BZ13" s="105"/>
-      <c r="CA13" s="105"/>
-      <c r="CB13" s="105"/>
-      <c r="CC13" s="105"/>
-      <c r="CD13" s="105"/>
-      <c r="CE13" s="106"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="95"/>
+      <c r="AU13" s="95"/>
+      <c r="AV13" s="95"/>
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="95"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="95"/>
+      <c r="BC13" s="95"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="95"/>
+      <c r="BF13" s="95"/>
+      <c r="BG13" s="95"/>
+      <c r="BH13" s="95"/>
+      <c r="BI13" s="95"/>
+      <c r="BJ13" s="95"/>
+      <c r="BK13" s="95"/>
+      <c r="BL13" s="95"/>
+      <c r="BM13" s="95"/>
+      <c r="BN13" s="95"/>
+      <c r="BO13" s="95"/>
+      <c r="BP13" s="95"/>
+      <c r="BQ13" s="95"/>
+      <c r="BR13" s="95"/>
+      <c r="BS13" s="95"/>
+      <c r="BT13" s="95"/>
+      <c r="BU13" s="95"/>
+      <c r="BV13" s="95"/>
+      <c r="BW13" s="95"/>
+      <c r="BX13" s="95"/>
+      <c r="BY13" s="95"/>
+      <c r="BZ13" s="95"/>
+      <c r="CA13" s="95"/>
+      <c r="CB13" s="95"/>
+      <c r="CC13" s="95"/>
+      <c r="CD13" s="95"/>
+      <c r="CE13" s="96"/>
       <c r="CF13" s="5"/>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
@@ -5402,24 +5617,24 @@
       <c r="CJ13" s="5"/>
     </row>
     <row r="14" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="107">
+      <c r="A14" s="110">
         <v>7</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="104" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="106"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="12"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -5442,55 +5657,55 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
-      <c r="AK14" s="104" t="s">
+      <c r="AK14" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="105"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="105"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="105"/>
-      <c r="AT14" s="105"/>
-      <c r="AU14" s="105"/>
-      <c r="AV14" s="105"/>
-      <c r="AW14" s="105"/>
-      <c r="AX14" s="105"/>
-      <c r="AY14" s="105"/>
-      <c r="AZ14" s="105"/>
-      <c r="BA14" s="105"/>
-      <c r="BB14" s="105"/>
-      <c r="BC14" s="105"/>
-      <c r="BD14" s="105"/>
-      <c r="BE14" s="105"/>
-      <c r="BF14" s="105"/>
-      <c r="BG14" s="105"/>
-      <c r="BH14" s="105"/>
-      <c r="BI14" s="105"/>
-      <c r="BJ14" s="105"/>
-      <c r="BK14" s="105"/>
-      <c r="BL14" s="105"/>
-      <c r="BM14" s="105"/>
-      <c r="BN14" s="105"/>
-      <c r="BO14" s="105"/>
-      <c r="BP14" s="105"/>
-      <c r="BQ14" s="105"/>
-      <c r="BR14" s="105"/>
-      <c r="BS14" s="105"/>
-      <c r="BT14" s="105"/>
-      <c r="BU14" s="105"/>
-      <c r="BV14" s="105"/>
-      <c r="BW14" s="105"/>
-      <c r="BX14" s="105"/>
-      <c r="BY14" s="105"/>
-      <c r="BZ14" s="105"/>
-      <c r="CA14" s="105"/>
-      <c r="CB14" s="105"/>
-      <c r="CC14" s="105"/>
-      <c r="CD14" s="105"/>
-      <c r="CE14" s="106"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="95"/>
+      <c r="BA14" s="95"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="95"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="95"/>
+      <c r="BG14" s="95"/>
+      <c r="BH14" s="95"/>
+      <c r="BI14" s="95"/>
+      <c r="BJ14" s="95"/>
+      <c r="BK14" s="95"/>
+      <c r="BL14" s="95"/>
+      <c r="BM14" s="95"/>
+      <c r="BN14" s="95"/>
+      <c r="BO14" s="95"/>
+      <c r="BP14" s="95"/>
+      <c r="BQ14" s="95"/>
+      <c r="BR14" s="95"/>
+      <c r="BS14" s="95"/>
+      <c r="BT14" s="95"/>
+      <c r="BU14" s="95"/>
+      <c r="BV14" s="95"/>
+      <c r="BW14" s="95"/>
+      <c r="BX14" s="95"/>
+      <c r="BY14" s="95"/>
+      <c r="BZ14" s="95"/>
+      <c r="CA14" s="95"/>
+      <c r="CB14" s="95"/>
+      <c r="CC14" s="95"/>
+      <c r="CD14" s="95"/>
+      <c r="CE14" s="96"/>
       <c r="CF14" s="5"/>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
@@ -5498,24 +5713,24 @@
       <c r="CJ14" s="5"/>
     </row>
     <row r="15" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="107">
+      <c r="A15" s="110">
         <v>8</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="104" t="s">
+      <c r="B15" s="111"/>
+      <c r="C15" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="106"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="96"/>
       <c r="O15" s="12" t="s">
         <v>28</v>
       </c>
@@ -5540,55 +5755,55 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
-      <c r="AK15" s="104" t="s">
+      <c r="AK15" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="105"/>
-      <c r="AQ15" s="105"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="105"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="105"/>
-      <c r="AV15" s="105"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="105"/>
-      <c r="AY15" s="105"/>
-      <c r="AZ15" s="105"/>
-      <c r="BA15" s="105"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="105"/>
-      <c r="BD15" s="105"/>
-      <c r="BE15" s="105"/>
-      <c r="BF15" s="105"/>
-      <c r="BG15" s="105"/>
-      <c r="BH15" s="105"/>
-      <c r="BI15" s="105"/>
-      <c r="BJ15" s="105"/>
-      <c r="BK15" s="105"/>
-      <c r="BL15" s="105"/>
-      <c r="BM15" s="105"/>
-      <c r="BN15" s="105"/>
-      <c r="BO15" s="105"/>
-      <c r="BP15" s="105"/>
-      <c r="BQ15" s="105"/>
-      <c r="BR15" s="105"/>
-      <c r="BS15" s="105"/>
-      <c r="BT15" s="105"/>
-      <c r="BU15" s="105"/>
-      <c r="BV15" s="105"/>
-      <c r="BW15" s="105"/>
-      <c r="BX15" s="105"/>
-      <c r="BY15" s="105"/>
-      <c r="BZ15" s="105"/>
-      <c r="CA15" s="105"/>
-      <c r="CB15" s="105"/>
-      <c r="CC15" s="105"/>
-      <c r="CD15" s="105"/>
-      <c r="CE15" s="106"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="95"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="95"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="95"/>
+      <c r="AZ15" s="95"/>
+      <c r="BA15" s="95"/>
+      <c r="BB15" s="95"/>
+      <c r="BC15" s="95"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="95"/>
+      <c r="BF15" s="95"/>
+      <c r="BG15" s="95"/>
+      <c r="BH15" s="95"/>
+      <c r="BI15" s="95"/>
+      <c r="BJ15" s="95"/>
+      <c r="BK15" s="95"/>
+      <c r="BL15" s="95"/>
+      <c r="BM15" s="95"/>
+      <c r="BN15" s="95"/>
+      <c r="BO15" s="95"/>
+      <c r="BP15" s="95"/>
+      <c r="BQ15" s="95"/>
+      <c r="BR15" s="95"/>
+      <c r="BS15" s="95"/>
+      <c r="BT15" s="95"/>
+      <c r="BU15" s="95"/>
+      <c r="BV15" s="95"/>
+      <c r="BW15" s="95"/>
+      <c r="BX15" s="95"/>
+      <c r="BY15" s="95"/>
+      <c r="BZ15" s="95"/>
+      <c r="CA15" s="95"/>
+      <c r="CB15" s="95"/>
+      <c r="CC15" s="95"/>
+      <c r="CD15" s="95"/>
+      <c r="CE15" s="96"/>
       <c r="CF15" s="5"/>
       <c r="CG15" s="5"/>
       <c r="CH15" s="5"/>
@@ -5596,24 +5811,24 @@
       <c r="CJ15" s="5"/>
     </row>
     <row r="16" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="102">
+      <c r="A16" s="108">
         <v>9</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="106"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="96"/>
       <c r="O16" s="12"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -5636,55 +5851,55 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
-      <c r="AK16" s="104" t="s">
+      <c r="AK16" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="AL16" s="105"/>
-      <c r="AM16" s="105"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="105"/>
-      <c r="AP16" s="105"/>
-      <c r="AQ16" s="105"/>
-      <c r="AR16" s="105"/>
-      <c r="AS16" s="105"/>
-      <c r="AT16" s="105"/>
-      <c r="AU16" s="105"/>
-      <c r="AV16" s="105"/>
-      <c r="AW16" s="105"/>
-      <c r="AX16" s="105"/>
-      <c r="AY16" s="105"/>
-      <c r="AZ16" s="105"/>
-      <c r="BA16" s="105"/>
-      <c r="BB16" s="105"/>
-      <c r="BC16" s="105"/>
-      <c r="BD16" s="105"/>
-      <c r="BE16" s="105"/>
-      <c r="BF16" s="105"/>
-      <c r="BG16" s="105"/>
-      <c r="BH16" s="105"/>
-      <c r="BI16" s="105"/>
-      <c r="BJ16" s="105"/>
-      <c r="BK16" s="105"/>
-      <c r="BL16" s="105"/>
-      <c r="BM16" s="105"/>
-      <c r="BN16" s="105"/>
-      <c r="BO16" s="105"/>
-      <c r="BP16" s="105"/>
-      <c r="BQ16" s="105"/>
-      <c r="BR16" s="105"/>
-      <c r="BS16" s="105"/>
-      <c r="BT16" s="105"/>
-      <c r="BU16" s="105"/>
-      <c r="BV16" s="105"/>
-      <c r="BW16" s="105"/>
-      <c r="BX16" s="105"/>
-      <c r="BY16" s="105"/>
-      <c r="BZ16" s="105"/>
-      <c r="CA16" s="105"/>
-      <c r="CB16" s="105"/>
-      <c r="CC16" s="105"/>
-      <c r="CD16" s="105"/>
-      <c r="CE16" s="106"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="95"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="95"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="95"/>
+      <c r="BA16" s="95"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="95"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="95"/>
+      <c r="BI16" s="95"/>
+      <c r="BJ16" s="95"/>
+      <c r="BK16" s="95"/>
+      <c r="BL16" s="95"/>
+      <c r="BM16" s="95"/>
+      <c r="BN16" s="95"/>
+      <c r="BO16" s="95"/>
+      <c r="BP16" s="95"/>
+      <c r="BQ16" s="95"/>
+      <c r="BR16" s="95"/>
+      <c r="BS16" s="95"/>
+      <c r="BT16" s="95"/>
+      <c r="BU16" s="95"/>
+      <c r="BV16" s="95"/>
+      <c r="BW16" s="95"/>
+      <c r="BX16" s="95"/>
+      <c r="BY16" s="95"/>
+      <c r="BZ16" s="95"/>
+      <c r="CA16" s="95"/>
+      <c r="CB16" s="95"/>
+      <c r="CC16" s="95"/>
+      <c r="CD16" s="95"/>
+      <c r="CE16" s="96"/>
       <c r="CF16" s="5"/>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
@@ -5692,24 +5907,24 @@
       <c r="CJ16" s="5"/>
     </row>
     <row r="17" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="107">
+      <c r="A17" s="110">
         <v>10</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="104" t="s">
+      <c r="B17" s="111"/>
+      <c r="C17" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="106"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
       <c r="O17" s="12"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -5732,55 +5947,55 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
-      <c r="AK17" s="104" t="s">
+      <c r="AK17" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="AL17" s="105"/>
-      <c r="AM17" s="105"/>
-      <c r="AN17" s="105"/>
-      <c r="AO17" s="105"/>
-      <c r="AP17" s="105"/>
-      <c r="AQ17" s="105"/>
-      <c r="AR17" s="105"/>
-      <c r="AS17" s="105"/>
-      <c r="AT17" s="105"/>
-      <c r="AU17" s="105"/>
-      <c r="AV17" s="105"/>
-      <c r="AW17" s="105"/>
-      <c r="AX17" s="105"/>
-      <c r="AY17" s="105"/>
-      <c r="AZ17" s="105"/>
-      <c r="BA17" s="105"/>
-      <c r="BB17" s="105"/>
-      <c r="BC17" s="105"/>
-      <c r="BD17" s="105"/>
-      <c r="BE17" s="105"/>
-      <c r="BF17" s="105"/>
-      <c r="BG17" s="105"/>
-      <c r="BH17" s="105"/>
-      <c r="BI17" s="105"/>
-      <c r="BJ17" s="105"/>
-      <c r="BK17" s="105"/>
-      <c r="BL17" s="105"/>
-      <c r="BM17" s="105"/>
-      <c r="BN17" s="105"/>
-      <c r="BO17" s="105"/>
-      <c r="BP17" s="105"/>
-      <c r="BQ17" s="105"/>
-      <c r="BR17" s="105"/>
-      <c r="BS17" s="105"/>
-      <c r="BT17" s="105"/>
-      <c r="BU17" s="105"/>
-      <c r="BV17" s="105"/>
-      <c r="BW17" s="105"/>
-      <c r="BX17" s="105"/>
-      <c r="BY17" s="105"/>
-      <c r="BZ17" s="105"/>
-      <c r="CA17" s="105"/>
-      <c r="CB17" s="105"/>
-      <c r="CC17" s="105"/>
-      <c r="CD17" s="105"/>
-      <c r="CE17" s="106"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="95"/>
+      <c r="BA17" s="95"/>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="95"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="95"/>
+      <c r="BG17" s="95"/>
+      <c r="BH17" s="95"/>
+      <c r="BI17" s="95"/>
+      <c r="BJ17" s="95"/>
+      <c r="BK17" s="95"/>
+      <c r="BL17" s="95"/>
+      <c r="BM17" s="95"/>
+      <c r="BN17" s="95"/>
+      <c r="BO17" s="95"/>
+      <c r="BP17" s="95"/>
+      <c r="BQ17" s="95"/>
+      <c r="BR17" s="95"/>
+      <c r="BS17" s="95"/>
+      <c r="BT17" s="95"/>
+      <c r="BU17" s="95"/>
+      <c r="BV17" s="95"/>
+      <c r="BW17" s="95"/>
+      <c r="BX17" s="95"/>
+      <c r="BY17" s="95"/>
+      <c r="BZ17" s="95"/>
+      <c r="CA17" s="95"/>
+      <c r="CB17" s="95"/>
+      <c r="CC17" s="95"/>
+      <c r="CD17" s="95"/>
+      <c r="CE17" s="96"/>
       <c r="CF17" s="5"/>
       <c r="CG17" s="5"/>
       <c r="CH17" s="5"/>
@@ -5788,97 +6003,97 @@
       <c r="CJ17" s="5"/>
     </row>
     <row r="18" spans="1:90" s="6" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="102">
+      <c r="A18" s="108">
         <v>11</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="157" t="s">
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="158"/>
-      <c r="AJ18" s="158"/>
-      <c r="AK18" s="104" t="s">
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="AL18" s="105"/>
-      <c r="AM18" s="105"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="105"/>
-      <c r="AP18" s="105"/>
-      <c r="AQ18" s="105"/>
-      <c r="AR18" s="105"/>
-      <c r="AS18" s="105"/>
-      <c r="AT18" s="105"/>
-      <c r="AU18" s="105"/>
-      <c r="AV18" s="105"/>
-      <c r="AW18" s="105"/>
-      <c r="AX18" s="105"/>
-      <c r="AY18" s="105"/>
-      <c r="AZ18" s="105"/>
-      <c r="BA18" s="105"/>
-      <c r="BB18" s="105"/>
-      <c r="BC18" s="105"/>
-      <c r="BD18" s="105"/>
-      <c r="BE18" s="105"/>
-      <c r="BF18" s="105"/>
-      <c r="BG18" s="105"/>
-      <c r="BH18" s="105"/>
-      <c r="BI18" s="105"/>
-      <c r="BJ18" s="105"/>
-      <c r="BK18" s="105"/>
-      <c r="BL18" s="105"/>
-      <c r="BM18" s="105"/>
-      <c r="BN18" s="105"/>
-      <c r="BO18" s="105"/>
-      <c r="BP18" s="105"/>
-      <c r="BQ18" s="105"/>
-      <c r="BR18" s="105"/>
-      <c r="BS18" s="105"/>
-      <c r="BT18" s="105"/>
-      <c r="BU18" s="105"/>
-      <c r="BV18" s="105"/>
-      <c r="BW18" s="105"/>
-      <c r="BX18" s="105"/>
-      <c r="BY18" s="105"/>
-      <c r="BZ18" s="105"/>
-      <c r="CA18" s="105"/>
-      <c r="CB18" s="105"/>
-      <c r="CC18" s="105"/>
-      <c r="CD18" s="105"/>
-      <c r="CE18" s="106"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="95"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="95"/>
+      <c r="AZ18" s="95"/>
+      <c r="BA18" s="95"/>
+      <c r="BB18" s="95"/>
+      <c r="BC18" s="95"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="95"/>
+      <c r="BF18" s="95"/>
+      <c r="BG18" s="95"/>
+      <c r="BH18" s="95"/>
+      <c r="BI18" s="95"/>
+      <c r="BJ18" s="95"/>
+      <c r="BK18" s="95"/>
+      <c r="BL18" s="95"/>
+      <c r="BM18" s="95"/>
+      <c r="BN18" s="95"/>
+      <c r="BO18" s="95"/>
+      <c r="BP18" s="95"/>
+      <c r="BQ18" s="95"/>
+      <c r="BR18" s="95"/>
+      <c r="BS18" s="95"/>
+      <c r="BT18" s="95"/>
+      <c r="BU18" s="95"/>
+      <c r="BV18" s="95"/>
+      <c r="BW18" s="95"/>
+      <c r="BX18" s="95"/>
+      <c r="BY18" s="95"/>
+      <c r="BZ18" s="95"/>
+      <c r="CA18" s="95"/>
+      <c r="CB18" s="95"/>
+      <c r="CC18" s="95"/>
+      <c r="CD18" s="95"/>
+      <c r="CE18" s="96"/>
       <c r="CF18" s="5"/>
       <c r="CG18" s="5"/>
       <c r="CH18" s="5"/>
@@ -5886,24 +6101,24 @@
       <c r="CJ18" s="5"/>
     </row>
     <row r="19" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="107">
+      <c r="A19" s="110">
         <v>12</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="104" t="s">
+      <c r="B19" s="111"/>
+      <c r="C19" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="106"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="96"/>
       <c r="O19" s="12"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -5926,55 +6141,55 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
-      <c r="AK19" s="104" t="s">
+      <c r="AK19" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="AL19" s="105"/>
-      <c r="AM19" s="105"/>
-      <c r="AN19" s="105"/>
-      <c r="AO19" s="105"/>
-      <c r="AP19" s="105"/>
-      <c r="AQ19" s="105"/>
-      <c r="AR19" s="105"/>
-      <c r="AS19" s="105"/>
-      <c r="AT19" s="105"/>
-      <c r="AU19" s="105"/>
-      <c r="AV19" s="105"/>
-      <c r="AW19" s="105"/>
-      <c r="AX19" s="105"/>
-      <c r="AY19" s="105"/>
-      <c r="AZ19" s="105"/>
-      <c r="BA19" s="105"/>
-      <c r="BB19" s="105"/>
-      <c r="BC19" s="105"/>
-      <c r="BD19" s="105"/>
-      <c r="BE19" s="105"/>
-      <c r="BF19" s="105"/>
-      <c r="BG19" s="105"/>
-      <c r="BH19" s="105"/>
-      <c r="BI19" s="105"/>
-      <c r="BJ19" s="105"/>
-      <c r="BK19" s="105"/>
-      <c r="BL19" s="105"/>
-      <c r="BM19" s="105"/>
-      <c r="BN19" s="105"/>
-      <c r="BO19" s="105"/>
-      <c r="BP19" s="105"/>
-      <c r="BQ19" s="105"/>
-      <c r="BR19" s="105"/>
-      <c r="BS19" s="105"/>
-      <c r="BT19" s="105"/>
-      <c r="BU19" s="105"/>
-      <c r="BV19" s="105"/>
-      <c r="BW19" s="105"/>
-      <c r="BX19" s="105"/>
-      <c r="BY19" s="105"/>
-      <c r="BZ19" s="105"/>
-      <c r="CA19" s="105"/>
-      <c r="CB19" s="105"/>
-      <c r="CC19" s="105"/>
-      <c r="CD19" s="105"/>
-      <c r="CE19" s="106"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="95"/>
+      <c r="AW19" s="95"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="95"/>
+      <c r="AZ19" s="95"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="95"/>
+      <c r="BC19" s="95"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="95"/>
+      <c r="BF19" s="95"/>
+      <c r="BG19" s="95"/>
+      <c r="BH19" s="95"/>
+      <c r="BI19" s="95"/>
+      <c r="BJ19" s="95"/>
+      <c r="BK19" s="95"/>
+      <c r="BL19" s="95"/>
+      <c r="BM19" s="95"/>
+      <c r="BN19" s="95"/>
+      <c r="BO19" s="95"/>
+      <c r="BP19" s="95"/>
+      <c r="BQ19" s="95"/>
+      <c r="BR19" s="95"/>
+      <c r="BS19" s="95"/>
+      <c r="BT19" s="95"/>
+      <c r="BU19" s="95"/>
+      <c r="BV19" s="95"/>
+      <c r="BW19" s="95"/>
+      <c r="BX19" s="95"/>
+      <c r="BY19" s="95"/>
+      <c r="BZ19" s="95"/>
+      <c r="CA19" s="95"/>
+      <c r="CB19" s="95"/>
+      <c r="CC19" s="95"/>
+      <c r="CD19" s="95"/>
+      <c r="CE19" s="96"/>
       <c r="CF19" s="5"/>
       <c r="CG19" s="5"/>
       <c r="CH19" s="5"/>
@@ -5982,24 +6197,24 @@
       <c r="CJ19" s="5"/>
     </row>
     <row r="20" spans="1:90" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="94">
+      <c r="A20" s="145">
         <v>13</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="146"/>
+      <c r="C20" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="14"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -6022,55 +6237,55 @@
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="96" t="s">
+      <c r="AK20" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="97"/>
-      <c r="AW20" s="97"/>
-      <c r="AX20" s="97"/>
-      <c r="AY20" s="97"/>
-      <c r="AZ20" s="97"/>
-      <c r="BA20" s="97"/>
-      <c r="BB20" s="97"/>
-      <c r="BC20" s="97"/>
-      <c r="BD20" s="97"/>
-      <c r="BE20" s="97"/>
-      <c r="BF20" s="97"/>
-      <c r="BG20" s="97"/>
-      <c r="BH20" s="97"/>
-      <c r="BI20" s="97"/>
-      <c r="BJ20" s="97"/>
-      <c r="BK20" s="97"/>
-      <c r="BL20" s="97"/>
-      <c r="BM20" s="97"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="97"/>
-      <c r="BP20" s="97"/>
-      <c r="BQ20" s="97"/>
-      <c r="BR20" s="97"/>
-      <c r="BS20" s="97"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="97"/>
-      <c r="BV20" s="97"/>
-      <c r="BW20" s="97"/>
-      <c r="BX20" s="97"/>
-      <c r="BY20" s="97"/>
-      <c r="BZ20" s="97"/>
-      <c r="CA20" s="97"/>
-      <c r="CB20" s="97"/>
-      <c r="CC20" s="97"/>
-      <c r="CD20" s="97"/>
-      <c r="CE20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="98"/>
+      <c r="AS20" s="98"/>
+      <c r="AT20" s="98"/>
+      <c r="AU20" s="98"/>
+      <c r="AV20" s="98"/>
+      <c r="AW20" s="98"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="98"/>
+      <c r="BA20" s="98"/>
+      <c r="BB20" s="98"/>
+      <c r="BC20" s="98"/>
+      <c r="BD20" s="98"/>
+      <c r="BE20" s="98"/>
+      <c r="BF20" s="98"/>
+      <c r="BG20" s="98"/>
+      <c r="BH20" s="98"/>
+      <c r="BI20" s="98"/>
+      <c r="BJ20" s="98"/>
+      <c r="BK20" s="98"/>
+      <c r="BL20" s="98"/>
+      <c r="BM20" s="98"/>
+      <c r="BN20" s="98"/>
+      <c r="BO20" s="98"/>
+      <c r="BP20" s="98"/>
+      <c r="BQ20" s="98"/>
+      <c r="BR20" s="98"/>
+      <c r="BS20" s="98"/>
+      <c r="BT20" s="98"/>
+      <c r="BU20" s="98"/>
+      <c r="BV20" s="98"/>
+      <c r="BW20" s="98"/>
+      <c r="BX20" s="98"/>
+      <c r="BY20" s="98"/>
+      <c r="BZ20" s="98"/>
+      <c r="CA20" s="98"/>
+      <c r="CB20" s="98"/>
+      <c r="CC20" s="98"/>
+      <c r="CD20" s="98"/>
+      <c r="CE20" s="99"/>
       <c r="CF20" s="5"/>
       <c r="CG20" s="5"/>
       <c r="CH20" s="5"/>
@@ -6260,91 +6475,91 @@
       <c r="CL22" s="3"/>
     </row>
     <row r="23" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125"/>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="125"/>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="125"/>
-      <c r="AJ23" s="125"/>
-      <c r="AK23" s="125"/>
-      <c r="AL23" s="125"/>
-      <c r="AM23" s="125"/>
-      <c r="AN23" s="125"/>
-      <c r="AO23" s="125"/>
-      <c r="AP23" s="125"/>
-      <c r="AQ23" s="125"/>
-      <c r="AR23" s="125"/>
-      <c r="AS23" s="125"/>
-      <c r="AT23" s="125"/>
-      <c r="AU23" s="125"/>
-      <c r="AV23" s="125"/>
-      <c r="AW23" s="125"/>
-      <c r="AX23" s="125"/>
-      <c r="AY23" s="125"/>
-      <c r="AZ23" s="125"/>
-      <c r="BA23" s="125"/>
-      <c r="BB23" s="125"/>
-      <c r="BC23" s="125"/>
-      <c r="BD23" s="125"/>
-      <c r="BE23" s="125"/>
-      <c r="BF23" s="125"/>
-      <c r="BG23" s="125"/>
-      <c r="BH23" s="125"/>
-      <c r="BI23" s="125"/>
-      <c r="BJ23" s="125"/>
-      <c r="BK23" s="125"/>
-      <c r="BL23" s="125"/>
-      <c r="BM23" s="125"/>
-      <c r="BN23" s="125"/>
-      <c r="BO23" s="125"/>
-      <c r="BP23" s="125"/>
-      <c r="BQ23" s="125"/>
-      <c r="BR23" s="125"/>
-      <c r="BS23" s="125"/>
-      <c r="BT23" s="125"/>
-      <c r="BU23" s="125"/>
-      <c r="BV23" s="125"/>
-      <c r="BW23" s="125"/>
-      <c r="BX23" s="125"/>
-      <c r="BY23" s="125"/>
-      <c r="BZ23" s="125"/>
-      <c r="CA23" s="125"/>
-      <c r="CB23" s="125"/>
-      <c r="CC23" s="125"/>
-      <c r="CD23" s="125"/>
-      <c r="CE23" s="126"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="104"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="104"/>
+      <c r="AL23" s="104"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="104"/>
+      <c r="AP23" s="104"/>
+      <c r="AQ23" s="104"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="104"/>
+      <c r="AV23" s="104"/>
+      <c r="AW23" s="104"/>
+      <c r="AX23" s="104"/>
+      <c r="AY23" s="104"/>
+      <c r="AZ23" s="104"/>
+      <c r="BA23" s="104"/>
+      <c r="BB23" s="104"/>
+      <c r="BC23" s="104"/>
+      <c r="BD23" s="104"/>
+      <c r="BE23" s="104"/>
+      <c r="BF23" s="104"/>
+      <c r="BG23" s="104"/>
+      <c r="BH23" s="104"/>
+      <c r="BI23" s="104"/>
+      <c r="BJ23" s="104"/>
+      <c r="BK23" s="104"/>
+      <c r="BL23" s="104"/>
+      <c r="BM23" s="104"/>
+      <c r="BN23" s="104"/>
+      <c r="BO23" s="104"/>
+      <c r="BP23" s="104"/>
+      <c r="BQ23" s="104"/>
+      <c r="BR23" s="104"/>
+      <c r="BS23" s="104"/>
+      <c r="BT23" s="104"/>
+      <c r="BU23" s="104"/>
+      <c r="BV23" s="104"/>
+      <c r="BW23" s="104"/>
+      <c r="BX23" s="104"/>
+      <c r="BY23" s="104"/>
+      <c r="BZ23" s="104"/>
+      <c r="CA23" s="104"/>
+      <c r="CB23" s="104"/>
+      <c r="CC23" s="104"/>
+      <c r="CD23" s="104"/>
+      <c r="CE23" s="105"/>
       <c r="CF23" s="3"/>
       <c r="CG23" s="3"/>
       <c r="CH23" s="3"/>
@@ -6352,97 +6567,97 @@
       <c r="CJ23" s="3"/>
     </row>
     <row r="24" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="99" t="s">
+      <c r="B24" s="148"/>
+      <c r="C24" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="159" t="s">
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="160"/>
-      <c r="AJ24" s="161"/>
-      <c r="AK24" s="159" t="s">
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="101"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="101"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="AL24" s="160"/>
-      <c r="AM24" s="160"/>
-      <c r="AN24" s="160"/>
-      <c r="AO24" s="160"/>
-      <c r="AP24" s="160"/>
-      <c r="AQ24" s="160"/>
-      <c r="AR24" s="160"/>
-      <c r="AS24" s="160"/>
-      <c r="AT24" s="160"/>
-      <c r="AU24" s="160"/>
-      <c r="AV24" s="160"/>
-      <c r="AW24" s="160"/>
-      <c r="AX24" s="160"/>
-      <c r="AY24" s="160"/>
-      <c r="AZ24" s="160"/>
-      <c r="BA24" s="160"/>
-      <c r="BB24" s="160"/>
-      <c r="BC24" s="160"/>
-      <c r="BD24" s="160"/>
-      <c r="BE24" s="160"/>
-      <c r="BF24" s="160"/>
-      <c r="BG24" s="160"/>
-      <c r="BH24" s="160"/>
-      <c r="BI24" s="160"/>
-      <c r="BJ24" s="160"/>
-      <c r="BK24" s="160"/>
-      <c r="BL24" s="160"/>
-      <c r="BM24" s="160"/>
-      <c r="BN24" s="160"/>
-      <c r="BO24" s="160"/>
-      <c r="BP24" s="160"/>
-      <c r="BQ24" s="160"/>
-      <c r="BR24" s="160"/>
-      <c r="BS24" s="160"/>
-      <c r="BT24" s="160"/>
-      <c r="BU24" s="160"/>
-      <c r="BV24" s="160"/>
-      <c r="BW24" s="160"/>
-      <c r="BX24" s="160"/>
-      <c r="BY24" s="160"/>
-      <c r="BZ24" s="160"/>
-      <c r="CA24" s="160"/>
-      <c r="CB24" s="160"/>
-      <c r="CC24" s="160"/>
-      <c r="CD24" s="160"/>
-      <c r="CE24" s="161"/>
+      <c r="AL24" s="101"/>
+      <c r="AM24" s="101"/>
+      <c r="AN24" s="101"/>
+      <c r="AO24" s="101"/>
+      <c r="AP24" s="101"/>
+      <c r="AQ24" s="101"/>
+      <c r="AR24" s="101"/>
+      <c r="AS24" s="101"/>
+      <c r="AT24" s="101"/>
+      <c r="AU24" s="101"/>
+      <c r="AV24" s="101"/>
+      <c r="AW24" s="101"/>
+      <c r="AX24" s="101"/>
+      <c r="AY24" s="101"/>
+      <c r="AZ24" s="101"/>
+      <c r="BA24" s="101"/>
+      <c r="BB24" s="101"/>
+      <c r="BC24" s="101"/>
+      <c r="BD24" s="101"/>
+      <c r="BE24" s="101"/>
+      <c r="BF24" s="101"/>
+      <c r="BG24" s="101"/>
+      <c r="BH24" s="101"/>
+      <c r="BI24" s="101"/>
+      <c r="BJ24" s="101"/>
+      <c r="BK24" s="101"/>
+      <c r="BL24" s="101"/>
+      <c r="BM24" s="101"/>
+      <c r="BN24" s="101"/>
+      <c r="BO24" s="101"/>
+      <c r="BP24" s="101"/>
+      <c r="BQ24" s="101"/>
+      <c r="BR24" s="101"/>
+      <c r="BS24" s="101"/>
+      <c r="BT24" s="101"/>
+      <c r="BU24" s="101"/>
+      <c r="BV24" s="101"/>
+      <c r="BW24" s="101"/>
+      <c r="BX24" s="101"/>
+      <c r="BY24" s="101"/>
+      <c r="BZ24" s="101"/>
+      <c r="CA24" s="101"/>
+      <c r="CB24" s="101"/>
+      <c r="CC24" s="101"/>
+      <c r="CD24" s="101"/>
+      <c r="CE24" s="102"/>
       <c r="CF24" s="3"/>
       <c r="CG24" s="3"/>
       <c r="CH24" s="3"/>
@@ -6450,24 +6665,24 @@
       <c r="CJ24" s="3"/>
     </row>
     <row r="25" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="102">
+      <c r="A25" s="108">
         <v>1</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="112" t="s">
+      <c r="B25" s="109"/>
+      <c r="C25" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="114"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
       <c r="O25" s="9"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -6544,24 +6759,24 @@
       <c r="CJ25" s="5"/>
     </row>
     <row r="26" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="107">
+      <c r="A26" s="110">
         <v>2</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="104" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="96"/>
       <c r="O26" s="12"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -6584,55 +6799,55 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
-      <c r="AK26" s="104" t="s">
+      <c r="AK26" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="AL26" s="105"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="105"/>
-      <c r="AQ26" s="105"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="105"/>
-      <c r="AT26" s="105"/>
-      <c r="AU26" s="105"/>
-      <c r="AV26" s="105"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="105"/>
-      <c r="AY26" s="105"/>
-      <c r="AZ26" s="105"/>
-      <c r="BA26" s="105"/>
-      <c r="BB26" s="105"/>
-      <c r="BC26" s="105"/>
-      <c r="BD26" s="105"/>
-      <c r="BE26" s="105"/>
-      <c r="BF26" s="105"/>
-      <c r="BG26" s="105"/>
-      <c r="BH26" s="105"/>
-      <c r="BI26" s="105"/>
-      <c r="BJ26" s="105"/>
-      <c r="BK26" s="105"/>
-      <c r="BL26" s="105"/>
-      <c r="BM26" s="105"/>
-      <c r="BN26" s="105"/>
-      <c r="BO26" s="105"/>
-      <c r="BP26" s="105"/>
-      <c r="BQ26" s="105"/>
-      <c r="BR26" s="105"/>
-      <c r="BS26" s="105"/>
-      <c r="BT26" s="105"/>
-      <c r="BU26" s="105"/>
-      <c r="BV26" s="105"/>
-      <c r="BW26" s="105"/>
-      <c r="BX26" s="105"/>
-      <c r="BY26" s="105"/>
-      <c r="BZ26" s="105"/>
-      <c r="CA26" s="105"/>
-      <c r="CB26" s="105"/>
-      <c r="CC26" s="105"/>
-      <c r="CD26" s="105"/>
-      <c r="CE26" s="106"/>
+      <c r="AL26" s="95"/>
+      <c r="AM26" s="95"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="95"/>
+      <c r="AQ26" s="95"/>
+      <c r="AR26" s="95"/>
+      <c r="AS26" s="95"/>
+      <c r="AT26" s="95"/>
+      <c r="AU26" s="95"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="95"/>
+      <c r="AX26" s="95"/>
+      <c r="AY26" s="95"/>
+      <c r="AZ26" s="95"/>
+      <c r="BA26" s="95"/>
+      <c r="BB26" s="95"/>
+      <c r="BC26" s="95"/>
+      <c r="BD26" s="95"/>
+      <c r="BE26" s="95"/>
+      <c r="BF26" s="95"/>
+      <c r="BG26" s="95"/>
+      <c r="BH26" s="95"/>
+      <c r="BI26" s="95"/>
+      <c r="BJ26" s="95"/>
+      <c r="BK26" s="95"/>
+      <c r="BL26" s="95"/>
+      <c r="BM26" s="95"/>
+      <c r="BN26" s="95"/>
+      <c r="BO26" s="95"/>
+      <c r="BP26" s="95"/>
+      <c r="BQ26" s="95"/>
+      <c r="BR26" s="95"/>
+      <c r="BS26" s="95"/>
+      <c r="BT26" s="95"/>
+      <c r="BU26" s="95"/>
+      <c r="BV26" s="95"/>
+      <c r="BW26" s="95"/>
+      <c r="BX26" s="95"/>
+      <c r="BY26" s="95"/>
+      <c r="BZ26" s="95"/>
+      <c r="CA26" s="95"/>
+      <c r="CB26" s="95"/>
+      <c r="CC26" s="95"/>
+      <c r="CD26" s="95"/>
+      <c r="CE26" s="96"/>
       <c r="CF26" s="5"/>
       <c r="CG26" s="5"/>
       <c r="CH26" s="5"/>
@@ -6640,24 +6855,24 @@
       <c r="CJ26" s="5"/>
     </row>
     <row r="27" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="107">
+      <c r="A27" s="110">
         <v>3</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="104" t="s">
+      <c r="B27" s="111"/>
+      <c r="C27" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="106"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="96"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
@@ -6680,55 +6895,55 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
-      <c r="AK27" s="104" t="s">
+      <c r="AK27" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="AL27" s="105"/>
-      <c r="AM27" s="105"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="105"/>
-      <c r="AQ27" s="105"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="105"/>
-      <c r="AT27" s="105"/>
-      <c r="AU27" s="105"/>
-      <c r="AV27" s="105"/>
-      <c r="AW27" s="105"/>
-      <c r="AX27" s="105"/>
-      <c r="AY27" s="105"/>
-      <c r="AZ27" s="105"/>
-      <c r="BA27" s="105"/>
-      <c r="BB27" s="105"/>
-      <c r="BC27" s="105"/>
-      <c r="BD27" s="105"/>
-      <c r="BE27" s="105"/>
-      <c r="BF27" s="105"/>
-      <c r="BG27" s="105"/>
-      <c r="BH27" s="105"/>
-      <c r="BI27" s="105"/>
-      <c r="BJ27" s="105"/>
-      <c r="BK27" s="105"/>
-      <c r="BL27" s="105"/>
-      <c r="BM27" s="105"/>
-      <c r="BN27" s="105"/>
-      <c r="BO27" s="105"/>
-      <c r="BP27" s="105"/>
-      <c r="BQ27" s="105"/>
-      <c r="BR27" s="105"/>
-      <c r="BS27" s="105"/>
-      <c r="BT27" s="105"/>
-      <c r="BU27" s="105"/>
-      <c r="BV27" s="105"/>
-      <c r="BW27" s="105"/>
-      <c r="BX27" s="105"/>
-      <c r="BY27" s="105"/>
-      <c r="BZ27" s="105"/>
-      <c r="CA27" s="105"/>
-      <c r="CB27" s="105"/>
-      <c r="CC27" s="105"/>
-      <c r="CD27" s="105"/>
-      <c r="CE27" s="106"/>
+      <c r="AL27" s="95"/>
+      <c r="AM27" s="95"/>
+      <c r="AN27" s="95"/>
+      <c r="AO27" s="95"/>
+      <c r="AP27" s="95"/>
+      <c r="AQ27" s="95"/>
+      <c r="AR27" s="95"/>
+      <c r="AS27" s="95"/>
+      <c r="AT27" s="95"/>
+      <c r="AU27" s="95"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="95"/>
+      <c r="AX27" s="95"/>
+      <c r="AY27" s="95"/>
+      <c r="AZ27" s="95"/>
+      <c r="BA27" s="95"/>
+      <c r="BB27" s="95"/>
+      <c r="BC27" s="95"/>
+      <c r="BD27" s="95"/>
+      <c r="BE27" s="95"/>
+      <c r="BF27" s="95"/>
+      <c r="BG27" s="95"/>
+      <c r="BH27" s="95"/>
+      <c r="BI27" s="95"/>
+      <c r="BJ27" s="95"/>
+      <c r="BK27" s="95"/>
+      <c r="BL27" s="95"/>
+      <c r="BM27" s="95"/>
+      <c r="BN27" s="95"/>
+      <c r="BO27" s="95"/>
+      <c r="BP27" s="95"/>
+      <c r="BQ27" s="95"/>
+      <c r="BR27" s="95"/>
+      <c r="BS27" s="95"/>
+      <c r="BT27" s="95"/>
+      <c r="BU27" s="95"/>
+      <c r="BV27" s="95"/>
+      <c r="BW27" s="95"/>
+      <c r="BX27" s="95"/>
+      <c r="BY27" s="95"/>
+      <c r="BZ27" s="95"/>
+      <c r="CA27" s="95"/>
+      <c r="CB27" s="95"/>
+      <c r="CC27" s="95"/>
+      <c r="CD27" s="95"/>
+      <c r="CE27" s="96"/>
       <c r="CF27" s="5"/>
       <c r="CG27" s="5"/>
       <c r="CH27" s="5"/>
@@ -6736,24 +6951,24 @@
       <c r="CJ27" s="5"/>
     </row>
     <row r="28" spans="1:90" s="6" customFormat="1" ht="12">
-      <c r="A28" s="102">
+      <c r="A28" s="108">
         <v>4</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104" t="s">
+      <c r="B28" s="109"/>
+      <c r="C28" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="106"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
       <c r="O28" s="12"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -6776,55 +6991,55 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
-      <c r="AK28" s="104" t="s">
+      <c r="AK28" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="AL28" s="105"/>
-      <c r="AM28" s="105"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="105"/>
-      <c r="AP28" s="105"/>
-      <c r="AQ28" s="105"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="105"/>
-      <c r="AT28" s="105"/>
-      <c r="AU28" s="105"/>
-      <c r="AV28" s="105"/>
-      <c r="AW28" s="105"/>
-      <c r="AX28" s="105"/>
-      <c r="AY28" s="105"/>
-      <c r="AZ28" s="105"/>
-      <c r="BA28" s="105"/>
-      <c r="BB28" s="105"/>
-      <c r="BC28" s="105"/>
-      <c r="BD28" s="105"/>
-      <c r="BE28" s="105"/>
-      <c r="BF28" s="105"/>
-      <c r="BG28" s="105"/>
-      <c r="BH28" s="105"/>
-      <c r="BI28" s="105"/>
-      <c r="BJ28" s="105"/>
-      <c r="BK28" s="105"/>
-      <c r="BL28" s="105"/>
-      <c r="BM28" s="105"/>
-      <c r="BN28" s="105"/>
-      <c r="BO28" s="105"/>
-      <c r="BP28" s="105"/>
-      <c r="BQ28" s="105"/>
-      <c r="BR28" s="105"/>
-      <c r="BS28" s="105"/>
-      <c r="BT28" s="105"/>
-      <c r="BU28" s="105"/>
-      <c r="BV28" s="105"/>
-      <c r="BW28" s="105"/>
-      <c r="BX28" s="105"/>
-      <c r="BY28" s="105"/>
-      <c r="BZ28" s="105"/>
-      <c r="CA28" s="105"/>
-      <c r="CB28" s="105"/>
-      <c r="CC28" s="105"/>
-      <c r="CD28" s="105"/>
-      <c r="CE28" s="106"/>
+      <c r="AL28" s="95"/>
+      <c r="AM28" s="95"/>
+      <c r="AN28" s="95"/>
+      <c r="AO28" s="95"/>
+      <c r="AP28" s="95"/>
+      <c r="AQ28" s="95"/>
+      <c r="AR28" s="95"/>
+      <c r="AS28" s="95"/>
+      <c r="AT28" s="95"/>
+      <c r="AU28" s="95"/>
+      <c r="AV28" s="95"/>
+      <c r="AW28" s="95"/>
+      <c r="AX28" s="95"/>
+      <c r="AY28" s="95"/>
+      <c r="AZ28" s="95"/>
+      <c r="BA28" s="95"/>
+      <c r="BB28" s="95"/>
+      <c r="BC28" s="95"/>
+      <c r="BD28" s="95"/>
+      <c r="BE28" s="95"/>
+      <c r="BF28" s="95"/>
+      <c r="BG28" s="95"/>
+      <c r="BH28" s="95"/>
+      <c r="BI28" s="95"/>
+      <c r="BJ28" s="95"/>
+      <c r="BK28" s="95"/>
+      <c r="BL28" s="95"/>
+      <c r="BM28" s="95"/>
+      <c r="BN28" s="95"/>
+      <c r="BO28" s="95"/>
+      <c r="BP28" s="95"/>
+      <c r="BQ28" s="95"/>
+      <c r="BR28" s="95"/>
+      <c r="BS28" s="95"/>
+      <c r="BT28" s="95"/>
+      <c r="BU28" s="95"/>
+      <c r="BV28" s="95"/>
+      <c r="BW28" s="95"/>
+      <c r="BX28" s="95"/>
+      <c r="BY28" s="95"/>
+      <c r="BZ28" s="95"/>
+      <c r="CA28" s="95"/>
+      <c r="CB28" s="95"/>
+      <c r="CC28" s="95"/>
+      <c r="CD28" s="95"/>
+      <c r="CE28" s="96"/>
       <c r="CF28" s="5"/>
       <c r="CG28" s="5"/>
       <c r="CH28" s="5"/>
@@ -6832,24 +7047,24 @@
       <c r="CJ28" s="5"/>
     </row>
     <row r="29" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="107">
+      <c r="A29" s="110">
         <v>5</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="104" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="106"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
       <c r="O29" s="12"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -6872,55 +7087,55 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="104" t="s">
+      <c r="AK29" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="AL29" s="105"/>
-      <c r="AM29" s="105"/>
-      <c r="AN29" s="105"/>
-      <c r="AO29" s="105"/>
-      <c r="AP29" s="105"/>
-      <c r="AQ29" s="105"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="105"/>
-      <c r="AT29" s="105"/>
-      <c r="AU29" s="105"/>
-      <c r="AV29" s="105"/>
-      <c r="AW29" s="105"/>
-      <c r="AX29" s="105"/>
-      <c r="AY29" s="105"/>
-      <c r="AZ29" s="105"/>
-      <c r="BA29" s="105"/>
-      <c r="BB29" s="105"/>
-      <c r="BC29" s="105"/>
-      <c r="BD29" s="105"/>
-      <c r="BE29" s="105"/>
-      <c r="BF29" s="105"/>
-      <c r="BG29" s="105"/>
-      <c r="BH29" s="105"/>
-      <c r="BI29" s="105"/>
-      <c r="BJ29" s="105"/>
-      <c r="BK29" s="105"/>
-      <c r="BL29" s="105"/>
-      <c r="BM29" s="105"/>
-      <c r="BN29" s="105"/>
-      <c r="BO29" s="105"/>
-      <c r="BP29" s="105"/>
-      <c r="BQ29" s="105"/>
-      <c r="BR29" s="105"/>
-      <c r="BS29" s="105"/>
-      <c r="BT29" s="105"/>
-      <c r="BU29" s="105"/>
-      <c r="BV29" s="105"/>
-      <c r="BW29" s="105"/>
-      <c r="BX29" s="105"/>
-      <c r="BY29" s="105"/>
-      <c r="BZ29" s="105"/>
-      <c r="CA29" s="105"/>
-      <c r="CB29" s="105"/>
-      <c r="CC29" s="105"/>
-      <c r="CD29" s="105"/>
-      <c r="CE29" s="106"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="95"/>
+      <c r="AO29" s="95"/>
+      <c r="AP29" s="95"/>
+      <c r="AQ29" s="95"/>
+      <c r="AR29" s="95"/>
+      <c r="AS29" s="95"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="95"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="95"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="95"/>
+      <c r="BC29" s="95"/>
+      <c r="BD29" s="95"/>
+      <c r="BE29" s="95"/>
+      <c r="BF29" s="95"/>
+      <c r="BG29" s="95"/>
+      <c r="BH29" s="95"/>
+      <c r="BI29" s="95"/>
+      <c r="BJ29" s="95"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="95"/>
+      <c r="BM29" s="95"/>
+      <c r="BN29" s="95"/>
+      <c r="BO29" s="95"/>
+      <c r="BP29" s="95"/>
+      <c r="BQ29" s="95"/>
+      <c r="BR29" s="95"/>
+      <c r="BS29" s="95"/>
+      <c r="BT29" s="95"/>
+      <c r="BU29" s="95"/>
+      <c r="BV29" s="95"/>
+      <c r="BW29" s="95"/>
+      <c r="BX29" s="95"/>
+      <c r="BY29" s="95"/>
+      <c r="BZ29" s="95"/>
+      <c r="CA29" s="95"/>
+      <c r="CB29" s="95"/>
+      <c r="CC29" s="95"/>
+      <c r="CD29" s="95"/>
+      <c r="CE29" s="96"/>
       <c r="CF29" s="5"/>
       <c r="CG29" s="5"/>
       <c r="CH29" s="5"/>
@@ -6928,24 +7143,24 @@
       <c r="CJ29" s="5"/>
     </row>
     <row r="30" spans="1:90" s="6" customFormat="1" ht="12">
-      <c r="A30" s="102">
+      <c r="A30" s="108">
         <v>6</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="104" t="s">
+      <c r="B30" s="109"/>
+      <c r="C30" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="106"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -6968,55 +7183,55 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
-      <c r="AK30" s="104" t="s">
+      <c r="AK30" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="AL30" s="105"/>
-      <c r="AM30" s="105"/>
-      <c r="AN30" s="105"/>
-      <c r="AO30" s="105"/>
-      <c r="AP30" s="105"/>
-      <c r="AQ30" s="105"/>
-      <c r="AR30" s="105"/>
-      <c r="AS30" s="105"/>
-      <c r="AT30" s="105"/>
-      <c r="AU30" s="105"/>
-      <c r="AV30" s="105"/>
-      <c r="AW30" s="105"/>
-      <c r="AX30" s="105"/>
-      <c r="AY30" s="105"/>
-      <c r="AZ30" s="105"/>
-      <c r="BA30" s="105"/>
-      <c r="BB30" s="105"/>
-      <c r="BC30" s="105"/>
-      <c r="BD30" s="105"/>
-      <c r="BE30" s="105"/>
-      <c r="BF30" s="105"/>
-      <c r="BG30" s="105"/>
-      <c r="BH30" s="105"/>
-      <c r="BI30" s="105"/>
-      <c r="BJ30" s="105"/>
-      <c r="BK30" s="105"/>
-      <c r="BL30" s="105"/>
-      <c r="BM30" s="105"/>
-      <c r="BN30" s="105"/>
-      <c r="BO30" s="105"/>
-      <c r="BP30" s="105"/>
-      <c r="BQ30" s="105"/>
-      <c r="BR30" s="105"/>
-      <c r="BS30" s="105"/>
-      <c r="BT30" s="105"/>
-      <c r="BU30" s="105"/>
-      <c r="BV30" s="105"/>
-      <c r="BW30" s="105"/>
-      <c r="BX30" s="105"/>
-      <c r="BY30" s="105"/>
-      <c r="BZ30" s="105"/>
-      <c r="CA30" s="105"/>
-      <c r="CB30" s="105"/>
-      <c r="CC30" s="105"/>
-      <c r="CD30" s="105"/>
-      <c r="CE30" s="106"/>
+      <c r="AL30" s="95"/>
+      <c r="AM30" s="95"/>
+      <c r="AN30" s="95"/>
+      <c r="AO30" s="95"/>
+      <c r="AP30" s="95"/>
+      <c r="AQ30" s="95"/>
+      <c r="AR30" s="95"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="95"/>
+      <c r="AZ30" s="95"/>
+      <c r="BA30" s="95"/>
+      <c r="BB30" s="95"/>
+      <c r="BC30" s="95"/>
+      <c r="BD30" s="95"/>
+      <c r="BE30" s="95"/>
+      <c r="BF30" s="95"/>
+      <c r="BG30" s="95"/>
+      <c r="BH30" s="95"/>
+      <c r="BI30" s="95"/>
+      <c r="BJ30" s="95"/>
+      <c r="BK30" s="95"/>
+      <c r="BL30" s="95"/>
+      <c r="BM30" s="95"/>
+      <c r="BN30" s="95"/>
+      <c r="BO30" s="95"/>
+      <c r="BP30" s="95"/>
+      <c r="BQ30" s="95"/>
+      <c r="BR30" s="95"/>
+      <c r="BS30" s="95"/>
+      <c r="BT30" s="95"/>
+      <c r="BU30" s="95"/>
+      <c r="BV30" s="95"/>
+      <c r="BW30" s="95"/>
+      <c r="BX30" s="95"/>
+      <c r="BY30" s="95"/>
+      <c r="BZ30" s="95"/>
+      <c r="CA30" s="95"/>
+      <c r="CB30" s="95"/>
+      <c r="CC30" s="95"/>
+      <c r="CD30" s="95"/>
+      <c r="CE30" s="96"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5"/>
       <c r="CH30" s="5"/>
@@ -7024,24 +7239,24 @@
       <c r="CJ30" s="5"/>
     </row>
     <row r="31" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="107">
+      <c r="A31" s="110">
         <v>7</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="104" t="s">
+      <c r="B31" s="111"/>
+      <c r="C31" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="106"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="96"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -7064,55 +7279,55 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
-      <c r="AK31" s="104" t="s">
+      <c r="AK31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="AL31" s="105"/>
-      <c r="AM31" s="105"/>
-      <c r="AN31" s="105"/>
-      <c r="AO31" s="105"/>
-      <c r="AP31" s="105"/>
-      <c r="AQ31" s="105"/>
-      <c r="AR31" s="105"/>
-      <c r="AS31" s="105"/>
-      <c r="AT31" s="105"/>
-      <c r="AU31" s="105"/>
-      <c r="AV31" s="105"/>
-      <c r="AW31" s="105"/>
-      <c r="AX31" s="105"/>
-      <c r="AY31" s="105"/>
-      <c r="AZ31" s="105"/>
-      <c r="BA31" s="105"/>
-      <c r="BB31" s="105"/>
-      <c r="BC31" s="105"/>
-      <c r="BD31" s="105"/>
-      <c r="BE31" s="105"/>
-      <c r="BF31" s="105"/>
-      <c r="BG31" s="105"/>
-      <c r="BH31" s="105"/>
-      <c r="BI31" s="105"/>
-      <c r="BJ31" s="105"/>
-      <c r="BK31" s="105"/>
-      <c r="BL31" s="105"/>
-      <c r="BM31" s="105"/>
-      <c r="BN31" s="105"/>
-      <c r="BO31" s="105"/>
-      <c r="BP31" s="105"/>
-      <c r="BQ31" s="105"/>
-      <c r="BR31" s="105"/>
-      <c r="BS31" s="105"/>
-      <c r="BT31" s="105"/>
-      <c r="BU31" s="105"/>
-      <c r="BV31" s="105"/>
-      <c r="BW31" s="105"/>
-      <c r="BX31" s="105"/>
-      <c r="BY31" s="105"/>
-      <c r="BZ31" s="105"/>
-      <c r="CA31" s="105"/>
-      <c r="CB31" s="105"/>
-      <c r="CC31" s="105"/>
-      <c r="CD31" s="105"/>
-      <c r="CE31" s="106"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="95"/>
+      <c r="AO31" s="95"/>
+      <c r="AP31" s="95"/>
+      <c r="AQ31" s="95"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="95"/>
+      <c r="BJ31" s="95"/>
+      <c r="BK31" s="95"/>
+      <c r="BL31" s="95"/>
+      <c r="BM31" s="95"/>
+      <c r="BN31" s="95"/>
+      <c r="BO31" s="95"/>
+      <c r="BP31" s="95"/>
+      <c r="BQ31" s="95"/>
+      <c r="BR31" s="95"/>
+      <c r="BS31" s="95"/>
+      <c r="BT31" s="95"/>
+      <c r="BU31" s="95"/>
+      <c r="BV31" s="95"/>
+      <c r="BW31" s="95"/>
+      <c r="BX31" s="95"/>
+      <c r="BY31" s="95"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="95"/>
+      <c r="CC31" s="95"/>
+      <c r="CD31" s="95"/>
+      <c r="CE31" s="96"/>
       <c r="CF31" s="5"/>
       <c r="CG31" s="5"/>
       <c r="CH31" s="5"/>
@@ -7120,24 +7335,24 @@
       <c r="CJ31" s="5"/>
     </row>
     <row r="32" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="107">
+      <c r="A32" s="110">
         <v>8</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="104" t="s">
+      <c r="B32" s="111"/>
+      <c r="C32" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="106"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="96"/>
       <c r="O32" s="12"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -7160,55 +7375,55 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
-      <c r="AK32" s="104" t="s">
+      <c r="AK32" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="AL32" s="105"/>
-      <c r="AM32" s="105"/>
-      <c r="AN32" s="105"/>
-      <c r="AO32" s="105"/>
-      <c r="AP32" s="105"/>
-      <c r="AQ32" s="105"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="105"/>
-      <c r="AT32" s="105"/>
-      <c r="AU32" s="105"/>
-      <c r="AV32" s="105"/>
-      <c r="AW32" s="105"/>
-      <c r="AX32" s="105"/>
-      <c r="AY32" s="105"/>
-      <c r="AZ32" s="105"/>
-      <c r="BA32" s="105"/>
-      <c r="BB32" s="105"/>
-      <c r="BC32" s="105"/>
-      <c r="BD32" s="105"/>
-      <c r="BE32" s="105"/>
-      <c r="BF32" s="105"/>
-      <c r="BG32" s="105"/>
-      <c r="BH32" s="105"/>
-      <c r="BI32" s="105"/>
-      <c r="BJ32" s="105"/>
-      <c r="BK32" s="105"/>
-      <c r="BL32" s="105"/>
-      <c r="BM32" s="105"/>
-      <c r="BN32" s="105"/>
-      <c r="BO32" s="105"/>
-      <c r="BP32" s="105"/>
-      <c r="BQ32" s="105"/>
-      <c r="BR32" s="105"/>
-      <c r="BS32" s="105"/>
-      <c r="BT32" s="105"/>
-      <c r="BU32" s="105"/>
-      <c r="BV32" s="105"/>
-      <c r="BW32" s="105"/>
-      <c r="BX32" s="105"/>
-      <c r="BY32" s="105"/>
-      <c r="BZ32" s="105"/>
-      <c r="CA32" s="105"/>
-      <c r="CB32" s="105"/>
-      <c r="CC32" s="105"/>
-      <c r="CD32" s="105"/>
-      <c r="CE32" s="106"/>
+      <c r="AL32" s="95"/>
+      <c r="AM32" s="95"/>
+      <c r="AN32" s="95"/>
+      <c r="AO32" s="95"/>
+      <c r="AP32" s="95"/>
+      <c r="AQ32" s="95"/>
+      <c r="AR32" s="95"/>
+      <c r="AS32" s="95"/>
+      <c r="AT32" s="95"/>
+      <c r="AU32" s="95"/>
+      <c r="AV32" s="95"/>
+      <c r="AW32" s="95"/>
+      <c r="AX32" s="95"/>
+      <c r="AY32" s="95"/>
+      <c r="AZ32" s="95"/>
+      <c r="BA32" s="95"/>
+      <c r="BB32" s="95"/>
+      <c r="BC32" s="95"/>
+      <c r="BD32" s="95"/>
+      <c r="BE32" s="95"/>
+      <c r="BF32" s="95"/>
+      <c r="BG32" s="95"/>
+      <c r="BH32" s="95"/>
+      <c r="BI32" s="95"/>
+      <c r="BJ32" s="95"/>
+      <c r="BK32" s="95"/>
+      <c r="BL32" s="95"/>
+      <c r="BM32" s="95"/>
+      <c r="BN32" s="95"/>
+      <c r="BO32" s="95"/>
+      <c r="BP32" s="95"/>
+      <c r="BQ32" s="95"/>
+      <c r="BR32" s="95"/>
+      <c r="BS32" s="95"/>
+      <c r="BT32" s="95"/>
+      <c r="BU32" s="95"/>
+      <c r="BV32" s="95"/>
+      <c r="BW32" s="95"/>
+      <c r="BX32" s="95"/>
+      <c r="BY32" s="95"/>
+      <c r="BZ32" s="95"/>
+      <c r="CA32" s="95"/>
+      <c r="CB32" s="95"/>
+      <c r="CC32" s="95"/>
+      <c r="CD32" s="95"/>
+      <c r="CE32" s="96"/>
       <c r="CF32" s="5"/>
       <c r="CG32" s="5"/>
       <c r="CH32" s="5"/>
@@ -7216,24 +7431,24 @@
       <c r="CJ32" s="5"/>
     </row>
     <row r="33" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="102">
+      <c r="A33" s="108">
         <v>9</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="104" t="s">
+      <c r="B33" s="109"/>
+      <c r="C33" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="106"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="96"/>
       <c r="O33" s="12"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
@@ -7256,55 +7471,55 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
-      <c r="AK33" s="104" t="s">
+      <c r="AK33" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="105"/>
-      <c r="AM33" s="105"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="105"/>
-      <c r="AP33" s="105"/>
-      <c r="AQ33" s="105"/>
-      <c r="AR33" s="105"/>
-      <c r="AS33" s="105"/>
-      <c r="AT33" s="105"/>
-      <c r="AU33" s="105"/>
-      <c r="AV33" s="105"/>
-      <c r="AW33" s="105"/>
-      <c r="AX33" s="105"/>
-      <c r="AY33" s="105"/>
-      <c r="AZ33" s="105"/>
-      <c r="BA33" s="105"/>
-      <c r="BB33" s="105"/>
-      <c r="BC33" s="105"/>
-      <c r="BD33" s="105"/>
-      <c r="BE33" s="105"/>
-      <c r="BF33" s="105"/>
-      <c r="BG33" s="105"/>
-      <c r="BH33" s="105"/>
-      <c r="BI33" s="105"/>
-      <c r="BJ33" s="105"/>
-      <c r="BK33" s="105"/>
-      <c r="BL33" s="105"/>
-      <c r="BM33" s="105"/>
-      <c r="BN33" s="105"/>
-      <c r="BO33" s="105"/>
-      <c r="BP33" s="105"/>
-      <c r="BQ33" s="105"/>
-      <c r="BR33" s="105"/>
-      <c r="BS33" s="105"/>
-      <c r="BT33" s="105"/>
-      <c r="BU33" s="105"/>
-      <c r="BV33" s="105"/>
-      <c r="BW33" s="105"/>
-      <c r="BX33" s="105"/>
-      <c r="BY33" s="105"/>
-      <c r="BZ33" s="105"/>
-      <c r="CA33" s="105"/>
-      <c r="CB33" s="105"/>
-      <c r="CC33" s="105"/>
-      <c r="CD33" s="105"/>
-      <c r="CE33" s="106"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="95"/>
+      <c r="AO33" s="95"/>
+      <c r="AP33" s="95"/>
+      <c r="AQ33" s="95"/>
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="95"/>
+      <c r="AU33" s="95"/>
+      <c r="AV33" s="95"/>
+      <c r="AW33" s="95"/>
+      <c r="AX33" s="95"/>
+      <c r="AY33" s="95"/>
+      <c r="AZ33" s="95"/>
+      <c r="BA33" s="95"/>
+      <c r="BB33" s="95"/>
+      <c r="BC33" s="95"/>
+      <c r="BD33" s="95"/>
+      <c r="BE33" s="95"/>
+      <c r="BF33" s="95"/>
+      <c r="BG33" s="95"/>
+      <c r="BH33" s="95"/>
+      <c r="BI33" s="95"/>
+      <c r="BJ33" s="95"/>
+      <c r="BK33" s="95"/>
+      <c r="BL33" s="95"/>
+      <c r="BM33" s="95"/>
+      <c r="BN33" s="95"/>
+      <c r="BO33" s="95"/>
+      <c r="BP33" s="95"/>
+      <c r="BQ33" s="95"/>
+      <c r="BR33" s="95"/>
+      <c r="BS33" s="95"/>
+      <c r="BT33" s="95"/>
+      <c r="BU33" s="95"/>
+      <c r="BV33" s="95"/>
+      <c r="BW33" s="95"/>
+      <c r="BX33" s="95"/>
+      <c r="BY33" s="95"/>
+      <c r="BZ33" s="95"/>
+      <c r="CA33" s="95"/>
+      <c r="CB33" s="95"/>
+      <c r="CC33" s="95"/>
+      <c r="CD33" s="95"/>
+      <c r="CE33" s="96"/>
       <c r="CF33" s="5"/>
       <c r="CG33" s="5"/>
       <c r="CH33" s="5"/>
@@ -7312,24 +7527,24 @@
       <c r="CJ33" s="5"/>
     </row>
     <row r="34" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="107">
+      <c r="A34" s="110">
         <v>10</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="104" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="106"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="96"/>
       <c r="O34" s="12"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -7352,55 +7567,55 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
-      <c r="AK34" s="104" t="s">
+      <c r="AK34" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="AL34" s="105"/>
-      <c r="AM34" s="105"/>
-      <c r="AN34" s="105"/>
-      <c r="AO34" s="105"/>
-      <c r="AP34" s="105"/>
-      <c r="AQ34" s="105"/>
-      <c r="AR34" s="105"/>
-      <c r="AS34" s="105"/>
-      <c r="AT34" s="105"/>
-      <c r="AU34" s="105"/>
-      <c r="AV34" s="105"/>
-      <c r="AW34" s="105"/>
-      <c r="AX34" s="105"/>
-      <c r="AY34" s="105"/>
-      <c r="AZ34" s="105"/>
-      <c r="BA34" s="105"/>
-      <c r="BB34" s="105"/>
-      <c r="BC34" s="105"/>
-      <c r="BD34" s="105"/>
-      <c r="BE34" s="105"/>
-      <c r="BF34" s="105"/>
-      <c r="BG34" s="105"/>
-      <c r="BH34" s="105"/>
-      <c r="BI34" s="105"/>
-      <c r="BJ34" s="105"/>
-      <c r="BK34" s="105"/>
-      <c r="BL34" s="105"/>
-      <c r="BM34" s="105"/>
-      <c r="BN34" s="105"/>
-      <c r="BO34" s="105"/>
-      <c r="BP34" s="105"/>
-      <c r="BQ34" s="105"/>
-      <c r="BR34" s="105"/>
-      <c r="BS34" s="105"/>
-      <c r="BT34" s="105"/>
-      <c r="BU34" s="105"/>
-      <c r="BV34" s="105"/>
-      <c r="BW34" s="105"/>
-      <c r="BX34" s="105"/>
-      <c r="BY34" s="105"/>
-      <c r="BZ34" s="105"/>
-      <c r="CA34" s="105"/>
-      <c r="CB34" s="105"/>
-      <c r="CC34" s="105"/>
-      <c r="CD34" s="105"/>
-      <c r="CE34" s="106"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="95"/>
+      <c r="AQ34" s="95"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="95"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="95"/>
+      <c r="BF34" s="95"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="95"/>
+      <c r="BL34" s="95"/>
+      <c r="BM34" s="95"/>
+      <c r="BN34" s="95"/>
+      <c r="BO34" s="95"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="95"/>
+      <c r="BR34" s="95"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="95"/>
+      <c r="BU34" s="95"/>
+      <c r="BV34" s="95"/>
+      <c r="BW34" s="95"/>
+      <c r="BX34" s="95"/>
+      <c r="BY34" s="95"/>
+      <c r="BZ34" s="95"/>
+      <c r="CA34" s="95"/>
+      <c r="CB34" s="95"/>
+      <c r="CC34" s="95"/>
+      <c r="CD34" s="95"/>
+      <c r="CE34" s="96"/>
       <c r="CF34" s="5"/>
       <c r="CG34" s="5"/>
       <c r="CH34" s="5"/>
@@ -7408,93 +7623,93 @@
       <c r="CJ34" s="5"/>
     </row>
     <row r="35" spans="1:90" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="102">
+      <c r="A35" s="108">
         <v>11</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104" t="s">
+      <c r="B35" s="109"/>
+      <c r="C35" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="157"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="158"/>
-      <c r="S35" s="158"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="158"/>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="158"/>
-      <c r="Z35" s="158"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="158"/>
-      <c r="AF35" s="158"/>
-      <c r="AG35" s="158"/>
-      <c r="AH35" s="158"/>
-      <c r="AI35" s="158"/>
-      <c r="AJ35" s="158"/>
-      <c r="AK35" s="104"/>
-      <c r="AL35" s="105"/>
-      <c r="AM35" s="105"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="105"/>
-      <c r="AT35" s="105"/>
-      <c r="AU35" s="105"/>
-      <c r="AV35" s="105"/>
-      <c r="AW35" s="105"/>
-      <c r="AX35" s="105"/>
-      <c r="AY35" s="105"/>
-      <c r="AZ35" s="105"/>
-      <c r="BA35" s="105"/>
-      <c r="BB35" s="105"/>
-      <c r="BC35" s="105"/>
-      <c r="BD35" s="105"/>
-      <c r="BE35" s="105"/>
-      <c r="BF35" s="105"/>
-      <c r="BG35" s="105"/>
-      <c r="BH35" s="105"/>
-      <c r="BI35" s="105"/>
-      <c r="BJ35" s="105"/>
-      <c r="BK35" s="105"/>
-      <c r="BL35" s="105"/>
-      <c r="BM35" s="105"/>
-      <c r="BN35" s="105"/>
-      <c r="BO35" s="105"/>
-      <c r="BP35" s="105"/>
-      <c r="BQ35" s="105"/>
-      <c r="BR35" s="105"/>
-      <c r="BS35" s="105"/>
-      <c r="BT35" s="105"/>
-      <c r="BU35" s="105"/>
-      <c r="BV35" s="105"/>
-      <c r="BW35" s="105"/>
-      <c r="BX35" s="105"/>
-      <c r="BY35" s="105"/>
-      <c r="BZ35" s="105"/>
-      <c r="CA35" s="105"/>
-      <c r="CB35" s="105"/>
-      <c r="CC35" s="105"/>
-      <c r="CD35" s="105"/>
-      <c r="CE35" s="106"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="107"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="107"/>
+      <c r="AI35" s="107"/>
+      <c r="AJ35" s="107"/>
+      <c r="AK35" s="94"/>
+      <c r="AL35" s="95"/>
+      <c r="AM35" s="95"/>
+      <c r="AN35" s="95"/>
+      <c r="AO35" s="95"/>
+      <c r="AP35" s="95"/>
+      <c r="AQ35" s="95"/>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" s="95"/>
+      <c r="AU35" s="95"/>
+      <c r="AV35" s="95"/>
+      <c r="AW35" s="95"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="95"/>
+      <c r="AZ35" s="95"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="95"/>
+      <c r="BF35" s="95"/>
+      <c r="BG35" s="95"/>
+      <c r="BH35" s="95"/>
+      <c r="BI35" s="95"/>
+      <c r="BJ35" s="95"/>
+      <c r="BK35" s="95"/>
+      <c r="BL35" s="95"/>
+      <c r="BM35" s="95"/>
+      <c r="BN35" s="95"/>
+      <c r="BO35" s="95"/>
+      <c r="BP35" s="95"/>
+      <c r="BQ35" s="95"/>
+      <c r="BR35" s="95"/>
+      <c r="BS35" s="95"/>
+      <c r="BT35" s="95"/>
+      <c r="BU35" s="95"/>
+      <c r="BV35" s="95"/>
+      <c r="BW35" s="95"/>
+      <c r="BX35" s="95"/>
+      <c r="BY35" s="95"/>
+      <c r="BZ35" s="95"/>
+      <c r="CA35" s="95"/>
+      <c r="CB35" s="95"/>
+      <c r="CC35" s="95"/>
+      <c r="CD35" s="95"/>
+      <c r="CE35" s="96"/>
       <c r="CF35" s="5"/>
       <c r="CG35" s="5"/>
       <c r="CH35" s="5"/>
@@ -7502,24 +7717,24 @@
       <c r="CJ35" s="5"/>
     </row>
     <row r="36" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="107">
+      <c r="A36" s="110">
         <v>12</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="104" t="s">
+      <c r="B36" s="111"/>
+      <c r="C36" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="106"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="96"/>
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
@@ -7542,55 +7757,55 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
-      <c r="AK36" s="104" t="s">
+      <c r="AK36" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="105"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="105"/>
-      <c r="AT36" s="105"/>
-      <c r="AU36" s="105"/>
-      <c r="AV36" s="105"/>
-      <c r="AW36" s="105"/>
-      <c r="AX36" s="105"/>
-      <c r="AY36" s="105"/>
-      <c r="AZ36" s="105"/>
-      <c r="BA36" s="105"/>
-      <c r="BB36" s="105"/>
-      <c r="BC36" s="105"/>
-      <c r="BD36" s="105"/>
-      <c r="BE36" s="105"/>
-      <c r="BF36" s="105"/>
-      <c r="BG36" s="105"/>
-      <c r="BH36" s="105"/>
-      <c r="BI36" s="105"/>
-      <c r="BJ36" s="105"/>
-      <c r="BK36" s="105"/>
-      <c r="BL36" s="105"/>
-      <c r="BM36" s="105"/>
-      <c r="BN36" s="105"/>
-      <c r="BO36" s="105"/>
-      <c r="BP36" s="105"/>
-      <c r="BQ36" s="105"/>
-      <c r="BR36" s="105"/>
-      <c r="BS36" s="105"/>
-      <c r="BT36" s="105"/>
-      <c r="BU36" s="105"/>
-      <c r="BV36" s="105"/>
-      <c r="BW36" s="105"/>
-      <c r="BX36" s="105"/>
-      <c r="BY36" s="105"/>
-      <c r="BZ36" s="105"/>
-      <c r="CA36" s="105"/>
-      <c r="CB36" s="105"/>
-      <c r="CC36" s="105"/>
-      <c r="CD36" s="105"/>
-      <c r="CE36" s="106"/>
+      <c r="AL36" s="95"/>
+      <c r="AM36" s="95"/>
+      <c r="AN36" s="95"/>
+      <c r="AO36" s="95"/>
+      <c r="AP36" s="95"/>
+      <c r="AQ36" s="95"/>
+      <c r="AR36" s="95"/>
+      <c r="AS36" s="95"/>
+      <c r="AT36" s="95"/>
+      <c r="AU36" s="95"/>
+      <c r="AV36" s="95"/>
+      <c r="AW36" s="95"/>
+      <c r="AX36" s="95"/>
+      <c r="AY36" s="95"/>
+      <c r="AZ36" s="95"/>
+      <c r="BA36" s="95"/>
+      <c r="BB36" s="95"/>
+      <c r="BC36" s="95"/>
+      <c r="BD36" s="95"/>
+      <c r="BE36" s="95"/>
+      <c r="BF36" s="95"/>
+      <c r="BG36" s="95"/>
+      <c r="BH36" s="95"/>
+      <c r="BI36" s="95"/>
+      <c r="BJ36" s="95"/>
+      <c r="BK36" s="95"/>
+      <c r="BL36" s="95"/>
+      <c r="BM36" s="95"/>
+      <c r="BN36" s="95"/>
+      <c r="BO36" s="95"/>
+      <c r="BP36" s="95"/>
+      <c r="BQ36" s="95"/>
+      <c r="BR36" s="95"/>
+      <c r="BS36" s="95"/>
+      <c r="BT36" s="95"/>
+      <c r="BU36" s="95"/>
+      <c r="BV36" s="95"/>
+      <c r="BW36" s="95"/>
+      <c r="BX36" s="95"/>
+      <c r="BY36" s="95"/>
+      <c r="BZ36" s="95"/>
+      <c r="CA36" s="95"/>
+      <c r="CB36" s="95"/>
+      <c r="CC36" s="95"/>
+      <c r="CD36" s="95"/>
+      <c r="CE36" s="96"/>
       <c r="CF36" s="5"/>
       <c r="CG36" s="5"/>
       <c r="CH36" s="5"/>
@@ -7598,24 +7813,24 @@
       <c r="CJ36" s="5"/>
     </row>
     <row r="37" spans="1:90" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="94">
+      <c r="A37" s="145">
         <v>13</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="96" t="s">
+      <c r="B37" s="146"/>
+      <c r="C37" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="99"/>
       <c r="O37" s="14"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
@@ -7638,55 +7853,55 @@
       <c r="AH37" s="15"/>
       <c r="AI37" s="15"/>
       <c r="AJ37" s="15"/>
-      <c r="AK37" s="96" t="s">
+      <c r="AK37" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AL37" s="97"/>
-      <c r="AM37" s="97"/>
-      <c r="AN37" s="97"/>
-      <c r="AO37" s="97"/>
-      <c r="AP37" s="97"/>
-      <c r="AQ37" s="97"/>
-      <c r="AR37" s="97"/>
-      <c r="AS37" s="97"/>
-      <c r="AT37" s="97"/>
-      <c r="AU37" s="97"/>
-      <c r="AV37" s="97"/>
-      <c r="AW37" s="97"/>
-      <c r="AX37" s="97"/>
-      <c r="AY37" s="97"/>
-      <c r="AZ37" s="97"/>
-      <c r="BA37" s="97"/>
-      <c r="BB37" s="97"/>
-      <c r="BC37" s="97"/>
-      <c r="BD37" s="97"/>
-      <c r="BE37" s="97"/>
-      <c r="BF37" s="97"/>
-      <c r="BG37" s="97"/>
-      <c r="BH37" s="97"/>
-      <c r="BI37" s="97"/>
-      <c r="BJ37" s="97"/>
-      <c r="BK37" s="97"/>
-      <c r="BL37" s="97"/>
-      <c r="BM37" s="97"/>
-      <c r="BN37" s="97"/>
-      <c r="BO37" s="97"/>
-      <c r="BP37" s="97"/>
-      <c r="BQ37" s="97"/>
-      <c r="BR37" s="97"/>
-      <c r="BS37" s="97"/>
-      <c r="BT37" s="97"/>
-      <c r="BU37" s="97"/>
-      <c r="BV37" s="97"/>
-      <c r="BW37" s="97"/>
-      <c r="BX37" s="97"/>
-      <c r="BY37" s="97"/>
-      <c r="BZ37" s="97"/>
-      <c r="CA37" s="97"/>
-      <c r="CB37" s="97"/>
-      <c r="CC37" s="97"/>
-      <c r="CD37" s="97"/>
-      <c r="CE37" s="98"/>
+      <c r="AL37" s="98"/>
+      <c r="AM37" s="98"/>
+      <c r="AN37" s="98"/>
+      <c r="AO37" s="98"/>
+      <c r="AP37" s="98"/>
+      <c r="AQ37" s="98"/>
+      <c r="AR37" s="98"/>
+      <c r="AS37" s="98"/>
+      <c r="AT37" s="98"/>
+      <c r="AU37" s="98"/>
+      <c r="AV37" s="98"/>
+      <c r="AW37" s="98"/>
+      <c r="AX37" s="98"/>
+      <c r="AY37" s="98"/>
+      <c r="AZ37" s="98"/>
+      <c r="BA37" s="98"/>
+      <c r="BB37" s="98"/>
+      <c r="BC37" s="98"/>
+      <c r="BD37" s="98"/>
+      <c r="BE37" s="98"/>
+      <c r="BF37" s="98"/>
+      <c r="BG37" s="98"/>
+      <c r="BH37" s="98"/>
+      <c r="BI37" s="98"/>
+      <c r="BJ37" s="98"/>
+      <c r="BK37" s="98"/>
+      <c r="BL37" s="98"/>
+      <c r="BM37" s="98"/>
+      <c r="BN37" s="98"/>
+      <c r="BO37" s="98"/>
+      <c r="BP37" s="98"/>
+      <c r="BQ37" s="98"/>
+      <c r="BR37" s="98"/>
+      <c r="BS37" s="98"/>
+      <c r="BT37" s="98"/>
+      <c r="BU37" s="98"/>
+      <c r="BV37" s="98"/>
+      <c r="BW37" s="98"/>
+      <c r="BX37" s="98"/>
+      <c r="BY37" s="98"/>
+      <c r="BZ37" s="98"/>
+      <c r="CA37" s="98"/>
+      <c r="CB37" s="98"/>
+      <c r="CC37" s="98"/>
+      <c r="CD37" s="98"/>
+      <c r="CE37" s="99"/>
       <c r="CF37" s="5"/>
       <c r="CG37" s="5"/>
       <c r="CH37" s="5"/>
@@ -14779,6 +14994,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:N35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y4"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="A6:CE6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="Z1:AI1"/>
+    <mergeCell ref="Z2:AI4"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="AJ2:AV4"/>
+    <mergeCell ref="AW2:BF4"/>
+    <mergeCell ref="CB2:CE4"/>
+    <mergeCell ref="AJ1:AV1"/>
+    <mergeCell ref="AW1:BF1"/>
+    <mergeCell ref="BT1:CA1"/>
+    <mergeCell ref="BT2:BW4"/>
+    <mergeCell ref="BX2:CA4"/>
+    <mergeCell ref="BG2:BS4"/>
+    <mergeCell ref="BG1:BS1"/>
+    <mergeCell ref="O18:AJ18"/>
+    <mergeCell ref="AK9:CE9"/>
+    <mergeCell ref="AK10:CE10"/>
+    <mergeCell ref="AK11:CE11"/>
+    <mergeCell ref="AK12:CE12"/>
+    <mergeCell ref="AK13:CE13"/>
+    <mergeCell ref="AK14:CE14"/>
+    <mergeCell ref="AK15:CE15"/>
+    <mergeCell ref="AK16:CE16"/>
+    <mergeCell ref="AK17:CE17"/>
+    <mergeCell ref="AK18:CE18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:N17"/>
     <mergeCell ref="AK35:CE35"/>
     <mergeCell ref="AK36:CE36"/>
     <mergeCell ref="AK37:CE37"/>
@@ -14803,85 +15097,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="O18:AJ18"/>
-    <mergeCell ref="AK9:CE9"/>
-    <mergeCell ref="AK10:CE10"/>
-    <mergeCell ref="AK11:CE11"/>
-    <mergeCell ref="AK12:CE12"/>
-    <mergeCell ref="AK13:CE13"/>
-    <mergeCell ref="AK14:CE14"/>
-    <mergeCell ref="AK15:CE15"/>
-    <mergeCell ref="AK16:CE16"/>
-    <mergeCell ref="AK17:CE17"/>
-    <mergeCell ref="AK18:CE18"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="AJ2:AV4"/>
-    <mergeCell ref="AW2:BF4"/>
-    <mergeCell ref="CB2:CE4"/>
-    <mergeCell ref="AJ1:AV1"/>
-    <mergeCell ref="AW1:BF1"/>
-    <mergeCell ref="BT1:CA1"/>
-    <mergeCell ref="BT2:BW4"/>
-    <mergeCell ref="BX2:CA4"/>
-    <mergeCell ref="BG2:BS4"/>
-    <mergeCell ref="BG1:BS1"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y4"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="A6:CE6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="Z1:AI1"/>
-    <mergeCell ref="Z2:AI4"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:N35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:N36"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -14908,362 +15123,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="109" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="109" t="s">
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="136"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="137"/>
-      <c r="AW1" s="109" t="s">
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="111"/>
-      <c r="BG1" s="109" t="s">
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="134"/>
+      <c r="AZ1" s="134"/>
+      <c r="BA1" s="134"/>
+      <c r="BB1" s="134"/>
+      <c r="BC1" s="134"/>
+      <c r="BD1" s="134"/>
+      <c r="BE1" s="134"/>
+      <c r="BF1" s="135"/>
+      <c r="BG1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BQ1" s="110"/>
-      <c r="BR1" s="110"/>
-      <c r="BS1" s="111"/>
-      <c r="BT1" s="109" t="s">
+      <c r="BH1" s="134"/>
+      <c r="BI1" s="134"/>
+      <c r="BJ1" s="134"/>
+      <c r="BK1" s="134"/>
+      <c r="BL1" s="134"/>
+      <c r="BM1" s="134"/>
+      <c r="BN1" s="134"/>
+      <c r="BO1" s="134"/>
+      <c r="BP1" s="134"/>
+      <c r="BQ1" s="134"/>
+      <c r="BR1" s="134"/>
+      <c r="BS1" s="135"/>
+      <c r="BT1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="110"/>
-      <c r="BV1" s="110"/>
-      <c r="BW1" s="110"/>
-      <c r="BX1" s="110"/>
-      <c r="BY1" s="110"/>
-      <c r="BZ1" s="110"/>
-      <c r="CA1" s="111"/>
-      <c r="CB1" s="109" t="s">
+      <c r="BU1" s="134"/>
+      <c r="BV1" s="134"/>
+      <c r="BW1" s="134"/>
+      <c r="BX1" s="134"/>
+      <c r="BY1" s="134"/>
+      <c r="BZ1" s="134"/>
+      <c r="CA1" s="135"/>
+      <c r="CB1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="136"/>
-      <c r="CD1" s="136"/>
-      <c r="CE1" s="137"/>
+      <c r="CC1" s="113"/>
+      <c r="CD1" s="113"/>
+      <c r="CE1" s="114"/>
     </row>
     <row r="2" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="139"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="139"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128"/>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="149"/>
-      <c r="BI2" s="149"/>
-      <c r="BJ2" s="149"/>
-      <c r="BK2" s="149"/>
-      <c r="BL2" s="149"/>
-      <c r="BM2" s="149"/>
-      <c r="BN2" s="149"/>
-      <c r="BO2" s="149"/>
-      <c r="BP2" s="149"/>
-      <c r="BQ2" s="149"/>
-      <c r="BR2" s="149"/>
-      <c r="BS2" s="150"/>
-      <c r="BT2" s="148"/>
-      <c r="BU2" s="149"/>
-      <c r="BV2" s="149"/>
-      <c r="BW2" s="150"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="149"/>
-      <c r="BZ2" s="149"/>
-      <c r="CA2" s="150"/>
-      <c r="CB2" s="147" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="137"/>
+      <c r="BI2" s="137"/>
+      <c r="BJ2" s="137"/>
+      <c r="BK2" s="137"/>
+      <c r="BL2" s="137"/>
+      <c r="BM2" s="137"/>
+      <c r="BN2" s="137"/>
+      <c r="BO2" s="137"/>
+      <c r="BP2" s="137"/>
+      <c r="BQ2" s="137"/>
+      <c r="BR2" s="137"/>
+      <c r="BS2" s="138"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="137"/>
+      <c r="BV2" s="137"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="136"/>
+      <c r="BY2" s="137"/>
+      <c r="BZ2" s="137"/>
+      <c r="CA2" s="138"/>
+      <c r="CB2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="139"/>
-      <c r="CD2" s="139"/>
-      <c r="CE2" s="140"/>
+      <c r="CC2" s="116"/>
+      <c r="CD2" s="116"/>
+      <c r="CE2" s="117"/>
     </row>
     <row r="3" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142"/>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="142"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="131"/>
-      <c r="BC3" s="131"/>
-      <c r="BD3" s="131"/>
-      <c r="BE3" s="131"/>
-      <c r="BF3" s="132"/>
-      <c r="BG3" s="151"/>
-      <c r="BH3" s="152"/>
-      <c r="BI3" s="152"/>
-      <c r="BJ3" s="152"/>
-      <c r="BK3" s="152"/>
-      <c r="BL3" s="152"/>
-      <c r="BM3" s="152"/>
-      <c r="BN3" s="152"/>
-      <c r="BO3" s="152"/>
-      <c r="BP3" s="152"/>
-      <c r="BQ3" s="152"/>
-      <c r="BR3" s="152"/>
-      <c r="BS3" s="153"/>
-      <c r="BT3" s="151"/>
-      <c r="BU3" s="152"/>
-      <c r="BV3" s="152"/>
-      <c r="BW3" s="153"/>
-      <c r="BX3" s="151"/>
-      <c r="BY3" s="152"/>
-      <c r="BZ3" s="152"/>
-      <c r="CA3" s="153"/>
-      <c r="CB3" s="141"/>
-      <c r="CC3" s="142"/>
-      <c r="CD3" s="142"/>
-      <c r="CE3" s="143"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="127"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="140"/>
+      <c r="BI3" s="140"/>
+      <c r="BJ3" s="140"/>
+      <c r="BK3" s="140"/>
+      <c r="BL3" s="140"/>
+      <c r="BM3" s="140"/>
+      <c r="BN3" s="140"/>
+      <c r="BO3" s="140"/>
+      <c r="BP3" s="140"/>
+      <c r="BQ3" s="140"/>
+      <c r="BR3" s="140"/>
+      <c r="BS3" s="141"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="140"/>
+      <c r="BV3" s="140"/>
+      <c r="BW3" s="141"/>
+      <c r="BX3" s="139"/>
+      <c r="BY3" s="140"/>
+      <c r="BZ3" s="140"/>
+      <c r="CA3" s="141"/>
+      <c r="CB3" s="118"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="120"/>
     </row>
     <row r="4" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="145"/>
-      <c r="AL4" s="145"/>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="145"/>
-      <c r="AO4" s="145"/>
-      <c r="AP4" s="145"/>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="145"/>
-      <c r="AS4" s="145"/>
-      <c r="AT4" s="145"/>
-      <c r="AU4" s="145"/>
-      <c r="AV4" s="146"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="134"/>
-      <c r="BA4" s="134"/>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="155"/>
-      <c r="BI4" s="155"/>
-      <c r="BJ4" s="155"/>
-      <c r="BK4" s="155"/>
-      <c r="BL4" s="155"/>
-      <c r="BM4" s="155"/>
-      <c r="BN4" s="155"/>
-      <c r="BO4" s="155"/>
-      <c r="BP4" s="155"/>
-      <c r="BQ4" s="155"/>
-      <c r="BR4" s="155"/>
-      <c r="BS4" s="156"/>
-      <c r="BT4" s="154"/>
-      <c r="BU4" s="155"/>
-      <c r="BV4" s="155"/>
-      <c r="BW4" s="156"/>
-      <c r="BX4" s="154"/>
-      <c r="BY4" s="155"/>
-      <c r="BZ4" s="155"/>
-      <c r="CA4" s="156"/>
-      <c r="CB4" s="144"/>
-      <c r="CC4" s="145"/>
-      <c r="CD4" s="145"/>
-      <c r="CE4" s="146"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="131"/>
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="131"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="142"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="143"/>
+      <c r="BK4" s="143"/>
+      <c r="BL4" s="143"/>
+      <c r="BM4" s="143"/>
+      <c r="BN4" s="143"/>
+      <c r="BO4" s="143"/>
+      <c r="BP4" s="143"/>
+      <c r="BQ4" s="143"/>
+      <c r="BR4" s="143"/>
+      <c r="BS4" s="144"/>
+      <c r="BT4" s="142"/>
+      <c r="BU4" s="143"/>
+      <c r="BV4" s="143"/>
+      <c r="BW4" s="144"/>
+      <c r="BX4" s="142"/>
+      <c r="BY4" s="143"/>
+      <c r="BZ4" s="143"/>
+      <c r="CA4" s="144"/>
+      <c r="CB4" s="121"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="123"/>
     </row>
     <row r="5" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
